--- a/招商团长/talkLine.xlsx
+++ b/招商团长/talkLine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="939">
   <si>
     <t>店铺旺旺</t>
   </si>
@@ -2836,6 +2836,18 @@
   </si>
   <si>
     <t>Q :718691517</t>
+  </si>
+  <si>
+    <t>雅集旗舰店</t>
+  </si>
+  <si>
+    <t>Q :804106794微信：18258841587</t>
+  </si>
+  <si>
+    <t>富光天益专卖店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q:993068038  </t>
   </si>
 </sst>
 </file>
@@ -2969,6 +2981,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2977,9 +3011,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3000,6 +3102,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -3008,106 +3117,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3128,7 +3140,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3140,13 +3188,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3158,7 +3200,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3170,7 +3230,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3188,13 +3248,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3206,61 +3302,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3272,43 +3320,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3322,6 +3334,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3329,21 +3356,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3373,16 +3385,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3427,10 +3439,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3439,137 +3451,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3650,6 +3662,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3973,7 +3988,7 @@
   <dimension ref="A1:E762"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="A455" sqref="A455"/>
+      <selection activeCell="A457" sqref="A457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -7743,11 +7758,21 @@
         <v>934</v>
       </c>
     </row>
-    <row r="456" ht="14.25" spans="1:1">
-      <c r="A456" s="21"/>
-    </row>
-    <row r="457" ht="14.25" spans="1:1">
-      <c r="A457" s="21"/>
+    <row r="456" ht="14.25" spans="1:2">
+      <c r="A456" s="21" t="s">
+        <v>935</v>
+      </c>
+      <c r="B456" s="4" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="457" ht="14.25" spans="1:2">
+      <c r="A457" s="27" t="s">
+        <v>937</v>
+      </c>
+      <c r="B457" s="4" t="s">
+        <v>938</v>
+      </c>
     </row>
     <row r="458" ht="14.25" spans="1:1">
       <c r="A458" s="21"/>

--- a/招商团长/talkLine.xlsx
+++ b/招商团长/talkLine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20730" windowHeight="9705"/>
+    <workbookView windowWidth="17508" windowHeight="8124"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="960">
   <si>
     <t>店铺旺旺</t>
   </si>
@@ -2849,16 +2849,79 @@
   <si>
     <t xml:space="preserve">Q:993068038  </t>
   </si>
+  <si>
+    <t xml:space="preserve">Q:195135422  </t>
+  </si>
+  <si>
+    <t>阔豪旗舰店</t>
+  </si>
+  <si>
+    <t>Q:67888060</t>
+  </si>
+  <si>
+    <t>水中神旗舰店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q:2731827621  </t>
+  </si>
+  <si>
+    <t>conku康酷旗舰店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q:63674535  </t>
+  </si>
+  <si>
+    <t>powcan家居旗舰店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q:365935677  </t>
+  </si>
+  <si>
+    <t>富光希诺专卖店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q:248802564  </t>
+  </si>
+  <si>
+    <t>多博尔家居专营店</t>
+  </si>
+  <si>
+    <t>Q:1101701600</t>
+  </si>
+  <si>
+    <t>指南者旗舰店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q:12751464  </t>
+  </si>
+  <si>
+    <t>家美吉日本进口家居</t>
+  </si>
+  <si>
+    <t>Q :67752956 微信：15658906851</t>
+  </si>
+  <si>
+    <t>晏菲路家居专营店</t>
+  </si>
+  <si>
+    <t>微信：K13602481500</t>
+  </si>
+  <si>
+    <t>melais旗舰店</t>
+  </si>
+  <si>
+    <t>Q :463490417</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -2988,6 +3051,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2997,7 +3067,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3011,8 +3081,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3020,7 +3106,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3041,34 +3127,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3080,15 +3143,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3109,19 +3173,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3140,7 +3203,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3152,13 +3221,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3170,7 +3269,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3182,7 +3281,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3194,61 +3359,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3260,67 +3383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3349,6 +3412,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3364,22 +3442,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3395,15 +3458,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3426,8 +3480,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3442,7 +3505,7 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3451,109 +3514,94 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3562,22 +3610,37 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3663,8 +3726,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3987,17 +4050,17 @@
   <sheetPr/>
   <dimension ref="A1:E762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="A457" sqref="A457"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A459" workbookViewId="0">
+      <selection activeCell="A468" sqref="A468"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="20.6296296296296" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="35.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="37.25" style="4" customWidth="1"/>
-    <col min="5" max="6" width="15.8833333333333" customWidth="1"/>
+    <col min="5" max="6" width="15.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4014,7 +4077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:2">
+    <row r="2" ht="17.4" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -4022,7 +4085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:2">
+    <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -4030,7 +4093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:2">
+    <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -4038,7 +4101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:2">
+    <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -4046,7 +4109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:3">
+    <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -4065,7 +4128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:2">
+    <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -4073,7 +4136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:2">
+    <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -4081,7 +4144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:3">
+    <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -4092,7 +4155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:2">
+    <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -4100,7 +4163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:2">
+    <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
@@ -4108,7 +4171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:2">
+    <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -4116,7 +4179,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:2">
+    <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -4124,7 +4187,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:2">
+    <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
@@ -4132,7 +4195,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:3">
+    <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
         <v>34</v>
       </c>
@@ -4143,7 +4206,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:2">
+    <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
@@ -4151,7 +4214,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="18" s="1" customFormat="1" spans="1:4">
       <c r="A18" s="8" t="s">
         <v>39</v>
       </c>
@@ -4173,7 +4236,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:2">
+    <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
         <v>45</v>
       </c>
@@ -4181,7 +4244,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="21" s="1" customFormat="1" spans="1:4">
       <c r="A21" s="11" t="s">
         <v>47</v>
       </c>
@@ -4195,7 +4258,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:2">
+    <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
         <v>51</v>
       </c>
@@ -4203,7 +4266,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:2">
+    <row r="23" spans="1:2">
       <c r="A23" s="13" t="s">
         <v>53</v>
       </c>
@@ -4211,7 +4274,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:2">
+    <row r="24" ht="15" spans="1:2">
       <c r="A24" s="5" t="s">
         <v>55</v>
       </c>
@@ -4219,7 +4282,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:2">
+    <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
         <v>57</v>
       </c>
@@ -4227,7 +4290,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="14.25" spans="1:4">
+    <row r="26" s="2" customFormat="1" spans="1:4">
       <c r="A26" s="16" t="s">
         <v>59</v>
       </c>
@@ -4237,7 +4300,7 @@
       </c>
       <c r="D26" s="17"/>
     </row>
-    <row r="27" ht="14.25" spans="1:2">
+    <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
         <v>61</v>
       </c>
@@ -4245,7 +4308,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="28" s="1" customFormat="1" spans="1:4">
       <c r="A28" s="8" t="s">
         <v>63</v>
       </c>
@@ -4259,7 +4322,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:3">
+    <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
         <v>67</v>
       </c>
@@ -4270,7 +4333,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:3">
+    <row r="30" spans="1:3">
       <c r="A30" s="5" t="s">
         <v>70</v>
       </c>
@@ -4278,7 +4341,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:2">
+    <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
         <v>71</v>
       </c>
@@ -4286,7 +4349,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:2">
+    <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
         <v>73</v>
       </c>
@@ -4294,7 +4357,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:2">
+    <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
         <v>75</v>
       </c>
@@ -4302,7 +4365,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:2">
+    <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
         <v>77</v>
       </c>
@@ -4310,7 +4373,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="1:2">
+    <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
         <v>79</v>
       </c>
@@ -4318,7 +4381,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:2">
+    <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
         <v>81</v>
       </c>
@@ -4326,7 +4389,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" s="3" customFormat="1" ht="14.25" spans="1:5">
+    <row r="37" s="3" customFormat="1" spans="1:5">
       <c r="A37" s="19" t="s">
         <v>83</v>
       </c>
@@ -4341,7 +4404,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="1:2">
+    <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
         <v>87</v>
       </c>
@@ -4349,7 +4412,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:2">
+    <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
         <v>89</v>
       </c>
@@ -4357,7 +4420,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="1:2">
+    <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
         <v>91</v>
       </c>
@@ -4365,7 +4428,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="1:2">
+    <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
         <v>93</v>
       </c>
@@ -4373,7 +4436,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="1:2">
+    <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
         <v>95</v>
       </c>
@@ -4381,7 +4444,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" ht="14.25" spans="1:2">
+    <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
         <v>97</v>
       </c>
@@ -4389,7 +4452,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" ht="14.25" spans="1:2">
+    <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
         <v>99</v>
       </c>
@@ -4397,7 +4460,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="1:2">
+    <row r="45" spans="1:2">
       <c r="A45" s="21" t="s">
         <v>101</v>
       </c>
@@ -4405,7 +4468,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="1:2">
+    <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
         <v>103</v>
       </c>
@@ -4413,7 +4476,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" ht="14.25" spans="1:2">
+    <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
         <v>105</v>
       </c>
@@ -4421,7 +4484,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" ht="14.25" spans="1:2">
+    <row r="48" spans="1:2">
       <c r="A48" s="21" t="s">
         <v>107</v>
       </c>
@@ -4429,7 +4492,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="49" s="1" customFormat="1" spans="1:4">
       <c r="A49" s="8" t="s">
         <v>109</v>
       </c>
@@ -4451,7 +4514,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" ht="14.25" spans="1:3">
+    <row r="51" spans="1:3">
       <c r="A51" s="5" t="s">
         <v>115</v>
       </c>
@@ -4459,7 +4522,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="52" s="1" customFormat="1" spans="1:4">
       <c r="A52" s="8" t="s">
         <v>117</v>
       </c>
@@ -4471,7 +4534,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" ht="14.25" spans="1:2">
+    <row r="53" spans="1:2">
       <c r="A53" s="21" t="s">
         <v>120</v>
       </c>
@@ -4479,7 +4542,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" ht="14.25" spans="1:2">
+    <row r="54" spans="1:2">
       <c r="A54" s="21" t="s">
         <v>122</v>
       </c>
@@ -4487,7 +4550,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" ht="14.25" spans="1:2">
+    <row r="55" spans="1:2">
       <c r="A55" s="21" t="s">
         <v>124</v>
       </c>
@@ -4495,7 +4558,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="56" ht="14.25" spans="1:2">
+    <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
         <v>126</v>
       </c>
@@ -4503,7 +4566,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="57" ht="14.25" spans="1:2">
+    <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
         <v>128</v>
       </c>
@@ -4511,7 +4574,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" ht="14.25" spans="1:2">
+    <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
         <v>130</v>
       </c>
@@ -4519,7 +4582,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" ht="14.25" spans="1:2">
+    <row r="59" spans="1:2">
       <c r="A59" s="21" t="s">
         <v>132</v>
       </c>
@@ -4527,7 +4590,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="1:2">
+    <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
         <v>134</v>
       </c>
@@ -4535,7 +4598,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" ht="14.25" spans="1:2">
+    <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
         <v>136</v>
       </c>
@@ -4543,7 +4606,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" ht="14.25" spans="1:2">
+    <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
         <v>138</v>
       </c>
@@ -4551,7 +4614,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" ht="14.25" spans="1:2">
+    <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
         <v>140</v>
       </c>
@@ -4559,7 +4622,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" ht="14.25" spans="1:2">
+    <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
         <v>142</v>
       </c>
@@ -4567,7 +4630,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" ht="14.25" spans="1:2">
+    <row r="65" spans="1:2">
       <c r="A65" s="5" t="s">
         <v>144</v>
       </c>
@@ -4575,7 +4638,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="66" ht="14.25" spans="1:3">
+    <row r="66" spans="1:3">
       <c r="A66" s="5" t="s">
         <v>146</v>
       </c>
@@ -4584,7 +4647,7 @@
       </c>
       <c r="C66"/>
     </row>
-    <row r="67" ht="14.25" spans="1:2">
+    <row r="67" spans="1:2">
       <c r="A67" s="5" t="s">
         <v>148</v>
       </c>
@@ -4592,7 +4655,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" ht="14.25" spans="1:2">
+    <row r="68" spans="1:2">
       <c r="A68" s="21" t="s">
         <v>150</v>
       </c>
@@ -4600,7 +4663,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="69" ht="14.25" spans="1:2">
+    <row r="69" spans="1:2">
       <c r="A69" s="5" t="s">
         <v>152</v>
       </c>
@@ -4608,7 +4671,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" ht="14.25" spans="1:2">
+    <row r="70" spans="1:2">
       <c r="A70" s="21" t="s">
         <v>154</v>
       </c>
@@ -4616,7 +4679,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" ht="14.25" spans="1:2">
+    <row r="71" spans="1:2">
       <c r="A71" s="5" t="s">
         <v>156</v>
       </c>
@@ -4624,7 +4687,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="72" ht="14.25" spans="1:2">
+    <row r="72" spans="1:2">
       <c r="A72" s="5" t="s">
         <v>158</v>
       </c>
@@ -4632,7 +4695,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73" ht="14.25" spans="1:2">
+    <row r="73" spans="1:2">
       <c r="A73" s="5" t="s">
         <v>160</v>
       </c>
@@ -4640,7 +4703,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="74" ht="14.25" spans="1:2">
+    <row r="74" spans="1:2">
       <c r="A74" s="5" t="s">
         <v>162</v>
       </c>
@@ -4648,7 +4711,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="75" ht="14.25" spans="1:2">
+    <row r="75" spans="1:2">
       <c r="A75" s="5" t="s">
         <v>164</v>
       </c>
@@ -4656,7 +4719,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="76" ht="14.25" spans="1:2">
+    <row r="76" spans="1:2">
       <c r="A76" s="5" t="s">
         <v>166</v>
       </c>
@@ -4664,7 +4727,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="77" ht="14.25" spans="1:2">
+    <row r="77" spans="1:2">
       <c r="A77" s="21" t="s">
         <v>168</v>
       </c>
@@ -4672,7 +4735,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="78" ht="14.25" spans="1:2">
+    <row r="78" spans="1:2">
       <c r="A78" s="5" t="s">
         <v>170</v>
       </c>
@@ -4680,7 +4743,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" ht="14.25" spans="1:2">
+    <row r="79" spans="1:2">
       <c r="A79" s="5" t="s">
         <v>172</v>
       </c>
@@ -4688,7 +4751,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="80" ht="14.25" spans="1:2">
+    <row r="80" spans="1:2">
       <c r="A80" s="21" t="s">
         <v>174</v>
       </c>
@@ -4696,7 +4759,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="81" ht="14.25" spans="1:2">
+    <row r="81" spans="1:2">
       <c r="A81" s="5" t="s">
         <v>176</v>
       </c>
@@ -4704,7 +4767,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" ht="14.25" spans="1:2">
+    <row r="82" spans="1:2">
       <c r="A82" s="5" t="s">
         <v>178</v>
       </c>
@@ -4712,7 +4775,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" ht="14.25" spans="1:2">
+    <row r="83" spans="1:2">
       <c r="A83" s="5" t="s">
         <v>180</v>
       </c>
@@ -4720,7 +4783,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="84" ht="14.25" spans="1:2">
+    <row r="84" spans="1:2">
       <c r="A84" s="5" t="s">
         <v>182</v>
       </c>
@@ -4728,7 +4791,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="85" s="1" customFormat="1" spans="1:4">
       <c r="A85" s="8" t="s">
         <v>184</v>
       </c>
@@ -4740,7 +4803,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="86" ht="14.25" spans="1:2">
+    <row r="86" spans="1:2">
       <c r="A86" s="5" t="s">
         <v>187</v>
       </c>
@@ -4748,7 +4811,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="87" ht="14.25" spans="1:2">
+    <row r="87" spans="1:2">
       <c r="A87" s="21" t="s">
         <v>189</v>
       </c>
@@ -4756,7 +4819,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" ht="14.25" spans="1:3">
+    <row r="88" spans="1:3">
       <c r="A88" s="5" t="s">
         <v>191</v>
       </c>
@@ -4764,7 +4827,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="89" ht="14.25" spans="1:2">
+    <row r="89" spans="1:2">
       <c r="A89" s="5" t="s">
         <v>193</v>
       </c>
@@ -4772,7 +4835,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="90" ht="14.25" spans="1:2">
+    <row r="90" spans="1:2">
       <c r="A90" s="21" t="s">
         <v>195</v>
       </c>
@@ -4780,7 +4843,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="91" ht="14.25" spans="1:2">
+    <row r="91" spans="1:2">
       <c r="A91" s="5" t="s">
         <v>197</v>
       </c>
@@ -4788,7 +4851,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="92" ht="14.25" spans="1:2">
+    <row r="92" spans="1:2">
       <c r="A92" s="5" t="s">
         <v>199</v>
       </c>
@@ -4796,7 +4859,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" ht="14.25" spans="1:2">
+    <row r="93" spans="1:2">
       <c r="A93" s="5" t="s">
         <v>201</v>
       </c>
@@ -4804,7 +4867,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="94" ht="14.25" spans="1:2">
+    <row r="94" spans="1:2">
       <c r="A94" s="5" t="s">
         <v>203</v>
       </c>
@@ -4812,7 +4875,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="95" ht="14.25" spans="1:2">
+    <row r="95" spans="1:2">
       <c r="A95" s="5" t="s">
         <v>205</v>
       </c>
@@ -4820,7 +4883,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="96" ht="14.25" spans="1:2">
+    <row r="96" spans="1:2">
       <c r="A96" s="5" t="s">
         <v>207</v>
       </c>
@@ -4828,7 +4891,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="97" ht="14.25" spans="1:2">
+    <row r="97" spans="1:2">
       <c r="A97" s="5" t="s">
         <v>209</v>
       </c>
@@ -4836,7 +4899,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="98" ht="14.25" spans="1:2">
+    <row r="98" spans="1:2">
       <c r="A98" s="21" t="s">
         <v>211</v>
       </c>
@@ -4844,7 +4907,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="99" ht="14.25" spans="1:2">
+    <row r="99" spans="1:2">
       <c r="A99" s="5" t="s">
         <v>213</v>
       </c>
@@ -4852,7 +4915,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="100" ht="14.25" spans="1:2">
+    <row r="100" spans="1:2">
       <c r="A100" s="5" t="s">
         <v>215</v>
       </c>
@@ -4860,7 +4923,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="101" ht="14.25" spans="1:2">
+    <row r="101" spans="1:2">
       <c r="A101" s="5" t="s">
         <v>217</v>
       </c>
@@ -4868,7 +4931,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="102" ht="14.25" spans="1:2">
+    <row r="102" spans="1:2">
       <c r="A102" s="5" t="s">
         <v>219</v>
       </c>
@@ -4876,7 +4939,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="103" ht="14.25" spans="1:2">
+    <row r="103" spans="1:2">
       <c r="A103" s="5" t="s">
         <v>221</v>
       </c>
@@ -4884,7 +4947,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="104" ht="14.25" spans="1:2">
+    <row r="104" spans="1:2">
       <c r="A104" s="5" t="s">
         <v>223</v>
       </c>
@@ -4892,7 +4955,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="105" ht="14.25" spans="1:2">
+    <row r="105" spans="1:2">
       <c r="A105" s="21" t="s">
         <v>225</v>
       </c>
@@ -4900,7 +4963,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="106" ht="14.25" spans="1:2">
+    <row r="106" spans="1:2">
       <c r="A106" s="5" t="s">
         <v>227</v>
       </c>
@@ -4908,7 +4971,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="107" ht="14.25" spans="1:3">
+    <row r="107" spans="1:3">
       <c r="A107" s="5" t="s">
         <v>229</v>
       </c>
@@ -4916,7 +4979,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="108" ht="14.25" spans="1:2">
+    <row r="108" spans="1:2">
       <c r="A108" s="21" t="s">
         <v>231</v>
       </c>
@@ -4924,7 +4987,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="109" ht="14.25" spans="1:2">
+    <row r="109" spans="1:2">
       <c r="A109" s="5" t="s">
         <v>233</v>
       </c>
@@ -4932,7 +4995,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="110" ht="14.25" spans="1:2">
+    <row r="110" spans="1:2">
       <c r="A110" s="21" t="s">
         <v>235</v>
       </c>
@@ -4940,7 +5003,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="111" ht="14.25" spans="1:2">
+    <row r="111" spans="1:2">
       <c r="A111" s="21" t="s">
         <v>237</v>
       </c>
@@ -4948,7 +5011,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="112" s="3" customFormat="1" ht="14.25" spans="1:4">
+    <row r="112" s="3" customFormat="1" spans="1:4">
       <c r="A112" s="19" t="s">
         <v>239</v>
       </c>
@@ -4958,7 +5021,7 @@
       <c r="C112" s="20"/>
       <c r="D112" s="20"/>
     </row>
-    <row r="113" ht="14.25" spans="1:2">
+    <row r="113" spans="1:2">
       <c r="A113" s="21" t="s">
         <v>241</v>
       </c>
@@ -4966,7 +5029,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="114" ht="14.25" spans="1:2">
+    <row r="114" spans="1:2">
       <c r="A114" s="21" t="s">
         <v>243</v>
       </c>
@@ -4974,7 +5037,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="115" ht="14.25" spans="1:2">
+    <row r="115" spans="1:2">
       <c r="A115" s="5" t="s">
         <v>245</v>
       </c>
@@ -4982,7 +5045,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="116" ht="14.25" spans="1:2">
+    <row r="116" spans="1:2">
       <c r="A116" s="21" t="s">
         <v>247</v>
       </c>
@@ -4990,7 +5053,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="117" ht="14.25" spans="1:2">
+    <row r="117" spans="1:2">
       <c r="A117" s="21" t="s">
         <v>249</v>
       </c>
@@ -4998,7 +5061,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="118" ht="14.25" spans="1:2">
+    <row r="118" spans="1:2">
       <c r="A118" s="21" t="s">
         <v>251</v>
       </c>
@@ -5006,7 +5069,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="119" ht="14.25" spans="1:2">
+    <row r="119" spans="1:2">
       <c r="A119" s="21" t="s">
         <v>253</v>
       </c>
@@ -5014,7 +5077,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="120" ht="14.25" spans="1:2">
+    <row r="120" spans="1:2">
       <c r="A120" s="21" t="s">
         <v>255</v>
       </c>
@@ -5022,7 +5085,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="121" ht="14.25" spans="1:2">
+    <row r="121" spans="1:2">
       <c r="A121" s="21" t="s">
         <v>257</v>
       </c>
@@ -5030,7 +5093,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="122" ht="14.25" spans="1:3">
+    <row r="122" spans="1:3">
       <c r="A122" s="21" t="s">
         <v>259</v>
       </c>
@@ -5038,7 +5101,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="123" ht="14.25" spans="1:2">
+    <row r="123" spans="1:2">
       <c r="A123" s="21" t="s">
         <v>261</v>
       </c>
@@ -5046,7 +5109,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="124" ht="14.25" spans="1:2">
+    <row r="124" spans="1:2">
       <c r="A124" s="21" t="s">
         <v>263</v>
       </c>
@@ -5054,7 +5117,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="125" ht="14.25" spans="1:2">
+    <row r="125" spans="1:2">
       <c r="A125" s="21" t="s">
         <v>265</v>
       </c>
@@ -5062,7 +5125,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="126" ht="14.25" spans="1:2">
+    <row r="126" spans="1:2">
       <c r="A126" s="21" t="s">
         <v>267</v>
       </c>
@@ -5070,7 +5133,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="127" ht="14.25" spans="1:2">
+    <row r="127" spans="1:2">
       <c r="A127" s="21" t="s">
         <v>269</v>
       </c>
@@ -5078,7 +5141,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="128" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="128" s="1" customFormat="1" spans="1:4">
       <c r="A128" s="22" t="s">
         <v>271</v>
       </c>
@@ -5092,7 +5155,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="129" ht="14.25" spans="1:2">
+    <row r="129" spans="1:2">
       <c r="A129" s="5" t="s">
         <v>274</v>
       </c>
@@ -5100,7 +5163,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="130" ht="14.25" spans="1:2">
+    <row r="130" spans="1:2">
       <c r="A130" s="21" t="s">
         <v>276</v>
       </c>
@@ -5108,7 +5171,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="131" ht="14.25" spans="1:2">
+    <row r="131" spans="1:2">
       <c r="A131" s="5" t="s">
         <v>278</v>
       </c>
@@ -5116,7 +5179,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="132" ht="14.25" spans="1:2">
+    <row r="132" spans="1:2">
       <c r="A132" s="5" t="s">
         <v>280</v>
       </c>
@@ -5124,7 +5187,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="133" ht="14.25" spans="1:2">
+    <row r="133" spans="1:2">
       <c r="A133" s="21" t="s">
         <v>282</v>
       </c>
@@ -5132,7 +5195,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="134" ht="14.25" spans="1:2">
+    <row r="134" spans="1:2">
       <c r="A134" s="5" t="s">
         <v>284</v>
       </c>
@@ -5140,7 +5203,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="135" ht="14.25" spans="1:2">
+    <row r="135" spans="1:2">
       <c r="A135" s="21" t="s">
         <v>286</v>
       </c>
@@ -5148,7 +5211,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="136" ht="14.25" spans="1:2">
+    <row r="136" spans="1:2">
       <c r="A136" s="21" t="s">
         <v>288</v>
       </c>
@@ -5156,7 +5219,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="137" ht="14.25" spans="1:2">
+    <row r="137" spans="1:2">
       <c r="A137" s="5" t="s">
         <v>290</v>
       </c>
@@ -5164,7 +5227,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="138" ht="14.25" spans="1:2">
+    <row r="138" spans="1:2">
       <c r="A138" s="5" t="s">
         <v>292</v>
       </c>
@@ -5172,7 +5235,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="139" ht="14.25" spans="1:2">
+    <row r="139" spans="1:2">
       <c r="A139" s="21" t="s">
         <v>294</v>
       </c>
@@ -5180,7 +5243,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="140" ht="14.25" spans="1:2">
+    <row r="140" spans="1:2">
       <c r="A140" s="5" t="s">
         <v>296</v>
       </c>
@@ -5188,7 +5251,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="141" ht="14.25" spans="1:2">
+    <row r="141" spans="1:2">
       <c r="A141" s="5" t="s">
         <v>298</v>
       </c>
@@ -5196,7 +5259,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="142" ht="14.25" spans="1:3">
+    <row r="142" spans="1:3">
       <c r="A142" s="21" t="s">
         <v>300</v>
       </c>
@@ -5207,7 +5270,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="143" ht="14.25" spans="1:2">
+    <row r="143" spans="1:2">
       <c r="A143" s="21" t="s">
         <v>303</v>
       </c>
@@ -5215,7 +5278,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="144" ht="14.25" spans="1:2">
+    <row r="144" spans="1:2">
       <c r="A144" s="5" t="s">
         <v>305</v>
       </c>
@@ -5223,7 +5286,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="145" ht="14.25" spans="1:2">
+    <row r="145" spans="1:2">
       <c r="A145" s="21" t="s">
         <v>307</v>
       </c>
@@ -5231,7 +5294,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="146" ht="14.25" spans="1:2">
+    <row r="146" spans="1:2">
       <c r="A146" s="21" t="s">
         <v>309</v>
       </c>
@@ -5239,7 +5302,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="147" ht="14.25" spans="1:2">
+    <row r="147" spans="1:2">
       <c r="A147" s="5" t="s">
         <v>311</v>
       </c>
@@ -5247,7 +5310,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="148" ht="14.25" spans="1:2">
+    <row r="148" spans="1:2">
       <c r="A148" s="21" t="s">
         <v>313</v>
       </c>
@@ -5255,7 +5318,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="149" ht="14.25" spans="1:2">
+    <row r="149" spans="1:2">
       <c r="A149" s="21" t="s">
         <v>315</v>
       </c>
@@ -5263,7 +5326,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="150" ht="14.25" spans="1:2">
+    <row r="150" spans="1:2">
       <c r="A150" s="21" t="s">
         <v>317</v>
       </c>
@@ -5271,7 +5334,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="151" ht="14.25" spans="1:2">
+    <row r="151" spans="1:2">
       <c r="A151" s="5" t="s">
         <v>319</v>
       </c>
@@ -5279,7 +5342,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="152" ht="14.25" spans="1:2">
+    <row r="152" spans="1:2">
       <c r="A152" s="21" t="s">
         <v>321</v>
       </c>
@@ -5287,7 +5350,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="153" ht="14.25" spans="1:2">
+    <row r="153" spans="1:2">
       <c r="A153" s="5" t="s">
         <v>323</v>
       </c>
@@ -5295,7 +5358,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="154" ht="14.25" spans="1:2">
+    <row r="154" spans="1:2">
       <c r="A154" s="21" t="s">
         <v>325</v>
       </c>
@@ -5303,7 +5366,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="155" ht="14.25" spans="1:2">
+    <row r="155" spans="1:2">
       <c r="A155" s="21" t="s">
         <v>327</v>
       </c>
@@ -5311,7 +5374,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="156" ht="14.25" spans="1:2">
+    <row r="156" spans="1:2">
       <c r="A156" s="21" t="s">
         <v>329</v>
       </c>
@@ -5319,7 +5382,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="157" ht="14.25" spans="1:2">
+    <row r="157" spans="1:2">
       <c r="A157" s="21" t="s">
         <v>331</v>
       </c>
@@ -5327,7 +5390,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="158" ht="14.25" spans="1:2">
+    <row r="158" spans="1:2">
       <c r="A158" s="21" t="s">
         <v>333</v>
       </c>
@@ -5335,7 +5398,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="159" ht="14.25" spans="1:2">
+    <row r="159" spans="1:2">
       <c r="A159" s="21" t="s">
         <v>335</v>
       </c>
@@ -5343,7 +5406,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="160" ht="14.25" spans="1:2">
+    <row r="160" spans="1:2">
       <c r="A160" s="21" t="s">
         <v>337</v>
       </c>
@@ -5351,7 +5414,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="161" ht="14.25" spans="1:2">
+    <row r="161" spans="1:2">
       <c r="A161" s="21" t="s">
         <v>339</v>
       </c>
@@ -5359,7 +5422,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="162" ht="14.25" spans="1:2">
+    <row r="162" spans="1:2">
       <c r="A162" s="21" t="s">
         <v>341</v>
       </c>
@@ -5367,7 +5430,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="163" ht="14.25" spans="1:2">
+    <row r="163" spans="1:2">
       <c r="A163" s="5" t="s">
         <v>343</v>
       </c>
@@ -5375,7 +5438,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="164" ht="14.25" spans="1:2">
+    <row r="164" spans="1:2">
       <c r="A164" s="21" t="s">
         <v>345</v>
       </c>
@@ -5383,7 +5446,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="165" ht="14.25" spans="1:2">
+    <row r="165" spans="1:2">
       <c r="A165" s="21" t="s">
         <v>347</v>
       </c>
@@ -5391,7 +5454,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="166" ht="14.25" spans="1:2">
+    <row r="166" spans="1:2">
       <c r="A166" s="23">
         <v>54478797</v>
       </c>
@@ -5399,7 +5462,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="167" ht="14.25" spans="1:2">
+    <row r="167" spans="1:2">
       <c r="A167" s="21" t="s">
         <v>350</v>
       </c>
@@ -5407,7 +5470,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="168" ht="14.25" spans="1:2">
+    <row r="168" spans="1:2">
       <c r="A168" s="21" t="s">
         <v>352</v>
       </c>
@@ -5415,7 +5478,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="169" ht="14.25" spans="1:2">
+    <row r="169" spans="1:2">
       <c r="A169" s="21" t="s">
         <v>354</v>
       </c>
@@ -5423,7 +5486,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="170" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="170" s="1" customFormat="1" spans="1:4">
       <c r="A170" s="22" t="s">
         <v>356</v>
       </c>
@@ -5437,7 +5500,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="171" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="171" s="1" customFormat="1" spans="1:4">
       <c r="A171" s="22" t="s">
         <v>360</v>
       </c>
@@ -5451,7 +5514,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="172" ht="14.25" spans="1:2">
+    <row r="172" spans="1:2">
       <c r="A172" s="21" t="s">
         <v>364</v>
       </c>
@@ -5459,7 +5522,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="173" ht="14.25" spans="1:2">
+    <row r="173" spans="1:2">
       <c r="A173" s="21" t="s">
         <v>366</v>
       </c>
@@ -5467,7 +5530,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="174" ht="14.25" spans="1:2">
+    <row r="174" spans="1:2">
       <c r="A174" s="21" t="s">
         <v>368</v>
       </c>
@@ -5475,7 +5538,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="175" ht="14.25" spans="1:2">
+    <row r="175" spans="1:2">
       <c r="A175" s="21" t="s">
         <v>370</v>
       </c>
@@ -5483,7 +5546,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="176" ht="14.25" spans="1:2">
+    <row r="176" spans="1:2">
       <c r="A176" s="21" t="s">
         <v>372</v>
       </c>
@@ -5491,7 +5554,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="177" ht="14.25" spans="1:2">
+    <row r="177" spans="1:2">
       <c r="A177" s="21" t="s">
         <v>374</v>
       </c>
@@ -5499,7 +5562,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="178" ht="14.25" spans="1:2">
+    <row r="178" spans="1:2">
       <c r="A178" s="21" t="s">
         <v>376</v>
       </c>
@@ -5507,7 +5570,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="179" ht="14.25" spans="1:2">
+    <row r="179" spans="1:2">
       <c r="A179" s="21" t="s">
         <v>378</v>
       </c>
@@ -5515,7 +5578,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="180" ht="14.25" spans="1:2">
+    <row r="180" spans="1:2">
       <c r="A180" s="21" t="s">
         <v>380</v>
       </c>
@@ -5523,7 +5586,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="181" ht="14.25" spans="1:2">
+    <row r="181" spans="1:2">
       <c r="A181" s="21" t="s">
         <v>382</v>
       </c>
@@ -5531,7 +5594,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="182" ht="14.25" spans="1:2">
+    <row r="182" spans="1:2">
       <c r="A182" s="21" t="s">
         <v>384</v>
       </c>
@@ -5539,7 +5602,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="183" ht="14.25" spans="1:2">
+    <row r="183" spans="1:2">
       <c r="A183" s="21" t="s">
         <v>386</v>
       </c>
@@ -5547,7 +5610,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="184" ht="14.25" spans="1:2">
+    <row r="184" spans="1:2">
       <c r="A184" s="21" t="s">
         <v>388</v>
       </c>
@@ -5555,7 +5618,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="185" ht="14.25" spans="1:2">
+    <row r="185" spans="1:2">
       <c r="A185" s="21" t="s">
         <v>390</v>
       </c>
@@ -5563,7 +5626,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="186" ht="14.25" spans="1:2">
+    <row r="186" spans="1:2">
       <c r="A186" s="21" t="s">
         <v>392</v>
       </c>
@@ -5571,7 +5634,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="187" ht="14.25" spans="1:2">
+    <row r="187" spans="1:2">
       <c r="A187" s="21" t="s">
         <v>394</v>
       </c>
@@ -5579,7 +5642,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="188" ht="14.25" spans="1:2">
+    <row r="188" spans="1:2">
       <c r="A188" s="21" t="s">
         <v>396</v>
       </c>
@@ -5587,7 +5650,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="189" ht="14.25" spans="1:2">
+    <row r="189" spans="1:2">
       <c r="A189" s="21" t="s">
         <v>398</v>
       </c>
@@ -5595,7 +5658,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="190" ht="14.25" spans="1:2">
+    <row r="190" spans="1:2">
       <c r="A190" s="21" t="s">
         <v>400</v>
       </c>
@@ -5603,7 +5666,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="191" ht="14.25" spans="1:2">
+    <row r="191" spans="1:2">
       <c r="A191" s="21" t="s">
         <v>402</v>
       </c>
@@ -5611,7 +5674,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="192" ht="14.25" spans="1:2">
+    <row r="192" spans="1:2">
       <c r="A192" s="21" t="s">
         <v>404</v>
       </c>
@@ -5619,7 +5682,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="193" ht="14.25" spans="1:2">
+    <row r="193" spans="1:2">
       <c r="A193" s="21" t="s">
         <v>406</v>
       </c>
@@ -5627,7 +5690,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="194" ht="14.25" spans="1:2">
+    <row r="194" spans="1:2">
       <c r="A194" s="21" t="s">
         <v>408</v>
       </c>
@@ -5635,7 +5698,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="195" ht="14.25" spans="1:2">
+    <row r="195" spans="1:2">
       <c r="A195" s="21" t="s">
         <v>410</v>
       </c>
@@ -5643,7 +5706,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="196" ht="14.25" spans="1:2">
+    <row r="196" spans="1:2">
       <c r="A196" s="21" t="s">
         <v>412</v>
       </c>
@@ -5651,7 +5714,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="197" ht="14.25" spans="1:2">
+    <row r="197" spans="1:2">
       <c r="A197" s="21" t="s">
         <v>414</v>
       </c>
@@ -5659,7 +5722,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="198" ht="14.25" spans="1:2">
+    <row r="198" spans="1:2">
       <c r="A198" s="21" t="s">
         <v>416</v>
       </c>
@@ -5667,7 +5730,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="199" ht="14.25" spans="1:2">
+    <row r="199" spans="1:2">
       <c r="A199" s="21" t="s">
         <v>418</v>
       </c>
@@ -5675,7 +5738,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="200" ht="14.25" spans="1:2">
+    <row r="200" spans="1:2">
       <c r="A200" s="21" t="s">
         <v>420</v>
       </c>
@@ -5683,7 +5746,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="201" ht="14.25" spans="1:2">
+    <row r="201" spans="1:2">
       <c r="A201" s="21" t="s">
         <v>422</v>
       </c>
@@ -5691,7 +5754,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="202" ht="14.25" spans="1:2">
+    <row r="202" spans="1:2">
       <c r="A202" s="21" t="s">
         <v>424</v>
       </c>
@@ -5699,7 +5762,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="203" ht="14.25" spans="1:3">
+    <row r="203" spans="1:3">
       <c r="A203" s="21" t="s">
         <v>426</v>
       </c>
@@ -5707,7 +5770,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="204" ht="14.25" spans="1:2">
+    <row r="204" spans="1:2">
       <c r="A204" s="21" t="s">
         <v>428</v>
       </c>
@@ -5715,7 +5778,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="205" ht="14.25" spans="1:2">
+    <row r="205" spans="1:2">
       <c r="A205" s="21" t="s">
         <v>430</v>
       </c>
@@ -5723,7 +5786,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="206" ht="14.25" spans="1:2">
+    <row r="206" spans="1:2">
       <c r="A206" s="21" t="s">
         <v>432</v>
       </c>
@@ -5731,7 +5794,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="207" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="207" s="1" customFormat="1" spans="1:4">
       <c r="A207" s="22" t="s">
         <v>434</v>
       </c>
@@ -5743,7 +5806,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="208" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="208" s="1" customFormat="1" spans="1:4">
       <c r="A208" s="22" t="s">
         <v>437</v>
       </c>
@@ -5757,7 +5820,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="209" ht="14.25" spans="1:2">
+    <row r="209" spans="1:2">
       <c r="A209" s="21" t="s">
         <v>441</v>
       </c>
@@ -5765,7 +5828,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="210" ht="14.25" spans="1:2">
+    <row r="210" spans="1:2">
       <c r="A210" s="21" t="s">
         <v>443</v>
       </c>
@@ -5773,7 +5836,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="211" ht="14.25" spans="1:2">
+    <row r="211" spans="1:2">
       <c r="A211" s="21" t="s">
         <v>445</v>
       </c>
@@ -5781,7 +5844,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="212" ht="14.25" spans="1:2">
+    <row r="212" spans="1:2">
       <c r="A212" s="21" t="s">
         <v>447</v>
       </c>
@@ -5789,7 +5852,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="213" ht="14.25" spans="1:2">
+    <row r="213" spans="1:2">
       <c r="A213" s="21" t="s">
         <v>449</v>
       </c>
@@ -5797,7 +5860,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="214" ht="14.25" spans="1:2">
+    <row r="214" spans="1:2">
       <c r="A214" s="21" t="s">
         <v>451</v>
       </c>
@@ -5805,7 +5868,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="215" ht="14.25" spans="1:2">
+    <row r="215" spans="1:2">
       <c r="A215" s="21" t="s">
         <v>453</v>
       </c>
@@ -5813,7 +5876,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="216" ht="14.25" spans="1:2">
+    <row r="216" spans="1:2">
       <c r="A216" s="21" t="s">
         <v>455</v>
       </c>
@@ -5821,7 +5884,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="217" ht="14.25" spans="1:2">
+    <row r="217" spans="1:2">
       <c r="A217" s="21" t="s">
         <v>457</v>
       </c>
@@ -5829,7 +5892,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="218" ht="14.25" spans="1:2">
+    <row r="218" spans="1:2">
       <c r="A218" s="21" t="s">
         <v>459</v>
       </c>
@@ -5837,7 +5900,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="219" ht="14.25" spans="1:2">
+    <row r="219" spans="1:2">
       <c r="A219" s="21" t="s">
         <v>461</v>
       </c>
@@ -5845,7 +5908,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="220" ht="14.25" spans="1:2">
+    <row r="220" spans="1:2">
       <c r="A220" s="21" t="s">
         <v>463</v>
       </c>
@@ -5853,7 +5916,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="221" ht="14.25" spans="1:2">
+    <row r="221" spans="1:2">
       <c r="A221" s="21" t="s">
         <v>465</v>
       </c>
@@ -5861,7 +5924,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="222" ht="14.25" spans="1:2">
+    <row r="222" spans="1:2">
       <c r="A222" s="21" t="s">
         <v>467</v>
       </c>
@@ -5869,7 +5932,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="223" ht="14.25" spans="1:2">
+    <row r="223" spans="1:2">
       <c r="A223" s="21" t="s">
         <v>469</v>
       </c>
@@ -5877,7 +5940,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="224" ht="14.25" spans="1:2">
+    <row r="224" spans="1:2">
       <c r="A224" s="21" t="s">
         <v>471</v>
       </c>
@@ -5885,7 +5948,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="225" ht="14.25" spans="1:2">
+    <row r="225" spans="1:2">
       <c r="A225" s="21" t="s">
         <v>473</v>
       </c>
@@ -5893,7 +5956,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="226" ht="14.25" spans="1:2">
+    <row r="226" spans="1:2">
       <c r="A226" s="5" t="s">
         <v>475</v>
       </c>
@@ -5901,7 +5964,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="227" ht="14.25" spans="1:2">
+    <row r="227" spans="1:2">
       <c r="A227" s="21" t="s">
         <v>477</v>
       </c>
@@ -5909,7 +5972,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="228" ht="14.25" spans="1:2">
+    <row r="228" spans="1:2">
       <c r="A228" s="5" t="s">
         <v>479</v>
       </c>
@@ -5917,7 +5980,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="229" ht="14.25" spans="1:2">
+    <row r="229" spans="1:2">
       <c r="A229" s="21" t="s">
         <v>481</v>
       </c>
@@ -5925,7 +5988,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="230" ht="14.25" spans="1:2">
+    <row r="230" spans="1:2">
       <c r="A230" s="21" t="s">
         <v>483</v>
       </c>
@@ -5933,7 +5996,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="231" ht="14.25" spans="1:2">
+    <row r="231" spans="1:2">
       <c r="A231" s="21" t="s">
         <v>485</v>
       </c>
@@ -5941,7 +6004,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="232" ht="14.25" spans="1:2">
+    <row r="232" spans="1:2">
       <c r="A232" s="21" t="s">
         <v>487</v>
       </c>
@@ -5957,7 +6020,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="234" ht="14.25" spans="1:2">
+    <row r="234" spans="1:2">
       <c r="A234" s="21" t="s">
         <v>491</v>
       </c>
@@ -5965,7 +6028,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="235" ht="14.25" spans="1:2">
+    <row r="235" spans="1:2">
       <c r="A235" s="21" t="s">
         <v>493</v>
       </c>
@@ -5973,7 +6036,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="236" ht="14.25" spans="1:2">
+    <row r="236" spans="1:2">
       <c r="A236" s="21" t="s">
         <v>495</v>
       </c>
@@ -5981,7 +6044,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="237" ht="14.25" spans="1:2">
+    <row r="237" spans="1:2">
       <c r="A237" s="21" t="s">
         <v>497</v>
       </c>
@@ -5989,7 +6052,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="238" ht="14.25" spans="1:2">
+    <row r="238" spans="1:2">
       <c r="A238" s="21" t="s">
         <v>499</v>
       </c>
@@ -5997,7 +6060,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="239" ht="14.25" spans="1:2">
+    <row r="239" spans="1:2">
       <c r="A239" s="21" t="s">
         <v>501</v>
       </c>
@@ -6005,7 +6068,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="240" ht="14.25" spans="1:2">
+    <row r="240" spans="1:2">
       <c r="A240" s="21" t="s">
         <v>503</v>
       </c>
@@ -6013,7 +6076,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="241" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="241" s="1" customFormat="1" spans="1:4">
       <c r="A241" s="22" t="s">
         <v>505</v>
       </c>
@@ -6025,7 +6088,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="242" ht="14.25" spans="1:2">
+    <row r="242" spans="1:2">
       <c r="A242" s="5" t="s">
         <v>508</v>
       </c>
@@ -6033,7 +6096,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="243" ht="14.25" spans="1:2">
+    <row r="243" spans="1:2">
       <c r="A243" s="21" t="s">
         <v>510</v>
       </c>
@@ -6041,7 +6104,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="244" ht="14.25" spans="1:2">
+    <row r="244" spans="1:2">
       <c r="A244" s="21" t="s">
         <v>512</v>
       </c>
@@ -6049,7 +6112,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="245" ht="14.25" spans="1:2">
+    <row r="245" spans="1:2">
       <c r="A245" s="21" t="s">
         <v>514</v>
       </c>
@@ -6057,7 +6120,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="246" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="246" s="1" customFormat="1" spans="1:4">
       <c r="A246" s="22" t="s">
         <v>516</v>
       </c>
@@ -6071,7 +6134,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="247" ht="14.25" spans="1:2">
+    <row r="247" spans="1:2">
       <c r="A247" s="21" t="s">
         <v>520</v>
       </c>
@@ -6079,7 +6142,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="248" ht="14.25" spans="1:2">
+    <row r="248" spans="1:2">
       <c r="A248" s="21" t="s">
         <v>522</v>
       </c>
@@ -6087,7 +6150,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="249" ht="14.25" spans="1:2">
+    <row r="249" spans="1:2">
       <c r="A249" s="21" t="s">
         <v>524</v>
       </c>
@@ -6095,7 +6158,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="250" ht="14.25" spans="1:2">
+    <row r="250" spans="1:2">
       <c r="A250" s="21" t="s">
         <v>526</v>
       </c>
@@ -6103,7 +6166,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="251" ht="14.25" spans="1:2">
+    <row r="251" spans="1:2">
       <c r="A251" s="5" t="s">
         <v>528</v>
       </c>
@@ -6111,7 +6174,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="252" ht="14.25" spans="1:2">
+    <row r="252" spans="1:2">
       <c r="A252" s="21" t="s">
         <v>530</v>
       </c>
@@ -6119,7 +6182,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="253" ht="14.25" spans="1:2">
+    <row r="253" spans="1:2">
       <c r="A253" s="21" t="s">
         <v>532</v>
       </c>
@@ -6127,7 +6190,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="254" ht="14.25" spans="1:2">
+    <row r="254" spans="1:2">
       <c r="A254" s="21" t="s">
         <v>534</v>
       </c>
@@ -6135,7 +6198,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="255" ht="14.25" spans="1:2">
+    <row r="255" spans="1:2">
       <c r="A255" s="21" t="s">
         <v>536</v>
       </c>
@@ -6143,7 +6206,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="256" ht="14.25" spans="1:2">
+    <row r="256" spans="1:2">
       <c r="A256" s="21" t="s">
         <v>538</v>
       </c>
@@ -6151,13 +6214,13 @@
         <v>539</v>
       </c>
     </row>
-    <row r="257" ht="14.25" spans="1:2">
+    <row r="257" spans="1:2">
       <c r="A257" s="21"/>
       <c r="B257" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="258" ht="14.25" spans="1:2">
+    <row r="258" spans="1:2">
       <c r="A258" s="21" t="s">
         <v>541</v>
       </c>
@@ -6165,7 +6228,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="259" ht="14.25" spans="1:2">
+    <row r="259" spans="1:2">
       <c r="A259" s="5" t="s">
         <v>543</v>
       </c>
@@ -6173,7 +6236,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="260" ht="14.25" spans="1:2">
+    <row r="260" spans="1:2">
       <c r="A260" s="21" t="s">
         <v>545</v>
       </c>
@@ -6181,7 +6244,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="261" ht="14.25" spans="1:2">
+    <row r="261" spans="1:2">
       <c r="A261" s="21" t="s">
         <v>547</v>
       </c>
@@ -6189,7 +6252,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="262" ht="14.25" spans="1:2">
+    <row r="262" spans="1:2">
       <c r="A262" s="21" t="s">
         <v>549</v>
       </c>
@@ -6197,7 +6260,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="263" ht="14.25" spans="1:2">
+    <row r="263" spans="1:2">
       <c r="A263" s="21" t="s">
         <v>551</v>
       </c>
@@ -6205,7 +6268,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="264" ht="14.25" spans="1:2">
+    <row r="264" spans="1:2">
       <c r="A264" s="21" t="s">
         <v>553</v>
       </c>
@@ -6213,7 +6276,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="265" ht="14.25" spans="1:2">
+    <row r="265" spans="1:2">
       <c r="A265" s="21" t="s">
         <v>555</v>
       </c>
@@ -6221,7 +6284,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="266" ht="14.25" spans="1:2">
+    <row r="266" spans="1:2">
       <c r="A266" s="21" t="s">
         <v>557</v>
       </c>
@@ -6229,7 +6292,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="267" ht="14.25" spans="1:2">
+    <row r="267" spans="1:2">
       <c r="A267" s="21" t="s">
         <v>559</v>
       </c>
@@ -6237,7 +6300,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="268" ht="14.25" spans="1:2">
+    <row r="268" spans="1:2">
       <c r="A268" s="21" t="s">
         <v>561</v>
       </c>
@@ -6245,7 +6308,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="269" ht="14.25" spans="1:2">
+    <row r="269" spans="1:2">
       <c r="A269" s="21" t="s">
         <v>563</v>
       </c>
@@ -6253,7 +6316,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="270" ht="14.25" spans="1:2">
+    <row r="270" spans="1:2">
       <c r="A270" s="21" t="s">
         <v>565</v>
       </c>
@@ -6261,7 +6324,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="271" ht="14.25" spans="1:2">
+    <row r="271" spans="1:2">
       <c r="A271" s="21" t="s">
         <v>567</v>
       </c>
@@ -6269,7 +6332,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="272" ht="14.25" spans="1:2">
+    <row r="272" spans="1:2">
       <c r="A272" s="21" t="s">
         <v>569</v>
       </c>
@@ -6277,7 +6340,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="273" ht="14.25" spans="1:2">
+    <row r="273" spans="1:2">
       <c r="A273" s="21" t="s">
         <v>571</v>
       </c>
@@ -6285,7 +6348,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="274" ht="14.25" spans="1:2">
+    <row r="274" spans="1:2">
       <c r="A274" s="21" t="s">
         <v>573</v>
       </c>
@@ -6293,7 +6356,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="275" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="275" s="1" customFormat="1" spans="1:4">
       <c r="A275" s="22" t="s">
         <v>575</v>
       </c>
@@ -6305,7 +6368,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="276" ht="14.25" spans="1:2">
+    <row r="276" spans="1:2">
       <c r="A276" s="21" t="s">
         <v>578</v>
       </c>
@@ -6313,7 +6376,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="277" ht="14.25" spans="1:2">
+    <row r="277" spans="1:2">
       <c r="A277" s="21" t="s">
         <v>580</v>
       </c>
@@ -6321,7 +6384,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="278" ht="14.25" spans="1:2">
+    <row r="278" spans="1:2">
       <c r="A278" s="21" t="s">
         <v>582</v>
       </c>
@@ -6329,7 +6392,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="279" ht="14.25" spans="1:2">
+    <row r="279" spans="1:2">
       <c r="A279" s="21" t="s">
         <v>584</v>
       </c>
@@ -6337,7 +6400,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="280" ht="14.25" spans="1:2">
+    <row r="280" spans="1:2">
       <c r="A280" s="21" t="s">
         <v>586</v>
       </c>
@@ -6345,7 +6408,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="281" ht="14.25" spans="1:2">
+    <row r="281" spans="1:2">
       <c r="A281" s="21" t="s">
         <v>588</v>
       </c>
@@ -6353,7 +6416,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="282" ht="14.25" spans="1:2">
+    <row r="282" spans="1:2">
       <c r="A282" s="21" t="s">
         <v>590</v>
       </c>
@@ -6361,7 +6424,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="283" ht="14.25" spans="1:2">
+    <row r="283" spans="1:2">
       <c r="A283" s="21" t="s">
         <v>592</v>
       </c>
@@ -6369,7 +6432,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="284" ht="14.25" spans="1:2">
+    <row r="284" spans="1:2">
       <c r="A284" s="24" t="s">
         <v>594</v>
       </c>
@@ -6377,7 +6440,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="285" ht="14.25" spans="1:2">
+    <row r="285" spans="1:2">
       <c r="A285" s="21" t="s">
         <v>596</v>
       </c>
@@ -6385,7 +6448,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="286" ht="14.25" spans="1:2">
+    <row r="286" spans="1:2">
       <c r="A286" s="21" t="s">
         <v>598</v>
       </c>
@@ -6393,7 +6456,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="287" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="287" s="1" customFormat="1" spans="1:4">
       <c r="A287" s="22" t="s">
         <v>600</v>
       </c>
@@ -6407,7 +6470,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="288" ht="14.25" spans="1:2">
+    <row r="288" spans="1:2">
       <c r="A288" s="21" t="s">
         <v>603</v>
       </c>
@@ -6415,7 +6478,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="289" ht="14.25" spans="1:2">
+    <row r="289" spans="1:2">
       <c r="A289" s="21" t="s">
         <v>605</v>
       </c>
@@ -6423,7 +6486,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="290" ht="14.25" spans="1:2">
+    <row r="290" spans="1:2">
       <c r="A290" s="21" t="s">
         <v>607</v>
       </c>
@@ -6431,7 +6494,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="291" ht="14.25" spans="1:2">
+    <row r="291" spans="1:2">
       <c r="A291" s="21" t="s">
         <v>609</v>
       </c>
@@ -6439,7 +6502,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="292" ht="14.25" spans="1:2">
+    <row r="292" spans="1:2">
       <c r="A292" s="25" t="s">
         <v>611</v>
       </c>
@@ -6447,7 +6510,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="293" ht="14.25" spans="1:2">
+    <row r="293" spans="1:2">
       <c r="A293" s="21" t="s">
         <v>613</v>
       </c>
@@ -6455,7 +6518,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="294" ht="14.25" spans="1:2">
+    <row r="294" spans="1:2">
       <c r="A294" s="21" t="s">
         <v>615</v>
       </c>
@@ -6463,7 +6526,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="295" ht="14.25" spans="1:2">
+    <row r="295" spans="1:2">
       <c r="A295" s="21" t="s">
         <v>617</v>
       </c>
@@ -6471,7 +6534,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="296" ht="14.25" spans="1:2">
+    <row r="296" spans="1:2">
       <c r="A296" s="21" t="s">
         <v>619</v>
       </c>
@@ -6479,7 +6542,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="297" ht="14.25" spans="1:2">
+    <row r="297" spans="1:2">
       <c r="A297" s="21" t="s">
         <v>621</v>
       </c>
@@ -6487,7 +6550,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="298" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="298" s="1" customFormat="1" spans="1:4">
       <c r="A298" s="22" t="s">
         <v>623</v>
       </c>
@@ -6499,7 +6562,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="299" ht="14.25" spans="1:2">
+    <row r="299" spans="1:2">
       <c r="A299" s="21" t="s">
         <v>626</v>
       </c>
@@ -6507,7 +6570,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="300" ht="14.25" spans="1:2">
+    <row r="300" spans="1:2">
       <c r="A300" s="21" t="s">
         <v>628</v>
       </c>
@@ -6515,7 +6578,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="301" ht="14.25" spans="1:2">
+    <row r="301" spans="1:2">
       <c r="A301" s="21" t="s">
         <v>630</v>
       </c>
@@ -6523,7 +6586,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="302" ht="14.25" spans="1:2">
+    <row r="302" spans="1:2">
       <c r="A302" s="21" t="s">
         <v>632</v>
       </c>
@@ -6531,7 +6594,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="303" ht="14.25" spans="1:2">
+    <row r="303" spans="1:2">
       <c r="A303" s="21" t="s">
         <v>634</v>
       </c>
@@ -6539,7 +6602,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="304" ht="14.25" spans="1:2">
+    <row r="304" spans="1:2">
       <c r="A304" s="21" t="s">
         <v>636</v>
       </c>
@@ -6547,7 +6610,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="305" ht="14.25" spans="1:2">
+    <row r="305" spans="1:2">
       <c r="A305" s="21" t="s">
         <v>638</v>
       </c>
@@ -6555,7 +6618,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="306" ht="14.25" spans="1:2">
+    <row r="306" spans="1:2">
       <c r="A306" s="21" t="s">
         <v>640</v>
       </c>
@@ -6563,7 +6626,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="307" ht="14.25" spans="1:2">
+    <row r="307" spans="1:2">
       <c r="A307" s="21" t="s">
         <v>642</v>
       </c>
@@ -6571,7 +6634,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="308" ht="14.25" spans="1:2">
+    <row r="308" spans="1:2">
       <c r="A308" s="21" t="s">
         <v>644</v>
       </c>
@@ -6579,7 +6642,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="309" ht="14.25" spans="1:2">
+    <row r="309" spans="1:2">
       <c r="A309" s="21" t="s">
         <v>646</v>
       </c>
@@ -6587,7 +6650,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="310" ht="14.25" spans="1:3">
+    <row r="310" spans="1:3">
       <c r="A310" s="5" t="s">
         <v>648</v>
       </c>
@@ -6595,7 +6658,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="311" ht="14.25" spans="1:2">
+    <row r="311" spans="1:2">
       <c r="A311" s="21" t="s">
         <v>650</v>
       </c>
@@ -6603,7 +6666,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="312" ht="14.25" spans="1:2">
+    <row r="312" spans="1:2">
       <c r="A312" s="21" t="s">
         <v>652</v>
       </c>
@@ -6611,7 +6674,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="313" ht="14.25" spans="1:2">
+    <row r="313" spans="1:2">
       <c r="A313" s="21" t="s">
         <v>654</v>
       </c>
@@ -6619,7 +6682,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="314" ht="14.25" spans="1:2">
+    <row r="314" spans="1:2">
       <c r="A314" s="5" t="s">
         <v>656</v>
       </c>
@@ -6627,7 +6690,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="315" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="315" s="1" customFormat="1" spans="1:4">
       <c r="A315" s="22" t="s">
         <v>658</v>
       </c>
@@ -6641,7 +6704,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="316" ht="14.25" spans="1:2">
+    <row r="316" spans="1:2">
       <c r="A316" s="21" t="s">
         <v>662</v>
       </c>
@@ -6649,7 +6712,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="317" ht="14.25" spans="1:2">
+    <row r="317" spans="1:2">
       <c r="A317" s="21" t="s">
         <v>664</v>
       </c>
@@ -6657,7 +6720,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="318" ht="14.25" spans="1:2">
+    <row r="318" spans="1:2">
       <c r="A318" s="5" t="s">
         <v>666</v>
       </c>
@@ -6665,7 +6728,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="319" ht="14.25" spans="1:2">
+    <row r="319" spans="1:2">
       <c r="A319" s="21" t="s">
         <v>668</v>
       </c>
@@ -6673,7 +6736,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="320" ht="14.25" spans="1:2">
+    <row r="320" spans="1:2">
       <c r="A320" s="21" t="s">
         <v>670</v>
       </c>
@@ -6681,7 +6744,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="321" ht="14.25" spans="1:2">
+    <row r="321" spans="1:2">
       <c r="A321" s="21" t="s">
         <v>672</v>
       </c>
@@ -6689,7 +6752,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="322" ht="14.25" spans="1:2">
+    <row r="322" spans="1:2">
       <c r="A322" s="21" t="s">
         <v>674</v>
       </c>
@@ -6697,7 +6760,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="323" ht="14.25" spans="1:2">
+    <row r="323" spans="1:2">
       <c r="A323" s="5" t="s">
         <v>676</v>
       </c>
@@ -6705,7 +6768,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="324" ht="14.25" spans="1:2">
+    <row r="324" spans="1:2">
       <c r="A324" s="21" t="s">
         <v>678</v>
       </c>
@@ -6713,7 +6776,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="325" ht="14.25" spans="1:2">
+    <row r="325" spans="1:2">
       <c r="A325" s="5" t="s">
         <v>680</v>
       </c>
@@ -6721,7 +6784,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="326" ht="14.25" spans="1:2">
+    <row r="326" spans="1:2">
       <c r="A326" s="21" t="s">
         <v>682</v>
       </c>
@@ -6729,7 +6792,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="327" ht="14.25" spans="1:2">
+    <row r="327" spans="1:2">
       <c r="A327" s="21" t="s">
         <v>684</v>
       </c>
@@ -6737,7 +6800,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="328" ht="14.25" spans="1:2">
+    <row r="328" spans="1:2">
       <c r="A328" s="21" t="s">
         <v>686</v>
       </c>
@@ -6745,7 +6808,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="329" ht="14.25" spans="1:2">
+    <row r="329" spans="1:2">
       <c r="A329" s="21" t="s">
         <v>688</v>
       </c>
@@ -6753,7 +6816,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="330" ht="14.25" spans="1:2">
+    <row r="330" spans="1:2">
       <c r="A330" s="21" t="s">
         <v>690</v>
       </c>
@@ -6761,7 +6824,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="331" ht="14.25" spans="1:2">
+    <row r="331" spans="1:2">
       <c r="A331" s="21" t="s">
         <v>692</v>
       </c>
@@ -6769,7 +6832,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="332" ht="14.25" spans="1:3">
+    <row r="332" spans="1:3">
       <c r="A332" s="21" t="s">
         <v>694</v>
       </c>
@@ -6780,7 +6843,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="333" ht="14.25" spans="1:2">
+    <row r="333" spans="1:2">
       <c r="A333" s="21" t="s">
         <v>697</v>
       </c>
@@ -6788,7 +6851,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="334" ht="14.25" spans="1:2">
+    <row r="334" spans="1:2">
       <c r="A334" s="21" t="s">
         <v>699</v>
       </c>
@@ -6796,7 +6859,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="335" ht="14.25" spans="1:2">
+    <row r="335" spans="1:2">
       <c r="A335" s="21" t="s">
         <v>654</v>
       </c>
@@ -6804,7 +6867,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="336" ht="14.25" spans="1:2">
+    <row r="336" spans="1:2">
       <c r="A336" s="5" t="s">
         <v>702</v>
       </c>
@@ -6812,7 +6875,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="337" ht="14.25" spans="1:2">
+    <row r="337" spans="1:2">
       <c r="A337" s="21" t="s">
         <v>704</v>
       </c>
@@ -6820,7 +6883,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="338" ht="14.25" spans="1:2">
+    <row r="338" spans="1:2">
       <c r="A338" s="5" t="s">
         <v>706</v>
       </c>
@@ -6828,7 +6891,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="339" ht="14.25" spans="1:2">
+    <row r="339" spans="1:2">
       <c r="A339" s="21" t="s">
         <v>708</v>
       </c>
@@ -6836,7 +6899,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="340" ht="14.25" spans="1:2">
+    <row r="340" spans="1:2">
       <c r="A340" s="21" t="s">
         <v>710</v>
       </c>
@@ -6844,7 +6907,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="341" ht="14.25" spans="1:2">
+    <row r="341" spans="1:2">
       <c r="A341" s="21" t="s">
         <v>712</v>
       </c>
@@ -6852,7 +6915,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="342" ht="14.25" spans="1:2">
+    <row r="342" spans="1:2">
       <c r="A342" s="21" t="s">
         <v>714</v>
       </c>
@@ -6860,7 +6923,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="343" ht="14.25" spans="1:2">
+    <row r="343" spans="1:2">
       <c r="A343" s="21" t="s">
         <v>716</v>
       </c>
@@ -6868,7 +6931,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="344" ht="14.25" spans="1:2">
+    <row r="344" spans="1:2">
       <c r="A344" s="21" t="s">
         <v>718</v>
       </c>
@@ -6876,7 +6939,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="345" ht="14.25" spans="1:2">
+    <row r="345" spans="1:2">
       <c r="A345" s="5" t="s">
         <v>720</v>
       </c>
@@ -6884,7 +6947,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="346" ht="14.25" spans="1:2">
+    <row r="346" spans="1:2">
       <c r="A346" s="21" t="s">
         <v>722</v>
       </c>
@@ -6892,7 +6955,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="347" ht="14.25" spans="1:2">
+    <row r="347" spans="1:2">
       <c r="A347" s="21" t="s">
         <v>724</v>
       </c>
@@ -6900,7 +6963,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="348" ht="14.25" spans="1:2">
+    <row r="348" spans="1:2">
       <c r="A348" s="21" t="s">
         <v>726</v>
       </c>
@@ -6908,7 +6971,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="349" ht="14.25" spans="1:2">
+    <row r="349" spans="1:2">
       <c r="A349" s="21" t="s">
         <v>728</v>
       </c>
@@ -6916,7 +6979,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="350" ht="14.25" spans="1:2">
+    <row r="350" spans="1:2">
       <c r="A350" s="21" t="s">
         <v>730</v>
       </c>
@@ -6924,7 +6987,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="351" ht="14.25" spans="1:2">
+    <row r="351" spans="1:2">
       <c r="A351" s="21" t="s">
         <v>732</v>
       </c>
@@ -6932,7 +6995,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="352" ht="14.25" spans="1:2">
+    <row r="352" spans="1:2">
       <c r="A352" s="21" t="s">
         <v>734</v>
       </c>
@@ -6940,7 +7003,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="353" ht="14.25" spans="1:2">
+    <row r="353" spans="1:2">
       <c r="A353" s="5" t="s">
         <v>736</v>
       </c>
@@ -6948,7 +7011,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="354" ht="14.25" spans="1:2">
+    <row r="354" spans="1:2">
       <c r="A354" s="21" t="s">
         <v>738</v>
       </c>
@@ -6956,7 +7019,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="355" ht="14.25" spans="1:2">
+    <row r="355" spans="1:2">
       <c r="A355" s="21" t="s">
         <v>740</v>
       </c>
@@ -6964,7 +7027,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="356" ht="14.25" spans="1:2">
+    <row r="356" spans="1:2">
       <c r="A356" s="21" t="s">
         <v>742</v>
       </c>
@@ -6972,7 +7035,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="357" ht="14.25" spans="1:2">
+    <row r="357" spans="1:2">
       <c r="A357" s="21" t="s">
         <v>744</v>
       </c>
@@ -6980,7 +7043,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="358" ht="14.25" spans="1:2">
+    <row r="358" spans="1:2">
       <c r="A358" s="21" t="s">
         <v>746</v>
       </c>
@@ -6988,7 +7051,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="359" ht="14.25" spans="1:2">
+    <row r="359" spans="1:2">
       <c r="A359" s="5" t="s">
         <v>748</v>
       </c>
@@ -6996,7 +7059,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="360" ht="14.25" spans="1:2">
+    <row r="360" spans="1:2">
       <c r="A360" s="21" t="s">
         <v>750</v>
       </c>
@@ -7004,7 +7067,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="361" ht="14.25" spans="1:2">
+    <row r="361" spans="1:2">
       <c r="A361" s="5" t="s">
         <v>752</v>
       </c>
@@ -7012,7 +7075,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="362" ht="14.25" spans="1:2">
+    <row r="362" spans="1:2">
       <c r="A362" s="5" t="s">
         <v>753</v>
       </c>
@@ -7020,7 +7083,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="363" ht="14.25" spans="1:2">
+    <row r="363" spans="1:2">
       <c r="A363" s="21" t="s">
         <v>755</v>
       </c>
@@ -7028,7 +7091,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="364" ht="14.25" spans="1:2">
+    <row r="364" spans="1:2">
       <c r="A364" s="21" t="s">
         <v>757</v>
       </c>
@@ -7036,7 +7099,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="365" ht="14.25" spans="1:2">
+    <row r="365" spans="1:2">
       <c r="A365" s="21" t="s">
         <v>759</v>
       </c>
@@ -7044,17 +7107,17 @@
         <v>760</v>
       </c>
     </row>
-    <row r="366" ht="14.25" spans="1:1">
+    <row r="366" spans="1:1">
       <c r="A366" s="21" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="367" ht="14.25" spans="1:1">
+    <row r="367" spans="1:1">
       <c r="A367" s="21" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="368" ht="14.25" spans="1:2">
+    <row r="368" spans="1:2">
       <c r="A368" s="21" t="s">
         <v>763</v>
       </c>
@@ -7062,7 +7125,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="369" ht="14.25" spans="1:2">
+    <row r="369" spans="1:2">
       <c r="A369" s="21" t="s">
         <v>765</v>
       </c>
@@ -7070,7 +7133,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="370" ht="14.25" spans="1:2">
+    <row r="370" spans="1:2">
       <c r="A370" s="21" t="s">
         <v>767</v>
       </c>
@@ -7078,7 +7141,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="371" ht="14.25" spans="1:2">
+    <row r="371" spans="1:2">
       <c r="A371" s="21" t="s">
         <v>769</v>
       </c>
@@ -7086,7 +7149,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="372" ht="14.25" spans="1:2">
+    <row r="372" spans="1:2">
       <c r="A372" s="21" t="s">
         <v>771</v>
       </c>
@@ -7094,7 +7157,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="373" ht="14.25" spans="1:2">
+    <row r="373" spans="1:2">
       <c r="A373" s="21" t="s">
         <v>773</v>
       </c>
@@ -7102,7 +7165,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="374" ht="14.25" spans="1:2">
+    <row r="374" spans="1:2">
       <c r="A374" s="21" t="s">
         <v>775</v>
       </c>
@@ -7110,7 +7173,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="375" ht="14.25" spans="1:2">
+    <row r="375" spans="1:2">
       <c r="A375" s="21" t="s">
         <v>777</v>
       </c>
@@ -7118,7 +7181,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="376" ht="14.25" spans="1:2">
+    <row r="376" spans="1:2">
       <c r="A376" s="21" t="s">
         <v>779</v>
       </c>
@@ -7126,7 +7189,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="377" ht="14.25" spans="1:2">
+    <row r="377" spans="1:2">
       <c r="A377" s="21" t="s">
         <v>781</v>
       </c>
@@ -7134,7 +7197,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="378" ht="14.25" spans="1:2">
+    <row r="378" spans="1:2">
       <c r="A378" s="21" t="s">
         <v>783</v>
       </c>
@@ -7142,7 +7205,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="379" ht="14.25" spans="1:2">
+    <row r="379" spans="1:2">
       <c r="A379" s="21" t="s">
         <v>785</v>
       </c>
@@ -7150,7 +7213,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="380" ht="14.25" spans="1:2">
+    <row r="380" spans="1:2">
       <c r="A380" s="21" t="s">
         <v>787</v>
       </c>
@@ -7158,7 +7221,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="381" ht="14.25" spans="1:2">
+    <row r="381" spans="1:2">
       <c r="A381" s="21" t="s">
         <v>789</v>
       </c>
@@ -7166,7 +7229,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="382" ht="14.25" spans="1:2">
+    <row r="382" spans="1:2">
       <c r="A382" s="21" t="s">
         <v>791</v>
       </c>
@@ -7174,7 +7237,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="383" ht="14.25" spans="1:2">
+    <row r="383" spans="1:2">
       <c r="A383" s="21" t="s">
         <v>793</v>
       </c>
@@ -7182,7 +7245,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="384" ht="14.25" spans="1:2">
+    <row r="384" spans="1:2">
       <c r="A384" s="21" t="s">
         <v>795</v>
       </c>
@@ -7190,7 +7253,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="385" ht="14.25" spans="1:2">
+    <row r="385" spans="1:2">
       <c r="A385" s="21" t="s">
         <v>797</v>
       </c>
@@ -7198,7 +7261,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="386" ht="14.25" spans="1:2">
+    <row r="386" spans="1:2">
       <c r="A386" s="21" t="s">
         <v>799</v>
       </c>
@@ -7206,7 +7269,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="387" ht="14.25" spans="1:2">
+    <row r="387" spans="1:2">
       <c r="A387" s="21" t="s">
         <v>801</v>
       </c>
@@ -7214,7 +7277,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="388" ht="14.25" spans="1:2">
+    <row r="388" spans="1:2">
       <c r="A388" s="21" t="s">
         <v>803</v>
       </c>
@@ -7222,7 +7285,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="389" ht="14.25" spans="1:2">
+    <row r="389" spans="1:2">
       <c r="A389" s="21" t="s">
         <v>805</v>
       </c>
@@ -7230,7 +7293,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="390" ht="14.25" spans="1:2">
+    <row r="390" spans="1:2">
       <c r="A390" s="21" t="s">
         <v>807</v>
       </c>
@@ -7238,7 +7301,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="391" ht="14.25" spans="1:2">
+    <row r="391" spans="1:2">
       <c r="A391" s="21" t="s">
         <v>809</v>
       </c>
@@ -7246,7 +7309,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="392" ht="14.25" spans="1:2">
+    <row r="392" spans="1:2">
       <c r="A392" s="21" t="s">
         <v>811</v>
       </c>
@@ -7254,7 +7317,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="393" ht="14.25" spans="1:2">
+    <row r="393" spans="1:2">
       <c r="A393" s="21" t="s">
         <v>813</v>
       </c>
@@ -7262,7 +7325,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="394" ht="14.25" spans="1:2">
+    <row r="394" spans="1:2">
       <c r="A394" s="5" t="s">
         <v>815</v>
       </c>
@@ -7270,7 +7333,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="395" ht="14.25" spans="1:2">
+    <row r="395" spans="1:2">
       <c r="A395" s="21" t="s">
         <v>817</v>
       </c>
@@ -7278,7 +7341,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="396" ht="14.25" spans="1:2">
+    <row r="396" spans="1:2">
       <c r="A396" s="21" t="s">
         <v>819</v>
       </c>
@@ -7286,7 +7349,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="397" ht="14.25" spans="1:2">
+    <row r="397" spans="1:2">
       <c r="A397" s="21" t="s">
         <v>821</v>
       </c>
@@ -7294,7 +7357,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="398" ht="14.25" spans="1:2">
+    <row r="398" spans="1:2">
       <c r="A398" s="21" t="s">
         <v>823</v>
       </c>
@@ -7302,7 +7365,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="399" ht="14.25" spans="1:2">
+    <row r="399" spans="1:2">
       <c r="A399" s="21" t="s">
         <v>825</v>
       </c>
@@ -7310,7 +7373,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="400" ht="14.25" spans="1:2">
+    <row r="400" spans="1:2">
       <c r="A400" s="21" t="s">
         <v>827</v>
       </c>
@@ -7318,7 +7381,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="401" ht="14.25" spans="1:2">
+    <row r="401" spans="1:2">
       <c r="A401" s="21" t="s">
         <v>829</v>
       </c>
@@ -7326,7 +7389,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="402" ht="14.25" spans="1:2">
+    <row r="402" spans="1:2">
       <c r="A402" s="21" t="s">
         <v>831</v>
       </c>
@@ -7334,7 +7397,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="403" ht="14.25" spans="1:2">
+    <row r="403" spans="1:2">
       <c r="A403" s="21" t="s">
         <v>833</v>
       </c>
@@ -7342,7 +7405,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="404" ht="14.25" spans="1:2">
+    <row r="404" spans="1:2">
       <c r="A404" s="21" t="s">
         <v>835</v>
       </c>
@@ -7350,7 +7413,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="405" ht="14.25" spans="1:2">
+    <row r="405" spans="1:2">
       <c r="A405" s="21" t="s">
         <v>837</v>
       </c>
@@ -7358,7 +7421,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="406" ht="14.25" spans="1:2">
+    <row r="406" spans="1:2">
       <c r="A406" s="21" t="s">
         <v>839</v>
       </c>
@@ -7366,7 +7429,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="407" ht="14.25" spans="1:2">
+    <row r="407" spans="1:2">
       <c r="A407" s="21" t="s">
         <v>160</v>
       </c>
@@ -7374,7 +7437,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="408" ht="14.25" spans="1:2">
+    <row r="408" spans="1:2">
       <c r="A408" s="21" t="s">
         <v>842</v>
       </c>
@@ -7382,7 +7445,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="409" ht="14.25" spans="1:2">
+    <row r="409" spans="1:2">
       <c r="A409" s="21" t="s">
         <v>844</v>
       </c>
@@ -7390,7 +7453,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="410" ht="14.25" spans="1:2">
+    <row r="410" spans="1:2">
       <c r="A410" s="21" t="s">
         <v>846</v>
       </c>
@@ -7398,7 +7461,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="411" ht="14.25" spans="1:2">
+    <row r="411" spans="1:2">
       <c r="A411" s="21" t="s">
         <v>848</v>
       </c>
@@ -7406,7 +7469,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="412" ht="14.25" spans="1:2">
+    <row r="412" spans="1:2">
       <c r="A412" s="21" t="s">
         <v>850</v>
       </c>
@@ -7414,7 +7477,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="413" ht="14.25" spans="1:2">
+    <row r="413" spans="1:2">
       <c r="A413" s="21" t="s">
         <v>852</v>
       </c>
@@ -7422,7 +7485,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="414" ht="14.25" spans="1:2">
+    <row r="414" spans="1:2">
       <c r="A414" s="21" t="s">
         <v>854</v>
       </c>
@@ -7430,7 +7493,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="415" ht="14.25" spans="1:2">
+    <row r="415" spans="1:2">
       <c r="A415" s="21" t="s">
         <v>856</v>
       </c>
@@ -7438,7 +7501,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="416" ht="14.25" spans="1:2">
+    <row r="416" spans="1:2">
       <c r="A416" s="21" t="s">
         <v>858</v>
       </c>
@@ -7446,7 +7509,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="417" ht="14.25" spans="1:2">
+    <row r="417" spans="1:2">
       <c r="A417" s="21" t="s">
         <v>860</v>
       </c>
@@ -7454,7 +7517,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="418" ht="14.25" spans="1:2">
+    <row r="418" spans="1:2">
       <c r="A418" s="21" t="s">
         <v>862</v>
       </c>
@@ -7462,7 +7525,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="419" ht="14.25" spans="1:2">
+    <row r="419" spans="1:2">
       <c r="A419" s="21" t="s">
         <v>863</v>
       </c>
@@ -7470,7 +7533,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="420" ht="14.25" spans="1:2">
+    <row r="420" spans="1:2">
       <c r="A420" s="21" t="s">
         <v>865</v>
       </c>
@@ -7478,7 +7541,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="421" ht="14.25" spans="1:2">
+    <row r="421" spans="1:2">
       <c r="A421" s="21" t="s">
         <v>867</v>
       </c>
@@ -7486,7 +7549,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="422" ht="14.25" spans="1:2">
+    <row r="422" spans="1:2">
       <c r="A422" s="21" t="s">
         <v>869</v>
       </c>
@@ -7494,7 +7557,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="423" ht="14.25" spans="1:2">
+    <row r="423" spans="1:2">
       <c r="A423" s="21" t="s">
         <v>871</v>
       </c>
@@ -7502,7 +7565,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="424" ht="14.25" spans="1:2">
+    <row r="424" spans="1:2">
       <c r="A424" s="21" t="s">
         <v>873</v>
       </c>
@@ -7510,7 +7573,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="425" ht="14.25" spans="1:2">
+    <row r="425" spans="1:2">
       <c r="A425" s="21" t="s">
         <v>875</v>
       </c>
@@ -7518,7 +7581,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="426" ht="14.25" spans="1:2">
+    <row r="426" spans="1:2">
       <c r="A426" s="21" t="s">
         <v>877</v>
       </c>
@@ -7526,7 +7589,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="427" ht="14.25" spans="1:2">
+    <row r="427" spans="1:2">
       <c r="A427" s="21" t="s">
         <v>879</v>
       </c>
@@ -7534,7 +7597,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="428" ht="14.25" spans="1:2">
+    <row r="428" spans="1:2">
       <c r="A428" s="21" t="s">
         <v>881</v>
       </c>
@@ -7542,7 +7605,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="429" ht="14.25" spans="1:2">
+    <row r="429" spans="1:2">
       <c r="A429" s="21" t="s">
         <v>883</v>
       </c>
@@ -7550,7 +7613,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="430" ht="14.25" spans="1:2">
+    <row r="430" spans="1:2">
       <c r="A430" s="21" t="s">
         <v>885</v>
       </c>
@@ -7558,7 +7621,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="431" ht="14.25" spans="1:2">
+    <row r="431" spans="1:2">
       <c r="A431" s="21" t="s">
         <v>887</v>
       </c>
@@ -7566,7 +7629,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="432" ht="14.25" spans="1:2">
+    <row r="432" spans="1:2">
       <c r="A432" s="21" t="s">
         <v>889</v>
       </c>
@@ -7574,7 +7637,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="433" ht="14.25" spans="1:2">
+    <row r="433" spans="1:2">
       <c r="A433" s="21" t="s">
         <v>891</v>
       </c>
@@ -7582,7 +7645,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="434" ht="14.25" spans="1:2">
+    <row r="434" spans="1:2">
       <c r="A434" s="21" t="s">
         <v>893</v>
       </c>
@@ -7590,7 +7653,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="435" ht="14.25" spans="1:2">
+    <row r="435" spans="1:2">
       <c r="A435" s="21" t="s">
         <v>895</v>
       </c>
@@ -7598,7 +7661,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="436" ht="14.25" spans="1:2">
+    <row r="436" spans="1:2">
       <c r="A436" s="21" t="s">
         <v>897</v>
       </c>
@@ -7606,7 +7669,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="437" ht="14.25" spans="1:2">
+    <row r="437" spans="1:2">
       <c r="A437" s="21" t="s">
         <v>899</v>
       </c>
@@ -7614,7 +7677,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="438" ht="14.25" spans="1:2">
+    <row r="438" spans="1:2">
       <c r="A438" s="21" t="s">
         <v>901</v>
       </c>
@@ -7622,7 +7685,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="439" ht="14.25" spans="1:2">
+    <row r="439" spans="1:2">
       <c r="A439" s="21" t="s">
         <v>903</v>
       </c>
@@ -7630,7 +7693,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="440" ht="14.25" spans="1:2">
+    <row r="440" spans="1:2">
       <c r="A440" s="21" t="s">
         <v>905</v>
       </c>
@@ -7638,7 +7701,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="441" ht="14.25" spans="1:2">
+    <row r="441" spans="1:2">
       <c r="A441" s="21" t="s">
         <v>907</v>
       </c>
@@ -7646,7 +7709,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="442" ht="14.25" spans="1:2">
+    <row r="442" spans="1:2">
       <c r="A442" s="21" t="s">
         <v>909</v>
       </c>
@@ -7654,7 +7717,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="443" ht="14.25" spans="1:2">
+    <row r="443" spans="1:2">
       <c r="A443" s="21" t="s">
         <v>911</v>
       </c>
@@ -7662,7 +7725,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="444" ht="14.25" spans="1:2">
+    <row r="444" spans="1:2">
       <c r="A444" s="21" t="s">
         <v>913</v>
       </c>
@@ -7670,7 +7733,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="445" ht="14.25" spans="1:2">
+    <row r="445" spans="1:2">
       <c r="A445" s="21" t="s">
         <v>915</v>
       </c>
@@ -7678,7 +7741,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="446" ht="14.25" spans="1:2">
+    <row r="446" spans="1:2">
       <c r="A446" s="21" t="s">
         <v>917</v>
       </c>
@@ -7686,7 +7749,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="447" ht="14.25" spans="1:2">
+    <row r="447" spans="1:2">
       <c r="A447" s="21" t="s">
         <v>919</v>
       </c>
@@ -7694,7 +7757,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="448" ht="14.25" spans="1:2">
+    <row r="448" spans="1:2">
       <c r="A448" s="21" t="s">
         <v>921</v>
       </c>
@@ -7702,7 +7765,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="449" ht="14.25" spans="1:2">
+    <row r="449" spans="1:2">
       <c r="A449" s="21" t="s">
         <v>923</v>
       </c>
@@ -7710,7 +7773,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="450" ht="14.25" spans="1:2">
+    <row r="450" spans="1:2">
       <c r="A450" s="21" t="s">
         <v>925</v>
       </c>
@@ -7718,7 +7781,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="451" ht="14.25" spans="1:2">
+    <row r="451" spans="1:2">
       <c r="A451" s="21" t="s">
         <v>921</v>
       </c>
@@ -7726,7 +7789,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="452" ht="14.25" spans="1:2">
+    <row r="452" spans="1:2">
       <c r="A452" s="21" t="s">
         <v>927</v>
       </c>
@@ -7734,7 +7797,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="453" ht="14.25" spans="1:2">
+    <row r="453" spans="1:2">
       <c r="A453" s="21" t="s">
         <v>929</v>
       </c>
@@ -7742,7 +7805,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="454" ht="14.25" spans="1:2">
+    <row r="454" spans="1:2">
       <c r="A454" s="26" t="s">
         <v>931</v>
       </c>
@@ -7750,7 +7813,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="455" ht="14.25" spans="1:2">
+    <row r="455" spans="1:2">
       <c r="A455" s="21" t="s">
         <v>933</v>
       </c>
@@ -7758,7 +7821,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="456" ht="14.25" spans="1:2">
+    <row r="456" spans="1:2">
       <c r="A456" s="21" t="s">
         <v>935</v>
       </c>
@@ -7766,927 +7829,982 @@
         <v>936</v>
       </c>
     </row>
-    <row r="457" ht="14.25" spans="1:2">
-      <c r="A457" s="27" t="s">
+    <row r="457" spans="1:2">
+      <c r="A457" s="24" t="s">
         <v>937</v>
       </c>
       <c r="B457" s="4" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="458" ht="14.25" spans="1:1">
-      <c r="A458" s="21"/>
-    </row>
-    <row r="459" ht="14.25" spans="1:1">
-      <c r="A459" s="21"/>
-    </row>
-    <row r="460" ht="14.25" spans="1:1">
-      <c r="A460" s="21"/>
-    </row>
-    <row r="461" ht="14.25" spans="1:1">
-      <c r="A461" s="21"/>
-    </row>
-    <row r="462" ht="14.25" spans="1:1">
-      <c r="A462" s="21"/>
-    </row>
-    <row r="463" ht="14.25" spans="1:1">
-      <c r="A463" s="21"/>
-    </row>
-    <row r="464" ht="14.25" spans="1:1">
-      <c r="A464" s="21"/>
-    </row>
-    <row r="465" ht="14.25" spans="1:1">
-      <c r="A465" s="21"/>
-    </row>
-    <row r="466" ht="14.25" spans="1:1">
-      <c r="A466" s="21"/>
-    </row>
-    <row r="467" ht="14.25" spans="1:1">
-      <c r="A467" s="21"/>
-    </row>
-    <row r="468" ht="14.25" spans="1:1">
-      <c r="A468" s="21"/>
-    </row>
-    <row r="469" ht="14.25" spans="1:1">
+    <row r="458" spans="1:2">
+      <c r="A458" s="21" t="s">
+        <v>921</v>
+      </c>
+      <c r="B458" s="4" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="27" t="s">
+        <v>940</v>
+      </c>
+      <c r="B459" s="4" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="21" t="s">
+        <v>942</v>
+      </c>
+      <c r="B460" s="4" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="21" t="s">
+        <v>944</v>
+      </c>
+      <c r="B461" s="4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="21" t="s">
+        <v>946</v>
+      </c>
+      <c r="B462" s="4" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="21" t="s">
+        <v>948</v>
+      </c>
+      <c r="B463" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="27" t="s">
+        <v>950</v>
+      </c>
+      <c r="B464" s="4" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="21" t="s">
+        <v>952</v>
+      </c>
+      <c r="B465" s="4" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="21" t="s">
+        <v>954</v>
+      </c>
+      <c r="B466" s="4" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="21" t="s">
+        <v>956</v>
+      </c>
+      <c r="B467" s="4" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="21" t="s">
+        <v>958</v>
+      </c>
+      <c r="B468" s="4" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
       <c r="A469" s="21"/>
     </row>
-    <row r="470" ht="14.25" spans="1:1">
+    <row r="470" spans="1:1">
       <c r="A470" s="21"/>
     </row>
-    <row r="471" ht="14.25" spans="1:1">
+    <row r="471" spans="1:1">
       <c r="A471" s="21"/>
     </row>
-    <row r="472" ht="14.25" spans="1:1">
+    <row r="472" spans="1:1">
       <c r="A472" s="21"/>
     </row>
-    <row r="473" ht="14.25" spans="1:1">
+    <row r="473" spans="1:1">
       <c r="A473" s="21"/>
     </row>
-    <row r="474" ht="14.25" spans="1:1">
+    <row r="474" spans="1:1">
       <c r="A474" s="21"/>
     </row>
-    <row r="475" ht="14.25" spans="1:1">
+    <row r="475" spans="1:1">
       <c r="A475" s="21"/>
     </row>
-    <row r="476" ht="14.25" spans="1:1">
+    <row r="476" spans="1:1">
       <c r="A476" s="21"/>
     </row>
-    <row r="477" ht="14.25" spans="1:1">
+    <row r="477" spans="1:1">
       <c r="A477" s="21"/>
     </row>
-    <row r="478" ht="14.25" spans="1:1">
+    <row r="478" spans="1:1">
       <c r="A478" s="21"/>
     </row>
-    <row r="479" ht="14.25" spans="1:1">
+    <row r="479" spans="1:1">
       <c r="A479" s="21"/>
     </row>
-    <row r="480" ht="14.25" spans="1:1">
+    <row r="480" spans="1:1">
       <c r="A480" s="21"/>
     </row>
-    <row r="481" ht="14.25" spans="1:1">
+    <row r="481" spans="1:1">
       <c r="A481" s="21"/>
     </row>
-    <row r="482" ht="14.25" spans="1:1">
+    <row r="482" spans="1:1">
       <c r="A482" s="21"/>
     </row>
-    <row r="483" ht="14.25" spans="1:1">
+    <row r="483" spans="1:1">
       <c r="A483" s="21"/>
     </row>
-    <row r="484" ht="14.25" spans="1:1">
+    <row r="484" spans="1:1">
       <c r="A484" s="21"/>
     </row>
-    <row r="485" ht="14.25" spans="1:1">
+    <row r="485" spans="1:1">
       <c r="A485" s="21"/>
     </row>
-    <row r="486" ht="14.25" spans="1:1">
+    <row r="486" spans="1:1">
       <c r="A486" s="21"/>
     </row>
-    <row r="487" ht="14.25" spans="1:1">
+    <row r="487" spans="1:1">
       <c r="A487" s="21"/>
     </row>
-    <row r="488" ht="14.25" spans="1:1">
+    <row r="488" spans="1:1">
       <c r="A488" s="21"/>
     </row>
-    <row r="489" ht="14.25" spans="1:1">
+    <row r="489" spans="1:1">
       <c r="A489" s="21"/>
     </row>
-    <row r="490" ht="14.25" spans="1:1">
+    <row r="490" spans="1:1">
       <c r="A490" s="21"/>
     </row>
-    <row r="491" ht="14.25" spans="1:1">
+    <row r="491" spans="1:1">
       <c r="A491" s="21"/>
     </row>
-    <row r="492" ht="14.25" spans="1:1">
+    <row r="492" spans="1:1">
       <c r="A492" s="21"/>
     </row>
-    <row r="493" ht="14.25" spans="1:1">
+    <row r="493" spans="1:1">
       <c r="A493" s="21"/>
     </row>
-    <row r="494" ht="14.25" spans="1:1">
+    <row r="494" spans="1:1">
       <c r="A494" s="21"/>
     </row>
-    <row r="495" ht="14.25" spans="1:1">
+    <row r="495" spans="1:1">
       <c r="A495" s="21"/>
     </row>
-    <row r="496" ht="14.25" spans="1:1">
+    <row r="496" spans="1:1">
       <c r="A496" s="21"/>
     </row>
-    <row r="497" ht="14.25" spans="1:1">
+    <row r="497" spans="1:1">
       <c r="A497" s="21"/>
     </row>
-    <row r="498" ht="14.25" spans="1:1">
+    <row r="498" spans="1:1">
       <c r="A498" s="21"/>
     </row>
-    <row r="499" ht="14.25" spans="1:1">
+    <row r="499" spans="1:1">
       <c r="A499" s="21"/>
     </row>
-    <row r="500" ht="14.25" spans="1:1">
+    <row r="500" spans="1:1">
       <c r="A500" s="21"/>
     </row>
-    <row r="501" ht="14.25" spans="1:1">
+    <row r="501" spans="1:1">
       <c r="A501" s="21"/>
     </row>
-    <row r="502" ht="14.25" spans="1:1">
+    <row r="502" spans="1:1">
       <c r="A502" s="21"/>
     </row>
-    <row r="503" ht="14.25" spans="1:1">
+    <row r="503" spans="1:1">
       <c r="A503" s="21"/>
     </row>
-    <row r="504" ht="14.25" spans="1:1">
+    <row r="504" spans="1:1">
       <c r="A504" s="21"/>
     </row>
-    <row r="505" ht="14.25" spans="1:1">
+    <row r="505" spans="1:1">
       <c r="A505" s="21"/>
     </row>
-    <row r="506" ht="14.25" spans="1:1">
+    <row r="506" spans="1:1">
       <c r="A506" s="21"/>
     </row>
-    <row r="507" ht="14.25" spans="1:1">
+    <row r="507" spans="1:1">
       <c r="A507" s="21"/>
     </row>
-    <row r="508" ht="14.25" spans="1:1">
+    <row r="508" spans="1:1">
       <c r="A508" s="21"/>
     </row>
-    <row r="509" ht="14.25" spans="1:1">
+    <row r="509" spans="1:1">
       <c r="A509" s="21"/>
     </row>
-    <row r="510" ht="14.25" spans="1:1">
+    <row r="510" spans="1:1">
       <c r="A510" s="21"/>
     </row>
-    <row r="511" ht="14.25" spans="1:1">
+    <row r="511" spans="1:1">
       <c r="A511" s="21"/>
     </row>
-    <row r="512" ht="14.25" spans="1:1">
+    <row r="512" spans="1:1">
       <c r="A512" s="21"/>
     </row>
-    <row r="513" ht="14.25" spans="1:1">
+    <row r="513" spans="1:1">
       <c r="A513" s="21"/>
     </row>
-    <row r="514" ht="14.25" spans="1:1">
+    <row r="514" spans="1:1">
       <c r="A514" s="21"/>
     </row>
-    <row r="515" ht="14.25" spans="1:1">
+    <row r="515" spans="1:1">
       <c r="A515" s="21"/>
     </row>
-    <row r="516" ht="14.25" spans="1:1">
+    <row r="516" spans="1:1">
       <c r="A516" s="21"/>
     </row>
-    <row r="517" ht="14.25" spans="1:1">
+    <row r="517" spans="1:1">
       <c r="A517" s="21"/>
     </row>
-    <row r="518" ht="14.25" spans="1:1">
+    <row r="518" spans="1:1">
       <c r="A518" s="21"/>
     </row>
-    <row r="519" ht="14.25" spans="1:1">
+    <row r="519" spans="1:1">
       <c r="A519" s="21"/>
     </row>
-    <row r="520" ht="14.25" spans="1:1">
+    <row r="520" spans="1:1">
       <c r="A520" s="21"/>
     </row>
-    <row r="521" ht="14.25" spans="1:1">
+    <row r="521" spans="1:1">
       <c r="A521" s="21"/>
     </row>
-    <row r="522" ht="14.25" spans="1:1">
+    <row r="522" spans="1:1">
       <c r="A522" s="21"/>
     </row>
-    <row r="523" ht="14.25" spans="1:1">
+    <row r="523" spans="1:1">
       <c r="A523" s="21"/>
     </row>
-    <row r="524" ht="14.25" spans="1:1">
+    <row r="524" spans="1:1">
       <c r="A524" s="21"/>
     </row>
-    <row r="525" ht="14.25" spans="1:1">
+    <row r="525" spans="1:1">
       <c r="A525" s="21"/>
     </row>
-    <row r="526" ht="14.25" spans="1:1">
+    <row r="526" spans="1:1">
       <c r="A526" s="21"/>
     </row>
-    <row r="527" ht="14.25" spans="1:1">
+    <row r="527" spans="1:1">
       <c r="A527" s="21"/>
     </row>
-    <row r="528" ht="14.25" spans="1:1">
+    <row r="528" spans="1:1">
       <c r="A528" s="21"/>
     </row>
-    <row r="529" ht="14.25" spans="1:1">
+    <row r="529" spans="1:1">
       <c r="A529" s="21"/>
     </row>
-    <row r="530" ht="14.25" spans="1:1">
+    <row r="530" spans="1:1">
       <c r="A530" s="21"/>
     </row>
-    <row r="531" ht="14.25" spans="1:1">
+    <row r="531" spans="1:1">
       <c r="A531" s="21"/>
     </row>
-    <row r="532" ht="14.25" spans="1:1">
+    <row r="532" spans="1:1">
       <c r="A532" s="21"/>
     </row>
-    <row r="533" ht="14.25" spans="1:1">
+    <row r="533" spans="1:1">
       <c r="A533" s="21"/>
     </row>
-    <row r="534" ht="14.25" spans="1:1">
+    <row r="534" spans="1:1">
       <c r="A534" s="21"/>
     </row>
-    <row r="535" ht="14.25" spans="1:1">
+    <row r="535" spans="1:1">
       <c r="A535" s="21"/>
     </row>
-    <row r="536" ht="14.25" spans="1:1">
+    <row r="536" spans="1:1">
       <c r="A536" s="21"/>
     </row>
-    <row r="537" ht="14.25" spans="1:1">
+    <row r="537" spans="1:1">
       <c r="A537" s="21"/>
     </row>
-    <row r="538" ht="14.25" spans="1:1">
+    <row r="538" spans="1:1">
       <c r="A538" s="21"/>
     </row>
-    <row r="539" ht="14.25" spans="1:1">
+    <row r="539" spans="1:1">
       <c r="A539" s="21"/>
     </row>
-    <row r="540" ht="14.25" spans="1:1">
+    <row r="540" spans="1:1">
       <c r="A540" s="21"/>
     </row>
-    <row r="541" ht="14.25" spans="1:1">
+    <row r="541" spans="1:1">
       <c r="A541" s="21"/>
     </row>
-    <row r="542" ht="14.25" spans="1:1">
+    <row r="542" spans="1:1">
       <c r="A542" s="21"/>
     </row>
-    <row r="543" ht="14.25" spans="1:1">
+    <row r="543" spans="1:1">
       <c r="A543" s="21"/>
     </row>
-    <row r="544" ht="14.25" spans="1:1">
+    <row r="544" spans="1:1">
       <c r="A544" s="21"/>
     </row>
-    <row r="545" ht="14.25" spans="1:1">
+    <row r="545" spans="1:1">
       <c r="A545" s="21"/>
     </row>
-    <row r="546" ht="14.25" spans="1:1">
+    <row r="546" spans="1:1">
       <c r="A546" s="21"/>
     </row>
-    <row r="547" ht="14.25" spans="1:1">
+    <row r="547" spans="1:1">
       <c r="A547" s="21"/>
     </row>
-    <row r="548" ht="14.25" spans="1:1">
+    <row r="548" spans="1:1">
       <c r="A548" s="21"/>
     </row>
-    <row r="549" ht="14.25" spans="1:1">
+    <row r="549" spans="1:1">
       <c r="A549" s="21"/>
     </row>
-    <row r="550" ht="14.25" spans="1:1">
+    <row r="550" spans="1:1">
       <c r="A550" s="21"/>
     </row>
-    <row r="551" ht="14.25" spans="1:1">
+    <row r="551" spans="1:1">
       <c r="A551" s="21"/>
     </row>
-    <row r="552" ht="14.25" spans="1:1">
+    <row r="552" spans="1:1">
       <c r="A552" s="21"/>
     </row>
-    <row r="553" ht="14.25" spans="1:1">
+    <row r="553" spans="1:1">
       <c r="A553" s="21"/>
     </row>
-    <row r="554" ht="14.25" spans="1:1">
+    <row r="554" spans="1:1">
       <c r="A554" s="21"/>
     </row>
-    <row r="555" ht="14.25" spans="1:1">
+    <row r="555" spans="1:1">
       <c r="A555" s="21"/>
     </row>
-    <row r="556" ht="14.25" spans="1:1">
+    <row r="556" spans="1:1">
       <c r="A556" s="21"/>
     </row>
-    <row r="557" ht="14.25" spans="1:1">
+    <row r="557" spans="1:1">
       <c r="A557" s="21"/>
     </row>
-    <row r="558" ht="14.25" spans="1:1">
+    <row r="558" spans="1:1">
       <c r="A558" s="21"/>
     </row>
-    <row r="559" ht="14.25" spans="1:1">
+    <row r="559" spans="1:1">
       <c r="A559" s="21"/>
     </row>
-    <row r="560" ht="14.25" spans="1:1">
+    <row r="560" spans="1:1">
       <c r="A560" s="21"/>
     </row>
-    <row r="561" ht="14.25" spans="1:1">
+    <row r="561" spans="1:1">
       <c r="A561" s="21"/>
     </row>
-    <row r="562" ht="14.25" spans="1:1">
+    <row r="562" spans="1:1">
       <c r="A562" s="21"/>
     </row>
-    <row r="563" ht="14.25" spans="1:1">
+    <row r="563" spans="1:1">
       <c r="A563" s="21"/>
     </row>
-    <row r="564" ht="14.25" spans="1:1">
+    <row r="564" spans="1:1">
       <c r="A564" s="21"/>
     </row>
-    <row r="565" ht="14.25" spans="1:1">
+    <row r="565" spans="1:1">
       <c r="A565" s="21"/>
     </row>
-    <row r="566" ht="14.25" spans="1:1">
+    <row r="566" spans="1:1">
       <c r="A566" s="21"/>
     </row>
-    <row r="567" ht="14.25" spans="1:1">
+    <row r="567" spans="1:1">
       <c r="A567" s="21"/>
     </row>
-    <row r="568" ht="14.25" spans="1:1">
+    <row r="568" spans="1:1">
       <c r="A568" s="21"/>
     </row>
-    <row r="569" ht="14.25" spans="1:1">
+    <row r="569" spans="1:1">
       <c r="A569" s="21"/>
     </row>
-    <row r="570" ht="14.25" spans="1:1">
+    <row r="570" spans="1:1">
       <c r="A570" s="21"/>
     </row>
-    <row r="571" ht="14.25" spans="1:1">
+    <row r="571" spans="1:1">
       <c r="A571" s="21"/>
     </row>
-    <row r="572" ht="14.25" spans="1:1">
+    <row r="572" spans="1:1">
       <c r="A572" s="21"/>
     </row>
-    <row r="573" ht="14.25" spans="1:1">
+    <row r="573" spans="1:1">
       <c r="A573" s="21"/>
     </row>
-    <row r="574" ht="14.25" spans="1:1">
+    <row r="574" spans="1:1">
       <c r="A574" s="21"/>
     </row>
-    <row r="575" ht="14.25" spans="1:1">
+    <row r="575" spans="1:1">
       <c r="A575" s="21"/>
     </row>
-    <row r="576" ht="14.25" spans="1:1">
+    <row r="576" spans="1:1">
       <c r="A576" s="21"/>
     </row>
-    <row r="577" ht="14.25" spans="1:1">
+    <row r="577" spans="1:1">
       <c r="A577" s="21"/>
     </row>
-    <row r="578" ht="14.25" spans="1:1">
+    <row r="578" spans="1:1">
       <c r="A578" s="21"/>
     </row>
-    <row r="579" ht="14.25" spans="1:1">
+    <row r="579" spans="1:1">
       <c r="A579" s="21"/>
     </row>
-    <row r="580" ht="14.25" spans="1:1">
+    <row r="580" spans="1:1">
       <c r="A580" s="21"/>
     </row>
-    <row r="581" ht="14.25" spans="1:1">
+    <row r="581" spans="1:1">
       <c r="A581" s="21"/>
     </row>
-    <row r="582" ht="14.25" spans="1:1">
+    <row r="582" spans="1:1">
       <c r="A582" s="21"/>
     </row>
-    <row r="583" ht="14.25" spans="1:1">
+    <row r="583" spans="1:1">
       <c r="A583" s="21"/>
     </row>
-    <row r="584" ht="14.25" spans="1:1">
+    <row r="584" spans="1:1">
       <c r="A584" s="21"/>
     </row>
-    <row r="585" ht="14.25" spans="1:1">
+    <row r="585" spans="1:1">
       <c r="A585" s="21"/>
     </row>
-    <row r="586" ht="14.25" spans="1:1">
+    <row r="586" spans="1:1">
       <c r="A586" s="21"/>
     </row>
-    <row r="587" ht="14.25" spans="1:1">
+    <row r="587" spans="1:1">
       <c r="A587" s="21"/>
     </row>
-    <row r="588" ht="14.25" spans="1:1">
+    <row r="588" spans="1:1">
       <c r="A588" s="21"/>
     </row>
-    <row r="589" ht="14.25" spans="1:1">
+    <row r="589" spans="1:1">
       <c r="A589" s="21"/>
     </row>
-    <row r="590" ht="14.25" spans="1:1">
+    <row r="590" spans="1:1">
       <c r="A590" s="21"/>
     </row>
-    <row r="591" ht="14.25" spans="1:1">
+    <row r="591" spans="1:1">
       <c r="A591" s="21"/>
     </row>
-    <row r="592" ht="14.25" spans="1:1">
+    <row r="592" spans="1:1">
       <c r="A592" s="21"/>
     </row>
-    <row r="593" ht="14.25" spans="1:1">
+    <row r="593" spans="1:1">
       <c r="A593" s="21"/>
     </row>
-    <row r="594" ht="14.25" spans="1:1">
+    <row r="594" spans="1:1">
       <c r="A594" s="21"/>
     </row>
-    <row r="595" ht="14.25" spans="1:1">
+    <row r="595" spans="1:1">
       <c r="A595" s="21"/>
     </row>
-    <row r="596" ht="14.25" spans="1:1">
+    <row r="596" spans="1:1">
       <c r="A596" s="21"/>
     </row>
-    <row r="597" ht="14.25" spans="1:1">
+    <row r="597" spans="1:1">
       <c r="A597" s="21"/>
     </row>
-    <row r="598" ht="14.25" spans="1:1">
+    <row r="598" spans="1:1">
       <c r="A598" s="21"/>
     </row>
-    <row r="599" ht="14.25" spans="1:1">
+    <row r="599" spans="1:1">
       <c r="A599" s="21"/>
     </row>
-    <row r="600" ht="14.25" spans="1:1">
+    <row r="600" spans="1:1">
       <c r="A600" s="21"/>
     </row>
-    <row r="601" ht="14.25" spans="1:1">
+    <row r="601" spans="1:1">
       <c r="A601" s="21"/>
     </row>
-    <row r="602" ht="14.25" spans="1:1">
+    <row r="602" spans="1:1">
       <c r="A602" s="21"/>
     </row>
-    <row r="603" ht="14.25" spans="1:1">
+    <row r="603" spans="1:1">
       <c r="A603" s="21"/>
     </row>
-    <row r="604" ht="14.25" spans="1:1">
+    <row r="604" spans="1:1">
       <c r="A604" s="21"/>
     </row>
-    <row r="605" ht="14.25" spans="1:1">
+    <row r="605" spans="1:1">
       <c r="A605" s="21"/>
     </row>
-    <row r="606" ht="14.25" spans="1:1">
+    <row r="606" spans="1:1">
       <c r="A606" s="21"/>
     </row>
-    <row r="607" ht="14.25" spans="1:1">
+    <row r="607" spans="1:1">
       <c r="A607" s="21"/>
     </row>
-    <row r="608" ht="14.25" spans="1:1">
+    <row r="608" spans="1:1">
       <c r="A608" s="21"/>
     </row>
-    <row r="609" ht="14.25" spans="1:1">
+    <row r="609" spans="1:1">
       <c r="A609" s="21"/>
     </row>
-    <row r="610" ht="14.25" spans="1:1">
+    <row r="610" spans="1:1">
       <c r="A610" s="21"/>
     </row>
-    <row r="611" ht="14.25" spans="1:1">
+    <row r="611" spans="1:1">
       <c r="A611" s="21"/>
     </row>
-    <row r="612" ht="14.25" spans="1:1">
+    <row r="612" spans="1:1">
       <c r="A612" s="21"/>
     </row>
-    <row r="613" ht="14.25" spans="1:1">
+    <row r="613" spans="1:1">
       <c r="A613" s="21"/>
     </row>
-    <row r="614" ht="14.25" spans="1:1">
+    <row r="614" spans="1:1">
       <c r="A614" s="21"/>
     </row>
-    <row r="615" ht="14.25" spans="1:1">
+    <row r="615" spans="1:1">
       <c r="A615" s="21"/>
     </row>
-    <row r="616" ht="14.25" spans="1:1">
+    <row r="616" spans="1:1">
       <c r="A616" s="21"/>
     </row>
-    <row r="617" ht="14.25" spans="1:1">
+    <row r="617" spans="1:1">
       <c r="A617" s="21"/>
     </row>
-    <row r="618" ht="14.25" spans="1:1">
+    <row r="618" spans="1:1">
       <c r="A618" s="21"/>
     </row>
-    <row r="619" ht="14.25" spans="1:1">
+    <row r="619" spans="1:1">
       <c r="A619" s="21"/>
     </row>
-    <row r="620" ht="14.25" spans="1:1">
+    <row r="620" spans="1:1">
       <c r="A620" s="21"/>
     </row>
-    <row r="621" ht="14.25" spans="1:1">
+    <row r="621" spans="1:1">
       <c r="A621" s="21"/>
     </row>
-    <row r="622" ht="14.25" spans="1:1">
+    <row r="622" spans="1:1">
       <c r="A622" s="21"/>
     </row>
-    <row r="623" ht="14.25" spans="1:1">
+    <row r="623" spans="1:1">
       <c r="A623" s="21"/>
     </row>
-    <row r="624" ht="14.25" spans="1:1">
+    <row r="624" spans="1:1">
       <c r="A624" s="21"/>
     </row>
-    <row r="625" ht="14.25" spans="1:1">
+    <row r="625" spans="1:1">
       <c r="A625" s="21"/>
     </row>
-    <row r="626" ht="14.25" spans="1:1">
+    <row r="626" spans="1:1">
       <c r="A626" s="21"/>
     </row>
-    <row r="627" ht="14.25" spans="1:1">
+    <row r="627" spans="1:1">
       <c r="A627" s="21"/>
     </row>
-    <row r="628" ht="14.25" spans="1:1">
+    <row r="628" spans="1:1">
       <c r="A628" s="21"/>
     </row>
-    <row r="629" ht="14.25" spans="1:1">
+    <row r="629" spans="1:1">
       <c r="A629" s="21"/>
     </row>
-    <row r="630" ht="14.25" spans="1:1">
+    <row r="630" spans="1:1">
       <c r="A630" s="21"/>
     </row>
-    <row r="631" ht="14.25" spans="1:1">
+    <row r="631" spans="1:1">
       <c r="A631" s="21"/>
     </row>
-    <row r="632" ht="14.25" spans="1:1">
+    <row r="632" spans="1:1">
       <c r="A632" s="21"/>
     </row>
-    <row r="633" ht="14.25" spans="1:1">
+    <row r="633" spans="1:1">
       <c r="A633" s="21"/>
     </row>
-    <row r="634" ht="14.25" spans="1:1">
+    <row r="634" spans="1:1">
       <c r="A634" s="21"/>
     </row>
-    <row r="635" ht="14.25" spans="1:1">
+    <row r="635" spans="1:1">
       <c r="A635" s="21"/>
     </row>
-    <row r="636" ht="14.25" spans="1:1">
+    <row r="636" spans="1:1">
       <c r="A636" s="21"/>
     </row>
-    <row r="637" ht="14.25" spans="1:1">
+    <row r="637" spans="1:1">
       <c r="A637" s="21"/>
     </row>
-    <row r="638" ht="14.25" spans="1:1">
+    <row r="638" spans="1:1">
       <c r="A638" s="21"/>
     </row>
-    <row r="639" ht="14.25" spans="1:1">
+    <row r="639" spans="1:1">
       <c r="A639" s="21"/>
     </row>
-    <row r="640" ht="14.25" spans="1:1">
+    <row r="640" spans="1:1">
       <c r="A640" s="21"/>
     </row>
-    <row r="641" ht="14.25" spans="1:1">
+    <row r="641" spans="1:1">
       <c r="A641" s="21"/>
     </row>
-    <row r="642" ht="14.25" spans="1:1">
+    <row r="642" spans="1:1">
       <c r="A642" s="21"/>
     </row>
-    <row r="643" ht="14.25" spans="1:1">
+    <row r="643" spans="1:1">
       <c r="A643" s="21"/>
     </row>
-    <row r="644" ht="14.25" spans="1:1">
+    <row r="644" spans="1:1">
       <c r="A644" s="21"/>
     </row>
-    <row r="645" ht="14.25" spans="1:1">
+    <row r="645" spans="1:1">
       <c r="A645" s="21"/>
     </row>
-    <row r="646" ht="14.25" spans="1:1">
+    <row r="646" spans="1:1">
       <c r="A646" s="21"/>
     </row>
-    <row r="647" ht="14.25" spans="1:1">
+    <row r="647" spans="1:1">
       <c r="A647" s="21"/>
     </row>
-    <row r="648" ht="14.25" spans="1:1">
+    <row r="648" spans="1:1">
       <c r="A648" s="21"/>
     </row>
-    <row r="649" ht="14.25" spans="1:1">
+    <row r="649" spans="1:1">
       <c r="A649" s="21"/>
     </row>
-    <row r="650" ht="14.25" spans="1:1">
+    <row r="650" spans="1:1">
       <c r="A650" s="21"/>
     </row>
-    <row r="651" ht="14.25" spans="1:1">
+    <row r="651" spans="1:1">
       <c r="A651" s="21"/>
     </row>
-    <row r="652" ht="14.25" spans="1:1">
+    <row r="652" spans="1:1">
       <c r="A652" s="21"/>
     </row>
-    <row r="653" ht="14.25" spans="1:1">
+    <row r="653" spans="1:1">
       <c r="A653" s="21"/>
     </row>
-    <row r="654" ht="14.25" spans="1:1">
+    <row r="654" spans="1:1">
       <c r="A654" s="21"/>
     </row>
-    <row r="655" ht="14.25" spans="1:1">
+    <row r="655" spans="1:1">
       <c r="A655" s="21"/>
     </row>
-    <row r="656" ht="14.25" spans="1:1">
+    <row r="656" spans="1:1">
       <c r="A656" s="21"/>
     </row>
-    <row r="657" ht="14.25" spans="1:1">
+    <row r="657" spans="1:1">
       <c r="A657" s="21"/>
     </row>
-    <row r="658" ht="14.25" spans="1:1">
+    <row r="658" spans="1:1">
       <c r="A658" s="21"/>
     </row>
-    <row r="659" ht="14.25" spans="1:1">
+    <row r="659" spans="1:1">
       <c r="A659" s="21"/>
     </row>
-    <row r="660" ht="14.25" spans="1:1">
+    <row r="660" spans="1:1">
       <c r="A660" s="21"/>
     </row>
-    <row r="661" ht="14.25" spans="1:1">
+    <row r="661" spans="1:1">
       <c r="A661" s="21"/>
     </row>
-    <row r="662" ht="14.25" spans="1:1">
+    <row r="662" spans="1:1">
       <c r="A662" s="21"/>
     </row>
-    <row r="663" ht="14.25" spans="1:1">
+    <row r="663" spans="1:1">
       <c r="A663" s="21"/>
     </row>
-    <row r="664" ht="14.25" spans="1:1">
+    <row r="664" spans="1:1">
       <c r="A664" s="21"/>
     </row>
-    <row r="665" ht="14.25" spans="1:1">
+    <row r="665" spans="1:1">
       <c r="A665" s="21"/>
     </row>
-    <row r="666" ht="14.25" spans="1:1">
+    <row r="666" spans="1:1">
       <c r="A666" s="21"/>
     </row>
-    <row r="667" ht="14.25" spans="1:1">
+    <row r="667" spans="1:1">
       <c r="A667" s="21"/>
     </row>
-    <row r="668" ht="14.25" spans="1:1">
+    <row r="668" spans="1:1">
       <c r="A668" s="21"/>
     </row>
-    <row r="669" ht="14.25" spans="1:1">
+    <row r="669" spans="1:1">
       <c r="A669" s="21"/>
     </row>
-    <row r="670" ht="14.25" spans="1:1">
+    <row r="670" spans="1:1">
       <c r="A670" s="21"/>
     </row>
-    <row r="671" ht="14.25" spans="1:1">
+    <row r="671" spans="1:1">
       <c r="A671" s="21"/>
     </row>
-    <row r="672" ht="14.25" spans="1:1">
+    <row r="672" spans="1:1">
       <c r="A672" s="21"/>
     </row>
-    <row r="673" ht="14.25" spans="1:1">
+    <row r="673" spans="1:1">
       <c r="A673" s="21"/>
     </row>
-    <row r="674" ht="14.25" spans="1:1">
+    <row r="674" spans="1:1">
       <c r="A674" s="21"/>
     </row>
-    <row r="675" ht="14.25" spans="1:1">
+    <row r="675" spans="1:1">
       <c r="A675" s="21"/>
     </row>
-    <row r="676" ht="14.25" spans="1:1">
+    <row r="676" spans="1:1">
       <c r="A676" s="21"/>
     </row>
-    <row r="677" ht="14.25" spans="1:1">
+    <row r="677" spans="1:1">
       <c r="A677" s="21"/>
     </row>
-    <row r="678" ht="14.25" spans="1:1">
+    <row r="678" spans="1:1">
       <c r="A678" s="21"/>
     </row>
-    <row r="679" ht="14.25" spans="1:1">
+    <row r="679" spans="1:1">
       <c r="A679" s="21"/>
     </row>
-    <row r="680" ht="14.25" spans="1:1">
+    <row r="680" spans="1:1">
       <c r="A680" s="21"/>
     </row>
-    <row r="681" ht="14.25" spans="1:1">
+    <row r="681" spans="1:1">
       <c r="A681" s="21"/>
     </row>
-    <row r="682" ht="14.25" spans="1:1">
+    <row r="682" spans="1:1">
       <c r="A682" s="21"/>
     </row>
-    <row r="683" ht="14.25" spans="1:1">
+    <row r="683" spans="1:1">
       <c r="A683" s="21"/>
     </row>
-    <row r="684" ht="14.25" spans="1:1">
+    <row r="684" spans="1:1">
       <c r="A684" s="21"/>
     </row>
-    <row r="685" ht="14.25" spans="1:1">
+    <row r="685" spans="1:1">
       <c r="A685" s="21"/>
     </row>
-    <row r="686" ht="14.25" spans="1:1">
+    <row r="686" spans="1:1">
       <c r="A686" s="21"/>
     </row>
-    <row r="687" ht="14.25" spans="1:1">
+    <row r="687" spans="1:1">
       <c r="A687" s="21"/>
     </row>
-    <row r="688" ht="14.25" spans="1:1">
+    <row r="688" spans="1:1">
       <c r="A688" s="21"/>
     </row>
-    <row r="689" ht="14.25" spans="1:1">
+    <row r="689" spans="1:1">
       <c r="A689" s="21"/>
     </row>
-    <row r="690" ht="14.25" spans="1:1">
+    <row r="690" spans="1:1">
       <c r="A690" s="21"/>
     </row>
-    <row r="691" ht="14.25" spans="1:1">
+    <row r="691" spans="1:1">
       <c r="A691" s="21"/>
     </row>
-    <row r="692" ht="14.25" spans="1:1">
+    <row r="692" spans="1:1">
       <c r="A692" s="21"/>
     </row>
-    <row r="693" ht="14.25" spans="1:1">
+    <row r="693" spans="1:1">
       <c r="A693" s="21"/>
     </row>
-    <row r="694" ht="14.25" spans="1:1">
+    <row r="694" spans="1:1">
       <c r="A694" s="21"/>
     </row>
-    <row r="695" ht="14.25" spans="1:1">
+    <row r="695" spans="1:1">
       <c r="A695" s="21"/>
     </row>
-    <row r="696" ht="14.25" spans="1:1">
+    <row r="696" spans="1:1">
       <c r="A696" s="21"/>
     </row>
-    <row r="697" ht="14.25" spans="1:1">
+    <row r="697" spans="1:1">
       <c r="A697" s="21"/>
     </row>
-    <row r="698" ht="14.25" spans="1:1">
+    <row r="698" spans="1:1">
       <c r="A698" s="21"/>
     </row>
-    <row r="699" ht="14.25" spans="1:1">
+    <row r="699" spans="1:1">
       <c r="A699" s="21"/>
     </row>
-    <row r="700" ht="14.25" spans="1:1">
+    <row r="700" spans="1:1">
       <c r="A700" s="21"/>
     </row>
-    <row r="701" ht="14.25" spans="1:1">
+    <row r="701" spans="1:1">
       <c r="A701" s="21"/>
     </row>
-    <row r="702" ht="14.25" spans="1:1">
+    <row r="702" spans="1:1">
       <c r="A702" s="21"/>
     </row>
-    <row r="703" ht="14.25" spans="1:1">
+    <row r="703" spans="1:1">
       <c r="A703" s="21"/>
     </row>
-    <row r="704" ht="14.25" spans="1:1">
+    <row r="704" spans="1:1">
       <c r="A704" s="21"/>
     </row>
-    <row r="705" ht="14.25" spans="1:1">
+    <row r="705" spans="1:1">
       <c r="A705" s="21"/>
     </row>
-    <row r="706" ht="14.25" spans="1:1">
+    <row r="706" spans="1:1">
       <c r="A706" s="21"/>
     </row>
-    <row r="707" ht="14.25" spans="1:1">
+    <row r="707" spans="1:1">
       <c r="A707" s="21"/>
     </row>
-    <row r="708" ht="14.25" spans="1:1">
+    <row r="708" spans="1:1">
       <c r="A708" s="21"/>
     </row>
-    <row r="709" ht="14.25" spans="1:1">
+    <row r="709" spans="1:1">
       <c r="A709" s="21"/>
     </row>
-    <row r="710" ht="14.25" spans="1:1">
+    <row r="710" spans="1:1">
       <c r="A710" s="21"/>
     </row>
-    <row r="711" ht="14.25" spans="1:1">
+    <row r="711" spans="1:1">
       <c r="A711" s="21"/>
     </row>
-    <row r="712" ht="14.25" spans="1:1">
+    <row r="712" spans="1:1">
       <c r="A712" s="21"/>
     </row>
-    <row r="713" ht="14.25" spans="1:1">
+    <row r="713" spans="1:1">
       <c r="A713" s="21"/>
     </row>
-    <row r="714" ht="14.25" spans="1:1">
+    <row r="714" spans="1:1">
       <c r="A714" s="21"/>
     </row>
-    <row r="715" ht="14.25" spans="1:1">
+    <row r="715" spans="1:1">
       <c r="A715" s="21"/>
     </row>
-    <row r="716" ht="14.25" spans="1:1">
+    <row r="716" spans="1:1">
       <c r="A716" s="21"/>
     </row>
-    <row r="717" ht="14.25" spans="1:1">
+    <row r="717" spans="1:1">
       <c r="A717" s="21"/>
     </row>
-    <row r="718" ht="14.25" spans="1:1">
+    <row r="718" spans="1:1">
       <c r="A718" s="21"/>
     </row>
-    <row r="719" ht="14.25" spans="1:1">
+    <row r="719" spans="1:1">
       <c r="A719" s="21"/>
     </row>
-    <row r="720" ht="14.25" spans="1:1">
+    <row r="720" spans="1:1">
       <c r="A720" s="21"/>
     </row>
-    <row r="721" ht="14.25" spans="1:1">
+    <row r="721" spans="1:1">
       <c r="A721" s="21"/>
     </row>
-    <row r="722" ht="14.25" spans="1:1">
+    <row r="722" spans="1:1">
       <c r="A722" s="21"/>
     </row>
-    <row r="723" ht="14.25" spans="1:1">
+    <row r="723" spans="1:1">
       <c r="A723" s="21"/>
     </row>
-    <row r="724" ht="14.25" spans="1:1">
+    <row r="724" spans="1:1">
       <c r="A724" s="21"/>
     </row>
-    <row r="725" ht="14.25" spans="1:1">
+    <row r="725" spans="1:1">
       <c r="A725" s="21"/>
     </row>
-    <row r="726" ht="14.25" spans="1:1">
+    <row r="726" spans="1:1">
       <c r="A726" s="21"/>
     </row>
-    <row r="727" ht="14.25" spans="1:1">
+    <row r="727" spans="1:1">
       <c r="A727" s="21"/>
     </row>
-    <row r="728" ht="14.25" spans="1:1">
+    <row r="728" spans="1:1">
       <c r="A728" s="21"/>
     </row>
-    <row r="729" ht="14.25" spans="1:1">
+    <row r="729" spans="1:1">
       <c r="A729" s="21"/>
     </row>
-    <row r="730" ht="14.25" spans="1:1">
+    <row r="730" spans="1:1">
       <c r="A730" s="21"/>
     </row>
-    <row r="731" ht="14.25" spans="1:1">
+    <row r="731" spans="1:1">
       <c r="A731" s="21"/>
     </row>
-    <row r="732" ht="14.25" spans="1:1">
+    <row r="732" spans="1:1">
       <c r="A732" s="21"/>
     </row>
-    <row r="733" ht="14.25" spans="1:1">
+    <row r="733" spans="1:1">
       <c r="A733" s="21"/>
     </row>
-    <row r="734" ht="14.25" spans="1:1">
+    <row r="734" spans="1:1">
       <c r="A734" s="21"/>
     </row>
-    <row r="735" ht="14.25" spans="1:1">
+    <row r="735" spans="1:1">
       <c r="A735" s="21"/>
     </row>
-    <row r="736" ht="14.25" spans="1:1">
+    <row r="736" spans="1:1">
       <c r="A736" s="21"/>
     </row>
-    <row r="737" ht="14.25" spans="1:1">
+    <row r="737" spans="1:1">
       <c r="A737" s="21"/>
     </row>
-    <row r="738" ht="14.25" spans="1:1">
+    <row r="738" spans="1:1">
       <c r="A738" s="21"/>
     </row>
-    <row r="739" ht="14.25" spans="1:1">
+    <row r="739" spans="1:1">
       <c r="A739" s="21"/>
     </row>
-    <row r="740" ht="14.25" spans="1:1">
+    <row r="740" spans="1:1">
       <c r="A740" s="21"/>
     </row>
-    <row r="741" ht="14.25" spans="1:1">
+    <row r="741" spans="1:1">
       <c r="A741" s="21"/>
     </row>
-    <row r="742" ht="14.25" spans="1:1">
+    <row r="742" spans="1:1">
       <c r="A742" s="21"/>
     </row>
-    <row r="743" ht="14.25" spans="1:1">
+    <row r="743" spans="1:1">
       <c r="A743" s="21"/>
     </row>
-    <row r="744" ht="14.25" spans="1:1">
+    <row r="744" spans="1:1">
       <c r="A744" s="21"/>
     </row>
-    <row r="745" ht="14.25" spans="1:1">
+    <row r="745" spans="1:1">
       <c r="A745" s="21"/>
     </row>
-    <row r="746" ht="14.25" spans="1:1">
+    <row r="746" spans="1:1">
       <c r="A746" s="21"/>
     </row>
-    <row r="747" ht="14.25" spans="1:1">
+    <row r="747" spans="1:1">
       <c r="A747" s="21"/>
     </row>
-    <row r="748" ht="14.25" spans="1:1">
+    <row r="748" spans="1:1">
       <c r="A748" s="21"/>
     </row>
-    <row r="749" ht="14.25" spans="1:1">
+    <row r="749" spans="1:1">
       <c r="A749" s="21"/>
     </row>
-    <row r="750" ht="14.25" spans="1:1">
+    <row r="750" spans="1:1">
       <c r="A750" s="21"/>
     </row>
-    <row r="751" ht="14.25" spans="1:1">
+    <row r="751" spans="1:1">
       <c r="A751" s="21"/>
     </row>
-    <row r="752" ht="14.25" spans="1:1">
+    <row r="752" spans="1:1">
       <c r="A752" s="21"/>
     </row>
-    <row r="753" ht="14.25" spans="1:1">
+    <row r="753" spans="1:1">
       <c r="A753" s="21"/>
     </row>
-    <row r="754" ht="14.25" spans="1:1">
+    <row r="754" spans="1:1">
       <c r="A754" s="21"/>
     </row>
-    <row r="755" ht="14.25" spans="1:1">
+    <row r="755" spans="1:1">
       <c r="A755" s="21"/>
     </row>
-    <row r="756" ht="14.25" spans="1:1">
+    <row r="756" spans="1:1">
       <c r="A756" s="21"/>
     </row>
-    <row r="757" ht="14.25" spans="1:1">
+    <row r="757" spans="1:1">
       <c r="A757" s="21"/>
     </row>
-    <row r="758" ht="14.25" spans="1:1">
+    <row r="758" spans="1:1">
       <c r="A758" s="21"/>
     </row>
-    <row r="759" ht="14.25" spans="1:1">
+    <row r="759" spans="1:1">
       <c r="A759" s="21"/>
     </row>
-    <row r="760" ht="14.25" spans="1:1">
+    <row r="760" spans="1:1">
       <c r="A760" s="21"/>
     </row>
-    <row r="761" ht="14.25" spans="1:1">
+    <row r="761" spans="1:1">
       <c r="A761" s="21"/>
     </row>
-    <row r="762" ht="14.25" spans="1:1">
+    <row r="762" spans="1:1">
       <c r="A762" s="21"/>
     </row>
   </sheetData>

--- a/招商团长/talkLine.xlsx
+++ b/招商团长/talkLine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17508" windowHeight="8124"/>
+    <workbookView windowWidth="17115" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="966">
   <si>
     <t>店铺旺旺</t>
   </si>
@@ -2912,6 +2912,24 @@
   <si>
     <t>Q :463490417</t>
   </si>
+  <si>
+    <t>飞誉绍兴专卖店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q:148239539  </t>
+  </si>
+  <si>
+    <t>恩乾家居专营店</t>
+  </si>
+  <si>
+    <t>V:13989588200</t>
+  </si>
+  <si>
+    <t>万众同歌企业店</t>
+  </si>
+  <si>
+    <t>QQ :465834648 微信：18657168587</t>
+  </si>
 </sst>
 </file>
 
@@ -2919,8 +2937,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
@@ -3045,7 +3063,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3066,21 +3114,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -3089,11 +3122,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3105,10 +3153,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3127,25 +3184,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3159,32 +3199,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3203,7 +3221,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3215,25 +3275,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3245,67 +3341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3323,31 +3365,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3359,31 +3395,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3394,6 +3412,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3429,35 +3471,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3488,8 +3504,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3502,10 +3520,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3514,137 +3532,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3724,9 +3742,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4050,17 +4065,17 @@
   <sheetPr/>
   <dimension ref="A1:E762"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A459" workbookViewId="0">
-      <selection activeCell="A468" sqref="A468"/>
+    <sheetView tabSelected="1" topLeftCell="A459" workbookViewId="0">
+      <selection activeCell="A471" sqref="A471"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.6296296296296" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="35.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="37.25" style="4" customWidth="1"/>
-    <col min="5" max="6" width="15.8796296296296" customWidth="1"/>
+    <col min="5" max="6" width="15.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4077,7 +4092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="17.4" spans="1:2">
+    <row r="2" ht="17.25" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -4085,7 +4100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -4093,7 +4108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -4101,7 +4116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" ht="14.25" spans="1:2">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -4109,7 +4124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" ht="14.25" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -4128,7 +4143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" ht="14.25" spans="1:2">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -4136,7 +4151,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" ht="14.25" spans="1:2">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -4144,7 +4159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" ht="14.25" spans="1:3">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -4155,7 +4170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" ht="14.25" spans="1:2">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -4163,7 +4178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" ht="14.25" spans="1:2">
       <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
@@ -4171,7 +4186,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" ht="14.25" spans="1:2">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -4179,7 +4194,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" ht="14.25" spans="1:2">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -4187,7 +4202,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" ht="14.25" spans="1:2">
       <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
@@ -4195,7 +4210,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" ht="14.25" spans="1:3">
       <c r="A16" s="5" t="s">
         <v>34</v>
       </c>
@@ -4206,7 +4221,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" ht="14.25" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
@@ -4214,7 +4229,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:4">
+    <row r="18" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A18" s="8" t="s">
         <v>39</v>
       </c>
@@ -4236,7 +4251,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" ht="14.25" spans="1:2">
       <c r="A20" s="5" t="s">
         <v>45</v>
       </c>
@@ -4244,7 +4259,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:4">
+    <row r="21" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A21" s="11" t="s">
         <v>47</v>
       </c>
@@ -4258,7 +4273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" ht="14.25" spans="1:2">
       <c r="A22" s="5" t="s">
         <v>51</v>
       </c>
@@ -4266,7 +4281,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" ht="14.25" spans="1:2">
       <c r="A23" s="13" t="s">
         <v>53</v>
       </c>
@@ -4274,7 +4289,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="1:2">
+    <row r="24" ht="16.5" spans="1:2">
       <c r="A24" s="5" t="s">
         <v>55</v>
       </c>
@@ -4282,7 +4297,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" ht="14.25" spans="1:2">
       <c r="A25" s="5" t="s">
         <v>57</v>
       </c>
@@ -4290,7 +4305,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:4">
+    <row r="26" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A26" s="16" t="s">
         <v>59</v>
       </c>
@@ -4300,7 +4315,7 @@
       </c>
       <c r="D26" s="17"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" ht="14.25" spans="1:2">
       <c r="A27" s="5" t="s">
         <v>61</v>
       </c>
@@ -4308,7 +4323,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:4">
+    <row r="28" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A28" s="8" t="s">
         <v>63</v>
       </c>
@@ -4322,7 +4337,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" ht="14.25" spans="1:3">
       <c r="A29" s="5" t="s">
         <v>67</v>
       </c>
@@ -4333,7 +4348,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" ht="14.25" spans="1:3">
       <c r="A30" s="5" t="s">
         <v>70</v>
       </c>
@@ -4341,7 +4356,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" ht="14.25" spans="1:2">
       <c r="A31" s="5" t="s">
         <v>71</v>
       </c>
@@ -4349,7 +4364,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" ht="14.25" spans="1:2">
       <c r="A32" s="5" t="s">
         <v>73</v>
       </c>
@@ -4357,7 +4372,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" ht="14.25" spans="1:2">
       <c r="A33" s="5" t="s">
         <v>75</v>
       </c>
@@ -4365,7 +4380,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" ht="14.25" spans="1:2">
       <c r="A34" s="5" t="s">
         <v>77</v>
       </c>
@@ -4373,7 +4388,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" ht="14.25" spans="1:2">
       <c r="A35" s="5" t="s">
         <v>79</v>
       </c>
@@ -4381,7 +4396,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" ht="14.25" spans="1:2">
       <c r="A36" s="5" t="s">
         <v>81</v>
       </c>
@@ -4389,7 +4404,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" s="3" customFormat="1" spans="1:5">
+    <row r="37" s="3" customFormat="1" ht="14.25" spans="1:5">
       <c r="A37" s="19" t="s">
         <v>83</v>
       </c>
@@ -4404,7 +4419,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" ht="14.25" spans="1:2">
       <c r="A38" s="5" t="s">
         <v>87</v>
       </c>
@@ -4412,7 +4427,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" ht="14.25" spans="1:2">
       <c r="A39" s="5" t="s">
         <v>89</v>
       </c>
@@ -4420,7 +4435,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" ht="14.25" spans="1:2">
       <c r="A40" s="5" t="s">
         <v>91</v>
       </c>
@@ -4428,7 +4443,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" ht="14.25" spans="1:2">
       <c r="A41" s="5" t="s">
         <v>93</v>
       </c>
@@ -4436,7 +4451,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" ht="14.25" spans="1:2">
       <c r="A42" s="5" t="s">
         <v>95</v>
       </c>
@@ -4444,7 +4459,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" ht="14.25" spans="1:2">
       <c r="A43" s="5" t="s">
         <v>97</v>
       </c>
@@ -4452,7 +4467,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" ht="14.25" spans="1:2">
       <c r="A44" s="5" t="s">
         <v>99</v>
       </c>
@@ -4460,7 +4475,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" ht="14.25" spans="1:2">
       <c r="A45" s="21" t="s">
         <v>101</v>
       </c>
@@ -4468,7 +4483,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" ht="14.25" spans="1:2">
       <c r="A46" s="5" t="s">
         <v>103</v>
       </c>
@@ -4476,7 +4491,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" ht="14.25" spans="1:2">
       <c r="A47" s="5" t="s">
         <v>105</v>
       </c>
@@ -4484,7 +4499,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" ht="14.25" spans="1:2">
       <c r="A48" s="21" t="s">
         <v>107</v>
       </c>
@@ -4492,7 +4507,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" spans="1:4">
+    <row r="49" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A49" s="8" t="s">
         <v>109</v>
       </c>
@@ -4514,7 +4529,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" ht="14.25" spans="1:3">
       <c r="A51" s="5" t="s">
         <v>115</v>
       </c>
@@ -4522,7 +4537,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" spans="1:4">
+    <row r="52" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A52" s="8" t="s">
         <v>117</v>
       </c>
@@ -4534,7 +4549,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" ht="14.25" spans="1:2">
       <c r="A53" s="21" t="s">
         <v>120</v>
       </c>
@@ -4542,7 +4557,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" ht="14.25" spans="1:2">
       <c r="A54" s="21" t="s">
         <v>122</v>
       </c>
@@ -4550,7 +4565,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" ht="14.25" spans="1:2">
       <c r="A55" s="21" t="s">
         <v>124</v>
       </c>
@@ -4558,7 +4573,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" ht="14.25" spans="1:2">
       <c r="A56" s="5" t="s">
         <v>126</v>
       </c>
@@ -4566,7 +4581,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" ht="14.25" spans="1:2">
       <c r="A57" s="5" t="s">
         <v>128</v>
       </c>
@@ -4574,7 +4589,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" ht="14.25" spans="1:2">
       <c r="A58" s="5" t="s">
         <v>130</v>
       </c>
@@ -4582,7 +4597,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" ht="14.25" spans="1:2">
       <c r="A59" s="21" t="s">
         <v>132</v>
       </c>
@@ -4590,7 +4605,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" ht="14.25" spans="1:2">
       <c r="A60" s="5" t="s">
         <v>134</v>
       </c>
@@ -4598,7 +4613,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" ht="14.25" spans="1:2">
       <c r="A61" s="5" t="s">
         <v>136</v>
       </c>
@@ -4606,7 +4621,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" ht="14.25" spans="1:2">
       <c r="A62" s="5" t="s">
         <v>138</v>
       </c>
@@ -4614,7 +4629,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" ht="14.25" spans="1:2">
       <c r="A63" s="5" t="s">
         <v>140</v>
       </c>
@@ -4622,7 +4637,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" ht="14.25" spans="1:2">
       <c r="A64" s="5" t="s">
         <v>142</v>
       </c>
@@ -4630,7 +4645,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" ht="14.25" spans="1:2">
       <c r="A65" s="5" t="s">
         <v>144</v>
       </c>
@@ -4638,7 +4653,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" ht="14.25" spans="1:3">
       <c r="A66" s="5" t="s">
         <v>146</v>
       </c>
@@ -4647,7 +4662,7 @@
       </c>
       <c r="C66"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" ht="14.25" spans="1:2">
       <c r="A67" s="5" t="s">
         <v>148</v>
       </c>
@@ -4655,7 +4670,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" ht="14.25" spans="1:2">
       <c r="A68" s="21" t="s">
         <v>150</v>
       </c>
@@ -4663,7 +4678,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" ht="14.25" spans="1:2">
       <c r="A69" s="5" t="s">
         <v>152</v>
       </c>
@@ -4671,7 +4686,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" ht="14.25" spans="1:2">
       <c r="A70" s="21" t="s">
         <v>154</v>
       </c>
@@ -4679,7 +4694,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" ht="14.25" spans="1:2">
       <c r="A71" s="5" t="s">
         <v>156</v>
       </c>
@@ -4687,7 +4702,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" ht="14.25" spans="1:2">
       <c r="A72" s="5" t="s">
         <v>158</v>
       </c>
@@ -4695,7 +4710,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" ht="14.25" spans="1:2">
       <c r="A73" s="5" t="s">
         <v>160</v>
       </c>
@@ -4703,7 +4718,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" ht="14.25" spans="1:2">
       <c r="A74" s="5" t="s">
         <v>162</v>
       </c>
@@ -4711,7 +4726,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" ht="14.25" spans="1:2">
       <c r="A75" s="5" t="s">
         <v>164</v>
       </c>
@@ -4719,7 +4734,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" ht="14.25" spans="1:2">
       <c r="A76" s="5" t="s">
         <v>166</v>
       </c>
@@ -4727,7 +4742,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" ht="14.25" spans="1:2">
       <c r="A77" s="21" t="s">
         <v>168</v>
       </c>
@@ -4735,7 +4750,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" ht="14.25" spans="1:2">
       <c r="A78" s="5" t="s">
         <v>170</v>
       </c>
@@ -4743,7 +4758,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" ht="14.25" spans="1:2">
       <c r="A79" s="5" t="s">
         <v>172</v>
       </c>
@@ -4751,7 +4766,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" ht="14.25" spans="1:2">
       <c r="A80" s="21" t="s">
         <v>174</v>
       </c>
@@ -4759,7 +4774,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" ht="14.25" spans="1:2">
       <c r="A81" s="5" t="s">
         <v>176</v>
       </c>
@@ -4767,7 +4782,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" ht="14.25" spans="1:2">
       <c r="A82" s="5" t="s">
         <v>178</v>
       </c>
@@ -4775,7 +4790,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" ht="14.25" spans="1:2">
       <c r="A83" s="5" t="s">
         <v>180</v>
       </c>
@@ -4783,7 +4798,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" ht="14.25" spans="1:2">
       <c r="A84" s="5" t="s">
         <v>182</v>
       </c>
@@ -4791,7 +4806,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" spans="1:4">
+    <row r="85" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A85" s="8" t="s">
         <v>184</v>
       </c>
@@ -4803,7 +4818,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" ht="14.25" spans="1:2">
       <c r="A86" s="5" t="s">
         <v>187</v>
       </c>
@@ -4811,7 +4826,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" ht="14.25" spans="1:2">
       <c r="A87" s="21" t="s">
         <v>189</v>
       </c>
@@ -4819,7 +4834,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" ht="14.25" spans="1:3">
       <c r="A88" s="5" t="s">
         <v>191</v>
       </c>
@@ -4827,7 +4842,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" ht="14.25" spans="1:2">
       <c r="A89" s="5" t="s">
         <v>193</v>
       </c>
@@ -4835,7 +4850,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" ht="14.25" spans="1:2">
       <c r="A90" s="21" t="s">
         <v>195</v>
       </c>
@@ -4843,7 +4858,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" ht="14.25" spans="1:2">
       <c r="A91" s="5" t="s">
         <v>197</v>
       </c>
@@ -4851,7 +4866,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" ht="14.25" spans="1:2">
       <c r="A92" s="5" t="s">
         <v>199</v>
       </c>
@@ -4859,7 +4874,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" ht="14.25" spans="1:2">
       <c r="A93" s="5" t="s">
         <v>201</v>
       </c>
@@ -4867,7 +4882,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" ht="14.25" spans="1:2">
       <c r="A94" s="5" t="s">
         <v>203</v>
       </c>
@@ -4875,7 +4890,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" ht="14.25" spans="1:2">
       <c r="A95" s="5" t="s">
         <v>205</v>
       </c>
@@ -4883,7 +4898,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" ht="14.25" spans="1:2">
       <c r="A96" s="5" t="s">
         <v>207</v>
       </c>
@@ -4891,7 +4906,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" ht="14.25" spans="1:2">
       <c r="A97" s="5" t="s">
         <v>209</v>
       </c>
@@ -4899,7 +4914,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" ht="14.25" spans="1:2">
       <c r="A98" s="21" t="s">
         <v>211</v>
       </c>
@@ -4907,7 +4922,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" ht="14.25" spans="1:2">
       <c r="A99" s="5" t="s">
         <v>213</v>
       </c>
@@ -4915,7 +4930,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" ht="14.25" spans="1:2">
       <c r="A100" s="5" t="s">
         <v>215</v>
       </c>
@@ -4923,7 +4938,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" ht="14.25" spans="1:2">
       <c r="A101" s="5" t="s">
         <v>217</v>
       </c>
@@ -4931,7 +4946,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" ht="14.25" spans="1:2">
       <c r="A102" s="5" t="s">
         <v>219</v>
       </c>
@@ -4939,7 +4954,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" ht="14.25" spans="1:2">
       <c r="A103" s="5" t="s">
         <v>221</v>
       </c>
@@ -4947,7 +4962,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" ht="14.25" spans="1:2">
       <c r="A104" s="5" t="s">
         <v>223</v>
       </c>
@@ -4955,7 +4970,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" ht="14.25" spans="1:2">
       <c r="A105" s="21" t="s">
         <v>225</v>
       </c>
@@ -4963,7 +4978,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" ht="14.25" spans="1:2">
       <c r="A106" s="5" t="s">
         <v>227</v>
       </c>
@@ -4971,7 +4986,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" ht="14.25" spans="1:3">
       <c r="A107" s="5" t="s">
         <v>229</v>
       </c>
@@ -4979,7 +4994,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" ht="14.25" spans="1:2">
       <c r="A108" s="21" t="s">
         <v>231</v>
       </c>
@@ -4987,7 +5002,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" ht="14.25" spans="1:2">
       <c r="A109" s="5" t="s">
         <v>233</v>
       </c>
@@ -4995,7 +5010,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" ht="14.25" spans="1:2">
       <c r="A110" s="21" t="s">
         <v>235</v>
       </c>
@@ -5003,7 +5018,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" ht="14.25" spans="1:2">
       <c r="A111" s="21" t="s">
         <v>237</v>
       </c>
@@ -5011,7 +5026,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="112" s="3" customFormat="1" spans="1:4">
+    <row r="112" s="3" customFormat="1" ht="14.25" spans="1:4">
       <c r="A112" s="19" t="s">
         <v>239</v>
       </c>
@@ -5021,7 +5036,7 @@
       <c r="C112" s="20"/>
       <c r="D112" s="20"/>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" ht="14.25" spans="1:2">
       <c r="A113" s="21" t="s">
         <v>241</v>
       </c>
@@ -5029,7 +5044,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" ht="14.25" spans="1:2">
       <c r="A114" s="21" t="s">
         <v>243</v>
       </c>
@@ -5037,7 +5052,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" ht="14.25" spans="1:2">
       <c r="A115" s="5" t="s">
         <v>245</v>
       </c>
@@ -5045,7 +5060,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" ht="14.25" spans="1:2">
       <c r="A116" s="21" t="s">
         <v>247</v>
       </c>
@@ -5053,7 +5068,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" ht="14.25" spans="1:2">
       <c r="A117" s="21" t="s">
         <v>249</v>
       </c>
@@ -5061,7 +5076,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" ht="14.25" spans="1:2">
       <c r="A118" s="21" t="s">
         <v>251</v>
       </c>
@@ -5069,7 +5084,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" ht="14.25" spans="1:2">
       <c r="A119" s="21" t="s">
         <v>253</v>
       </c>
@@ -5077,7 +5092,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" ht="14.25" spans="1:2">
       <c r="A120" s="21" t="s">
         <v>255</v>
       </c>
@@ -5085,7 +5100,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" ht="14.25" spans="1:2">
       <c r="A121" s="21" t="s">
         <v>257</v>
       </c>
@@ -5093,7 +5108,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" ht="14.25" spans="1:3">
       <c r="A122" s="21" t="s">
         <v>259</v>
       </c>
@@ -5101,7 +5116,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" ht="14.25" spans="1:2">
       <c r="A123" s="21" t="s">
         <v>261</v>
       </c>
@@ -5109,7 +5124,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" ht="14.25" spans="1:2">
       <c r="A124" s="21" t="s">
         <v>263</v>
       </c>
@@ -5117,7 +5132,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" ht="14.25" spans="1:2">
       <c r="A125" s="21" t="s">
         <v>265</v>
       </c>
@@ -5125,7 +5140,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" ht="14.25" spans="1:2">
       <c r="A126" s="21" t="s">
         <v>267</v>
       </c>
@@ -5133,7 +5148,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" ht="14.25" spans="1:2">
       <c r="A127" s="21" t="s">
         <v>269</v>
       </c>
@@ -5141,7 +5156,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="128" s="1" customFormat="1" spans="1:4">
+    <row r="128" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A128" s="22" t="s">
         <v>271</v>
       </c>
@@ -5155,7 +5170,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" ht="14.25" spans="1:2">
       <c r="A129" s="5" t="s">
         <v>274</v>
       </c>
@@ -5163,7 +5178,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" ht="14.25" spans="1:2">
       <c r="A130" s="21" t="s">
         <v>276</v>
       </c>
@@ -5171,7 +5186,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" ht="14.25" spans="1:2">
       <c r="A131" s="5" t="s">
         <v>278</v>
       </c>
@@ -5179,7 +5194,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" ht="14.25" spans="1:2">
       <c r="A132" s="5" t="s">
         <v>280</v>
       </c>
@@ -5187,7 +5202,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" ht="14.25" spans="1:2">
       <c r="A133" s="21" t="s">
         <v>282</v>
       </c>
@@ -5195,7 +5210,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" ht="14.25" spans="1:2">
       <c r="A134" s="5" t="s">
         <v>284</v>
       </c>
@@ -5203,7 +5218,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" ht="14.25" spans="1:2">
       <c r="A135" s="21" t="s">
         <v>286</v>
       </c>
@@ -5211,7 +5226,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" ht="14.25" spans="1:2">
       <c r="A136" s="21" t="s">
         <v>288</v>
       </c>
@@ -5219,7 +5234,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" ht="14.25" spans="1:2">
       <c r="A137" s="5" t="s">
         <v>290</v>
       </c>
@@ -5227,7 +5242,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" ht="14.25" spans="1:2">
       <c r="A138" s="5" t="s">
         <v>292</v>
       </c>
@@ -5235,7 +5250,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" ht="14.25" spans="1:2">
       <c r="A139" s="21" t="s">
         <v>294</v>
       </c>
@@ -5243,7 +5258,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" ht="14.25" spans="1:2">
       <c r="A140" s="5" t="s">
         <v>296</v>
       </c>
@@ -5251,7 +5266,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" ht="14.25" spans="1:2">
       <c r="A141" s="5" t="s">
         <v>298</v>
       </c>
@@ -5259,7 +5274,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" ht="14.25" spans="1:3">
       <c r="A142" s="21" t="s">
         <v>300</v>
       </c>
@@ -5270,7 +5285,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" ht="14.25" spans="1:2">
       <c r="A143" s="21" t="s">
         <v>303</v>
       </c>
@@ -5278,7 +5293,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" ht="14.25" spans="1:2">
       <c r="A144" s="5" t="s">
         <v>305</v>
       </c>
@@ -5286,7 +5301,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" ht="14.25" spans="1:2">
       <c r="A145" s="21" t="s">
         <v>307</v>
       </c>
@@ -5294,7 +5309,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" ht="14.25" spans="1:2">
       <c r="A146" s="21" t="s">
         <v>309</v>
       </c>
@@ -5302,7 +5317,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" ht="14.25" spans="1:2">
       <c r="A147" s="5" t="s">
         <v>311</v>
       </c>
@@ -5310,7 +5325,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" ht="14.25" spans="1:2">
       <c r="A148" s="21" t="s">
         <v>313</v>
       </c>
@@ -5318,7 +5333,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" ht="14.25" spans="1:2">
       <c r="A149" s="21" t="s">
         <v>315</v>
       </c>
@@ -5326,7 +5341,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" ht="14.25" spans="1:2">
       <c r="A150" s="21" t="s">
         <v>317</v>
       </c>
@@ -5334,7 +5349,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" ht="14.25" spans="1:2">
       <c r="A151" s="5" t="s">
         <v>319</v>
       </c>
@@ -5342,7 +5357,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" ht="14.25" spans="1:2">
       <c r="A152" s="21" t="s">
         <v>321</v>
       </c>
@@ -5350,7 +5365,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" ht="14.25" spans="1:2">
       <c r="A153" s="5" t="s">
         <v>323</v>
       </c>
@@ -5358,7 +5373,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" ht="14.25" spans="1:2">
       <c r="A154" s="21" t="s">
         <v>325</v>
       </c>
@@ -5366,7 +5381,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" ht="14.25" spans="1:2">
       <c r="A155" s="21" t="s">
         <v>327</v>
       </c>
@@ -5374,7 +5389,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" ht="14.25" spans="1:2">
       <c r="A156" s="21" t="s">
         <v>329</v>
       </c>
@@ -5382,7 +5397,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" ht="14.25" spans="1:2">
       <c r="A157" s="21" t="s">
         <v>331</v>
       </c>
@@ -5390,7 +5405,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" ht="14.25" spans="1:2">
       <c r="A158" s="21" t="s">
         <v>333</v>
       </c>
@@ -5398,7 +5413,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" ht="14.25" spans="1:2">
       <c r="A159" s="21" t="s">
         <v>335</v>
       </c>
@@ -5406,7 +5421,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" ht="14.25" spans="1:2">
       <c r="A160" s="21" t="s">
         <v>337</v>
       </c>
@@ -5414,7 +5429,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" ht="14.25" spans="1:2">
       <c r="A161" s="21" t="s">
         <v>339</v>
       </c>
@@ -5422,7 +5437,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" ht="14.25" spans="1:2">
       <c r="A162" s="21" t="s">
         <v>341</v>
       </c>
@@ -5430,7 +5445,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" ht="14.25" spans="1:2">
       <c r="A163" s="5" t="s">
         <v>343</v>
       </c>
@@ -5438,7 +5453,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" ht="14.25" spans="1:2">
       <c r="A164" s="21" t="s">
         <v>345</v>
       </c>
@@ -5446,7 +5461,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" ht="14.25" spans="1:2">
       <c r="A165" s="21" t="s">
         <v>347</v>
       </c>
@@ -5454,7 +5469,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" ht="14.25" spans="1:2">
       <c r="A166" s="23">
         <v>54478797</v>
       </c>
@@ -5462,7 +5477,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" ht="14.25" spans="1:2">
       <c r="A167" s="21" t="s">
         <v>350</v>
       </c>
@@ -5470,7 +5485,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" ht="14.25" spans="1:2">
       <c r="A168" s="21" t="s">
         <v>352</v>
       </c>
@@ -5478,7 +5493,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" ht="14.25" spans="1:2">
       <c r="A169" s="21" t="s">
         <v>354</v>
       </c>
@@ -5486,7 +5501,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="170" s="1" customFormat="1" spans="1:4">
+    <row r="170" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A170" s="22" t="s">
         <v>356</v>
       </c>
@@ -5500,7 +5515,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="171" s="1" customFormat="1" spans="1:4">
+    <row r="171" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A171" s="22" t="s">
         <v>360</v>
       </c>
@@ -5514,7 +5529,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" ht="14.25" spans="1:2">
       <c r="A172" s="21" t="s">
         <v>364</v>
       </c>
@@ -5522,7 +5537,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" ht="14.25" spans="1:2">
       <c r="A173" s="21" t="s">
         <v>366</v>
       </c>
@@ -5530,7 +5545,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" ht="14.25" spans="1:2">
       <c r="A174" s="21" t="s">
         <v>368</v>
       </c>
@@ -5538,7 +5553,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" ht="14.25" spans="1:2">
       <c r="A175" s="21" t="s">
         <v>370</v>
       </c>
@@ -5546,7 +5561,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" ht="14.25" spans="1:2">
       <c r="A176" s="21" t="s">
         <v>372</v>
       </c>
@@ -5554,7 +5569,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" ht="14.25" spans="1:2">
       <c r="A177" s="21" t="s">
         <v>374</v>
       </c>
@@ -5562,7 +5577,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" ht="14.25" spans="1:2">
       <c r="A178" s="21" t="s">
         <v>376</v>
       </c>
@@ -5570,7 +5585,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" ht="14.25" spans="1:2">
       <c r="A179" s="21" t="s">
         <v>378</v>
       </c>
@@ -5578,7 +5593,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" ht="14.25" spans="1:2">
       <c r="A180" s="21" t="s">
         <v>380</v>
       </c>
@@ -5586,7 +5601,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" ht="14.25" spans="1:2">
       <c r="A181" s="21" t="s">
         <v>382</v>
       </c>
@@ -5594,7 +5609,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" ht="14.25" spans="1:2">
       <c r="A182" s="21" t="s">
         <v>384</v>
       </c>
@@ -5602,7 +5617,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" ht="14.25" spans="1:2">
       <c r="A183" s="21" t="s">
         <v>386</v>
       </c>
@@ -5610,7 +5625,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" ht="14.25" spans="1:2">
       <c r="A184" s="21" t="s">
         <v>388</v>
       </c>
@@ -5618,7 +5633,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" ht="14.25" spans="1:2">
       <c r="A185" s="21" t="s">
         <v>390</v>
       </c>
@@ -5626,7 +5641,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" ht="14.25" spans="1:2">
       <c r="A186" s="21" t="s">
         <v>392</v>
       </c>
@@ -5634,7 +5649,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" ht="14.25" spans="1:2">
       <c r="A187" s="21" t="s">
         <v>394</v>
       </c>
@@ -5642,7 +5657,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" ht="14.25" spans="1:2">
       <c r="A188" s="21" t="s">
         <v>396</v>
       </c>
@@ -5650,7 +5665,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" ht="14.25" spans="1:2">
       <c r="A189" s="21" t="s">
         <v>398</v>
       </c>
@@ -5658,7 +5673,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" ht="14.25" spans="1:2">
       <c r="A190" s="21" t="s">
         <v>400</v>
       </c>
@@ -5666,7 +5681,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" ht="14.25" spans="1:2">
       <c r="A191" s="21" t="s">
         <v>402</v>
       </c>
@@ -5674,7 +5689,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" ht="14.25" spans="1:2">
       <c r="A192" s="21" t="s">
         <v>404</v>
       </c>
@@ -5682,7 +5697,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" ht="14.25" spans="1:2">
       <c r="A193" s="21" t="s">
         <v>406</v>
       </c>
@@ -5690,7 +5705,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" ht="14.25" spans="1:2">
       <c r="A194" s="21" t="s">
         <v>408</v>
       </c>
@@ -5698,7 +5713,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" ht="14.25" spans="1:2">
       <c r="A195" s="21" t="s">
         <v>410</v>
       </c>
@@ -5706,7 +5721,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" ht="14.25" spans="1:2">
       <c r="A196" s="21" t="s">
         <v>412</v>
       </c>
@@ -5714,7 +5729,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" ht="14.25" spans="1:2">
       <c r="A197" s="21" t="s">
         <v>414</v>
       </c>
@@ -5722,7 +5737,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" ht="14.25" spans="1:2">
       <c r="A198" s="21" t="s">
         <v>416</v>
       </c>
@@ -5730,7 +5745,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" ht="14.25" spans="1:2">
       <c r="A199" s="21" t="s">
         <v>418</v>
       </c>
@@ -5738,7 +5753,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" ht="14.25" spans="1:2">
       <c r="A200" s="21" t="s">
         <v>420</v>
       </c>
@@ -5746,7 +5761,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" ht="14.25" spans="1:2">
       <c r="A201" s="21" t="s">
         <v>422</v>
       </c>
@@ -5754,7 +5769,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" ht="14.25" spans="1:2">
       <c r="A202" s="21" t="s">
         <v>424</v>
       </c>
@@ -5762,7 +5777,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" ht="14.25" spans="1:3">
       <c r="A203" s="21" t="s">
         <v>426</v>
       </c>
@@ -5770,7 +5785,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" ht="14.25" spans="1:2">
       <c r="A204" s="21" t="s">
         <v>428</v>
       </c>
@@ -5778,7 +5793,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" ht="14.25" spans="1:2">
       <c r="A205" s="21" t="s">
         <v>430</v>
       </c>
@@ -5786,7 +5801,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" ht="14.25" spans="1:2">
       <c r="A206" s="21" t="s">
         <v>432</v>
       </c>
@@ -5794,7 +5809,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="207" s="1" customFormat="1" spans="1:4">
+    <row r="207" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A207" s="22" t="s">
         <v>434</v>
       </c>
@@ -5806,7 +5821,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="208" s="1" customFormat="1" spans="1:4">
+    <row r="208" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A208" s="22" t="s">
         <v>437</v>
       </c>
@@ -5820,7 +5835,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" ht="14.25" spans="1:2">
       <c r="A209" s="21" t="s">
         <v>441</v>
       </c>
@@ -5828,7 +5843,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" ht="14.25" spans="1:2">
       <c r="A210" s="21" t="s">
         <v>443</v>
       </c>
@@ -5836,7 +5851,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" ht="14.25" spans="1:2">
       <c r="A211" s="21" t="s">
         <v>445</v>
       </c>
@@ -5844,7 +5859,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" ht="14.25" spans="1:2">
       <c r="A212" s="21" t="s">
         <v>447</v>
       </c>
@@ -5852,7 +5867,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" ht="14.25" spans="1:2">
       <c r="A213" s="21" t="s">
         <v>449</v>
       </c>
@@ -5860,7 +5875,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" ht="14.25" spans="1:2">
       <c r="A214" s="21" t="s">
         <v>451</v>
       </c>
@@ -5868,7 +5883,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" ht="14.25" spans="1:2">
       <c r="A215" s="21" t="s">
         <v>453</v>
       </c>
@@ -5876,7 +5891,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" ht="14.25" spans="1:2">
       <c r="A216" s="21" t="s">
         <v>455</v>
       </c>
@@ -5884,7 +5899,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" ht="14.25" spans="1:2">
       <c r="A217" s="21" t="s">
         <v>457</v>
       </c>
@@ -5892,7 +5907,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" ht="14.25" spans="1:2">
       <c r="A218" s="21" t="s">
         <v>459</v>
       </c>
@@ -5900,7 +5915,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" ht="14.25" spans="1:2">
       <c r="A219" s="21" t="s">
         <v>461</v>
       </c>
@@ -5908,7 +5923,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" ht="14.25" spans="1:2">
       <c r="A220" s="21" t="s">
         <v>463</v>
       </c>
@@ -5916,7 +5931,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" ht="14.25" spans="1:2">
       <c r="A221" s="21" t="s">
         <v>465</v>
       </c>
@@ -5924,7 +5939,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" ht="14.25" spans="1:2">
       <c r="A222" s="21" t="s">
         <v>467</v>
       </c>
@@ -5932,7 +5947,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" ht="14.25" spans="1:2">
       <c r="A223" s="21" t="s">
         <v>469</v>
       </c>
@@ -5940,7 +5955,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" ht="14.25" spans="1:2">
       <c r="A224" s="21" t="s">
         <v>471</v>
       </c>
@@ -5948,7 +5963,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" ht="14.25" spans="1:2">
       <c r="A225" s="21" t="s">
         <v>473</v>
       </c>
@@ -5956,7 +5971,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" ht="14.25" spans="1:2">
       <c r="A226" s="5" t="s">
         <v>475</v>
       </c>
@@ -5964,7 +5979,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" ht="14.25" spans="1:2">
       <c r="A227" s="21" t="s">
         <v>477</v>
       </c>
@@ -5972,7 +5987,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" ht="14.25" spans="1:2">
       <c r="A228" s="5" t="s">
         <v>479</v>
       </c>
@@ -5980,7 +5995,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" ht="14.25" spans="1:2">
       <c r="A229" s="21" t="s">
         <v>481</v>
       </c>
@@ -5988,7 +6003,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" ht="14.25" spans="1:2">
       <c r="A230" s="21" t="s">
         <v>483</v>
       </c>
@@ -5996,7 +6011,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" ht="14.25" spans="1:2">
       <c r="A231" s="21" t="s">
         <v>485</v>
       </c>
@@ -6004,7 +6019,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" ht="14.25" spans="1:2">
       <c r="A232" s="21" t="s">
         <v>487</v>
       </c>
@@ -6020,7 +6035,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" ht="14.25" spans="1:2">
       <c r="A234" s="21" t="s">
         <v>491</v>
       </c>
@@ -6028,7 +6043,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" ht="14.25" spans="1:2">
       <c r="A235" s="21" t="s">
         <v>493</v>
       </c>
@@ -6036,7 +6051,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" ht="14.25" spans="1:2">
       <c r="A236" s="21" t="s">
         <v>495</v>
       </c>
@@ -6044,7 +6059,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" ht="14.25" spans="1:2">
       <c r="A237" s="21" t="s">
         <v>497</v>
       </c>
@@ -6052,7 +6067,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" ht="14.25" spans="1:2">
       <c r="A238" s="21" t="s">
         <v>499</v>
       </c>
@@ -6060,7 +6075,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" ht="14.25" spans="1:2">
       <c r="A239" s="21" t="s">
         <v>501</v>
       </c>
@@ -6068,7 +6083,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" ht="14.25" spans="1:2">
       <c r="A240" s="21" t="s">
         <v>503</v>
       </c>
@@ -6076,7 +6091,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="241" s="1" customFormat="1" spans="1:4">
+    <row r="241" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A241" s="22" t="s">
         <v>505</v>
       </c>
@@ -6088,7 +6103,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" ht="14.25" spans="1:2">
       <c r="A242" s="5" t="s">
         <v>508</v>
       </c>
@@ -6096,7 +6111,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" ht="14.25" spans="1:2">
       <c r="A243" s="21" t="s">
         <v>510</v>
       </c>
@@ -6104,7 +6119,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" ht="14.25" spans="1:2">
       <c r="A244" s="21" t="s">
         <v>512</v>
       </c>
@@ -6112,7 +6127,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" ht="14.25" spans="1:2">
       <c r="A245" s="21" t="s">
         <v>514</v>
       </c>
@@ -6120,7 +6135,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="246" s="1" customFormat="1" spans="1:4">
+    <row r="246" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A246" s="22" t="s">
         <v>516</v>
       </c>
@@ -6134,7 +6149,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" ht="14.25" spans="1:2">
       <c r="A247" s="21" t="s">
         <v>520</v>
       </c>
@@ -6142,7 +6157,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" ht="14.25" spans="1:2">
       <c r="A248" s="21" t="s">
         <v>522</v>
       </c>
@@ -6150,7 +6165,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" ht="14.25" spans="1:2">
       <c r="A249" s="21" t="s">
         <v>524</v>
       </c>
@@ -6158,7 +6173,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" ht="14.25" spans="1:2">
       <c r="A250" s="21" t="s">
         <v>526</v>
       </c>
@@ -6166,7 +6181,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" ht="14.25" spans="1:2">
       <c r="A251" s="5" t="s">
         <v>528</v>
       </c>
@@ -6174,7 +6189,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" ht="14.25" spans="1:2">
       <c r="A252" s="21" t="s">
         <v>530</v>
       </c>
@@ -6182,7 +6197,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" ht="14.25" spans="1:2">
       <c r="A253" s="21" t="s">
         <v>532</v>
       </c>
@@ -6190,7 +6205,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" ht="14.25" spans="1:2">
       <c r="A254" s="21" t="s">
         <v>534</v>
       </c>
@@ -6198,7 +6213,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" ht="14.25" spans="1:2">
       <c r="A255" s="21" t="s">
         <v>536</v>
       </c>
@@ -6206,7 +6221,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" ht="14.25" spans="1:2">
       <c r="A256" s="21" t="s">
         <v>538</v>
       </c>
@@ -6214,13 +6229,13 @@
         <v>539</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" ht="14.25" spans="1:2">
       <c r="A257" s="21"/>
       <c r="B257" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" ht="14.25" spans="1:2">
       <c r="A258" s="21" t="s">
         <v>541</v>
       </c>
@@ -6228,7 +6243,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" ht="14.25" spans="1:2">
       <c r="A259" s="5" t="s">
         <v>543</v>
       </c>
@@ -6236,7 +6251,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" ht="14.25" spans="1:2">
       <c r="A260" s="21" t="s">
         <v>545</v>
       </c>
@@ -6244,7 +6259,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" ht="14.25" spans="1:2">
       <c r="A261" s="21" t="s">
         <v>547</v>
       </c>
@@ -6252,7 +6267,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" ht="14.25" spans="1:2">
       <c r="A262" s="21" t="s">
         <v>549</v>
       </c>
@@ -6260,7 +6275,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" ht="14.25" spans="1:2">
       <c r="A263" s="21" t="s">
         <v>551</v>
       </c>
@@ -6268,7 +6283,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" ht="14.25" spans="1:2">
       <c r="A264" s="21" t="s">
         <v>553</v>
       </c>
@@ -6276,7 +6291,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" ht="14.25" spans="1:2">
       <c r="A265" s="21" t="s">
         <v>555</v>
       </c>
@@ -6284,7 +6299,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" ht="14.25" spans="1:2">
       <c r="A266" s="21" t="s">
         <v>557</v>
       </c>
@@ -6292,7 +6307,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" ht="14.25" spans="1:2">
       <c r="A267" s="21" t="s">
         <v>559</v>
       </c>
@@ -6300,7 +6315,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" ht="14.25" spans="1:2">
       <c r="A268" s="21" t="s">
         <v>561</v>
       </c>
@@ -6308,7 +6323,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" ht="14.25" spans="1:2">
       <c r="A269" s="21" t="s">
         <v>563</v>
       </c>
@@ -6316,7 +6331,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" ht="14.25" spans="1:2">
       <c r="A270" s="21" t="s">
         <v>565</v>
       </c>
@@ -6324,7 +6339,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" ht="14.25" spans="1:2">
       <c r="A271" s="21" t="s">
         <v>567</v>
       </c>
@@ -6332,7 +6347,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" ht="14.25" spans="1:2">
       <c r="A272" s="21" t="s">
         <v>569</v>
       </c>
@@ -6340,7 +6355,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" ht="14.25" spans="1:2">
       <c r="A273" s="21" t="s">
         <v>571</v>
       </c>
@@ -6348,7 +6363,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" ht="14.25" spans="1:2">
       <c r="A274" s="21" t="s">
         <v>573</v>
       </c>
@@ -6356,7 +6371,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="275" s="1" customFormat="1" spans="1:4">
+    <row r="275" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A275" s="22" t="s">
         <v>575</v>
       </c>
@@ -6368,7 +6383,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" ht="14.25" spans="1:2">
       <c r="A276" s="21" t="s">
         <v>578</v>
       </c>
@@ -6376,7 +6391,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" ht="14.25" spans="1:2">
       <c r="A277" s="21" t="s">
         <v>580</v>
       </c>
@@ -6384,7 +6399,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" ht="14.25" spans="1:2">
       <c r="A278" s="21" t="s">
         <v>582</v>
       </c>
@@ -6392,7 +6407,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" ht="14.25" spans="1:2">
       <c r="A279" s="21" t="s">
         <v>584</v>
       </c>
@@ -6400,7 +6415,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" ht="14.25" spans="1:2">
       <c r="A280" s="21" t="s">
         <v>586</v>
       </c>
@@ -6408,7 +6423,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" ht="14.25" spans="1:2">
       <c r="A281" s="21" t="s">
         <v>588</v>
       </c>
@@ -6416,7 +6431,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" ht="14.25" spans="1:2">
       <c r="A282" s="21" t="s">
         <v>590</v>
       </c>
@@ -6424,7 +6439,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" ht="14.25" spans="1:2">
       <c r="A283" s="21" t="s">
         <v>592</v>
       </c>
@@ -6432,7 +6447,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" ht="14.25" spans="1:2">
       <c r="A284" s="24" t="s">
         <v>594</v>
       </c>
@@ -6440,7 +6455,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" ht="14.25" spans="1:2">
       <c r="A285" s="21" t="s">
         <v>596</v>
       </c>
@@ -6448,7 +6463,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" ht="14.25" spans="1:2">
       <c r="A286" s="21" t="s">
         <v>598</v>
       </c>
@@ -6456,7 +6471,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="287" s="1" customFormat="1" spans="1:4">
+    <row r="287" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A287" s="22" t="s">
         <v>600</v>
       </c>
@@ -6470,7 +6485,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" ht="14.25" spans="1:2">
       <c r="A288" s="21" t="s">
         <v>603</v>
       </c>
@@ -6478,7 +6493,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" ht="14.25" spans="1:2">
       <c r="A289" s="21" t="s">
         <v>605</v>
       </c>
@@ -6486,7 +6501,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" ht="14.25" spans="1:2">
       <c r="A290" s="21" t="s">
         <v>607</v>
       </c>
@@ -6494,7 +6509,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" ht="14.25" spans="1:2">
       <c r="A291" s="21" t="s">
         <v>609</v>
       </c>
@@ -6502,7 +6517,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" ht="14.25" spans="1:2">
       <c r="A292" s="25" t="s">
         <v>611</v>
       </c>
@@ -6510,7 +6525,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" ht="14.25" spans="1:2">
       <c r="A293" s="21" t="s">
         <v>613</v>
       </c>
@@ -6518,7 +6533,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" ht="14.25" spans="1:2">
       <c r="A294" s="21" t="s">
         <v>615</v>
       </c>
@@ -6526,7 +6541,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" ht="14.25" spans="1:2">
       <c r="A295" s="21" t="s">
         <v>617</v>
       </c>
@@ -6534,7 +6549,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" ht="14.25" spans="1:2">
       <c r="A296" s="21" t="s">
         <v>619</v>
       </c>
@@ -6542,7 +6557,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" ht="14.25" spans="1:2">
       <c r="A297" s="21" t="s">
         <v>621</v>
       </c>
@@ -6550,7 +6565,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="298" s="1" customFormat="1" spans="1:4">
+    <row r="298" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A298" s="22" t="s">
         <v>623</v>
       </c>
@@ -6562,7 +6577,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" ht="14.25" spans="1:2">
       <c r="A299" s="21" t="s">
         <v>626</v>
       </c>
@@ -6570,7 +6585,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" ht="14.25" spans="1:2">
       <c r="A300" s="21" t="s">
         <v>628</v>
       </c>
@@ -6578,7 +6593,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" ht="14.25" spans="1:2">
       <c r="A301" s="21" t="s">
         <v>630</v>
       </c>
@@ -6586,7 +6601,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" ht="14.25" spans="1:2">
       <c r="A302" s="21" t="s">
         <v>632</v>
       </c>
@@ -6594,7 +6609,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" ht="14.25" spans="1:2">
       <c r="A303" s="21" t="s">
         <v>634</v>
       </c>
@@ -6602,7 +6617,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" ht="14.25" spans="1:2">
       <c r="A304" s="21" t="s">
         <v>636</v>
       </c>
@@ -6610,7 +6625,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" ht="14.25" spans="1:2">
       <c r="A305" s="21" t="s">
         <v>638</v>
       </c>
@@ -6618,7 +6633,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" ht="14.25" spans="1:2">
       <c r="A306" s="21" t="s">
         <v>640</v>
       </c>
@@ -6626,7 +6641,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" ht="14.25" spans="1:2">
       <c r="A307" s="21" t="s">
         <v>642</v>
       </c>
@@ -6634,7 +6649,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" ht="14.25" spans="1:2">
       <c r="A308" s="21" t="s">
         <v>644</v>
       </c>
@@ -6642,7 +6657,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" ht="14.25" spans="1:2">
       <c r="A309" s="21" t="s">
         <v>646</v>
       </c>
@@ -6650,7 +6665,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" ht="14.25" spans="1:3">
       <c r="A310" s="5" t="s">
         <v>648</v>
       </c>
@@ -6658,7 +6673,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" ht="14.25" spans="1:2">
       <c r="A311" s="21" t="s">
         <v>650</v>
       </c>
@@ -6666,7 +6681,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" ht="14.25" spans="1:2">
       <c r="A312" s="21" t="s">
         <v>652</v>
       </c>
@@ -6674,7 +6689,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" ht="14.25" spans="1:2">
       <c r="A313" s="21" t="s">
         <v>654</v>
       </c>
@@ -6682,7 +6697,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" ht="14.25" spans="1:2">
       <c r="A314" s="5" t="s">
         <v>656</v>
       </c>
@@ -6690,7 +6705,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="315" s="1" customFormat="1" spans="1:4">
+    <row r="315" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A315" s="22" t="s">
         <v>658</v>
       </c>
@@ -6704,7 +6719,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" ht="14.25" spans="1:2">
       <c r="A316" s="21" t="s">
         <v>662</v>
       </c>
@@ -6712,7 +6727,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" ht="14.25" spans="1:2">
       <c r="A317" s="21" t="s">
         <v>664</v>
       </c>
@@ -6720,7 +6735,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" ht="14.25" spans="1:2">
       <c r="A318" s="5" t="s">
         <v>666</v>
       </c>
@@ -6728,7 +6743,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" ht="14.25" spans="1:2">
       <c r="A319" s="21" t="s">
         <v>668</v>
       </c>
@@ -6736,7 +6751,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" ht="14.25" spans="1:2">
       <c r="A320" s="21" t="s">
         <v>670</v>
       </c>
@@ -6744,7 +6759,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" ht="14.25" spans="1:2">
       <c r="A321" s="21" t="s">
         <v>672</v>
       </c>
@@ -6752,7 +6767,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" ht="14.25" spans="1:2">
       <c r="A322" s="21" t="s">
         <v>674</v>
       </c>
@@ -6760,7 +6775,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" ht="14.25" spans="1:2">
       <c r="A323" s="5" t="s">
         <v>676</v>
       </c>
@@ -6768,7 +6783,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" ht="14.25" spans="1:2">
       <c r="A324" s="21" t="s">
         <v>678</v>
       </c>
@@ -6776,7 +6791,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" ht="14.25" spans="1:2">
       <c r="A325" s="5" t="s">
         <v>680</v>
       </c>
@@ -6784,7 +6799,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" ht="14.25" spans="1:2">
       <c r="A326" s="21" t="s">
         <v>682</v>
       </c>
@@ -6792,7 +6807,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" ht="14.25" spans="1:2">
       <c r="A327" s="21" t="s">
         <v>684</v>
       </c>
@@ -6800,7 +6815,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" ht="14.25" spans="1:2">
       <c r="A328" s="21" t="s">
         <v>686</v>
       </c>
@@ -6808,7 +6823,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" ht="14.25" spans="1:2">
       <c r="A329" s="21" t="s">
         <v>688</v>
       </c>
@@ -6816,7 +6831,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" ht="14.25" spans="1:2">
       <c r="A330" s="21" t="s">
         <v>690</v>
       </c>
@@ -6824,7 +6839,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" ht="14.25" spans="1:2">
       <c r="A331" s="21" t="s">
         <v>692</v>
       </c>
@@ -6832,7 +6847,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" ht="14.25" spans="1:3">
       <c r="A332" s="21" t="s">
         <v>694</v>
       </c>
@@ -6843,7 +6858,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" ht="14.25" spans="1:2">
       <c r="A333" s="21" t="s">
         <v>697</v>
       </c>
@@ -6851,7 +6866,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" ht="14.25" spans="1:2">
       <c r="A334" s="21" t="s">
         <v>699</v>
       </c>
@@ -6859,7 +6874,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" ht="14.25" spans="1:2">
       <c r="A335" s="21" t="s">
         <v>654</v>
       </c>
@@ -6867,7 +6882,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" ht="14.25" spans="1:2">
       <c r="A336" s="5" t="s">
         <v>702</v>
       </c>
@@ -6875,7 +6890,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" ht="14.25" spans="1:2">
       <c r="A337" s="21" t="s">
         <v>704</v>
       </c>
@@ -6883,7 +6898,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" ht="14.25" spans="1:2">
       <c r="A338" s="5" t="s">
         <v>706</v>
       </c>
@@ -6891,7 +6906,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" ht="14.25" spans="1:2">
       <c r="A339" s="21" t="s">
         <v>708</v>
       </c>
@@ -6899,7 +6914,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" ht="14.25" spans="1:2">
       <c r="A340" s="21" t="s">
         <v>710</v>
       </c>
@@ -6907,7 +6922,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" ht="14.25" spans="1:2">
       <c r="A341" s="21" t="s">
         <v>712</v>
       </c>
@@ -6915,7 +6930,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" ht="14.25" spans="1:2">
       <c r="A342" s="21" t="s">
         <v>714</v>
       </c>
@@ -6923,7 +6938,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" ht="14.25" spans="1:2">
       <c r="A343" s="21" t="s">
         <v>716</v>
       </c>
@@ -6931,7 +6946,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" ht="14.25" spans="1:2">
       <c r="A344" s="21" t="s">
         <v>718</v>
       </c>
@@ -6939,7 +6954,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" ht="14.25" spans="1:2">
       <c r="A345" s="5" t="s">
         <v>720</v>
       </c>
@@ -6947,7 +6962,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" ht="14.25" spans="1:2">
       <c r="A346" s="21" t="s">
         <v>722</v>
       </c>
@@ -6955,7 +6970,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" ht="14.25" spans="1:2">
       <c r="A347" s="21" t="s">
         <v>724</v>
       </c>
@@ -6963,7 +6978,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" ht="14.25" spans="1:2">
       <c r="A348" s="21" t="s">
         <v>726</v>
       </c>
@@ -6971,7 +6986,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" ht="14.25" spans="1:2">
       <c r="A349" s="21" t="s">
         <v>728</v>
       </c>
@@ -6979,7 +6994,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" ht="14.25" spans="1:2">
       <c r="A350" s="21" t="s">
         <v>730</v>
       </c>
@@ -6987,7 +7002,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" ht="14.25" spans="1:2">
       <c r="A351" s="21" t="s">
         <v>732</v>
       </c>
@@ -6995,7 +7010,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" ht="14.25" spans="1:2">
       <c r="A352" s="21" t="s">
         <v>734</v>
       </c>
@@ -7003,7 +7018,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" ht="14.25" spans="1:2">
       <c r="A353" s="5" t="s">
         <v>736</v>
       </c>
@@ -7011,7 +7026,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" ht="14.25" spans="1:2">
       <c r="A354" s="21" t="s">
         <v>738</v>
       </c>
@@ -7019,7 +7034,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" ht="14.25" spans="1:2">
       <c r="A355" s="21" t="s">
         <v>740</v>
       </c>
@@ -7027,7 +7042,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" ht="14.25" spans="1:2">
       <c r="A356" s="21" t="s">
         <v>742</v>
       </c>
@@ -7035,7 +7050,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" ht="14.25" spans="1:2">
       <c r="A357" s="21" t="s">
         <v>744</v>
       </c>
@@ -7043,7 +7058,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" ht="14.25" spans="1:2">
       <c r="A358" s="21" t="s">
         <v>746</v>
       </c>
@@ -7051,7 +7066,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" ht="14.25" spans="1:2">
       <c r="A359" s="5" t="s">
         <v>748</v>
       </c>
@@ -7059,7 +7074,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" ht="14.25" spans="1:2">
       <c r="A360" s="21" t="s">
         <v>750</v>
       </c>
@@ -7067,7 +7082,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" ht="14.25" spans="1:2">
       <c r="A361" s="5" t="s">
         <v>752</v>
       </c>
@@ -7075,7 +7090,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" ht="14.25" spans="1:2">
       <c r="A362" s="5" t="s">
         <v>753</v>
       </c>
@@ -7083,7 +7098,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" ht="14.25" spans="1:2">
       <c r="A363" s="21" t="s">
         <v>755</v>
       </c>
@@ -7091,7 +7106,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" ht="14.25" spans="1:2">
       <c r="A364" s="21" t="s">
         <v>757</v>
       </c>
@@ -7099,7 +7114,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" ht="14.25" spans="1:2">
       <c r="A365" s="21" t="s">
         <v>759</v>
       </c>
@@ -7107,17 +7122,17 @@
         <v>760</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366" ht="14.25" spans="1:1">
       <c r="A366" s="21" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="367" spans="1:1">
+    <row r="367" ht="14.25" spans="1:1">
       <c r="A367" s="21" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" ht="14.25" spans="1:2">
       <c r="A368" s="21" t="s">
         <v>763</v>
       </c>
@@ -7125,7 +7140,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" ht="14.25" spans="1:2">
       <c r="A369" s="21" t="s">
         <v>765</v>
       </c>
@@ -7133,7 +7148,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" ht="14.25" spans="1:2">
       <c r="A370" s="21" t="s">
         <v>767</v>
       </c>
@@ -7141,7 +7156,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" ht="14.25" spans="1:2">
       <c r="A371" s="21" t="s">
         <v>769</v>
       </c>
@@ -7149,7 +7164,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" ht="14.25" spans="1:2">
       <c r="A372" s="21" t="s">
         <v>771</v>
       </c>
@@ -7157,7 +7172,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" ht="14.25" spans="1:2">
       <c r="A373" s="21" t="s">
         <v>773</v>
       </c>
@@ -7165,7 +7180,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" ht="14.25" spans="1:2">
       <c r="A374" s="21" t="s">
         <v>775</v>
       </c>
@@ -7173,7 +7188,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" ht="14.25" spans="1:2">
       <c r="A375" s="21" t="s">
         <v>777</v>
       </c>
@@ -7181,7 +7196,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" ht="14.25" spans="1:2">
       <c r="A376" s="21" t="s">
         <v>779</v>
       </c>
@@ -7189,7 +7204,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" ht="14.25" spans="1:2">
       <c r="A377" s="21" t="s">
         <v>781</v>
       </c>
@@ -7197,7 +7212,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" ht="14.25" spans="1:2">
       <c r="A378" s="21" t="s">
         <v>783</v>
       </c>
@@ -7205,7 +7220,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" ht="14.25" spans="1:2">
       <c r="A379" s="21" t="s">
         <v>785</v>
       </c>
@@ -7213,7 +7228,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="380" spans="1:2">
+    <row r="380" ht="14.25" spans="1:2">
       <c r="A380" s="21" t="s">
         <v>787</v>
       </c>
@@ -7221,7 +7236,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" ht="14.25" spans="1:2">
       <c r="A381" s="21" t="s">
         <v>789</v>
       </c>
@@ -7229,7 +7244,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" ht="14.25" spans="1:2">
       <c r="A382" s="21" t="s">
         <v>791</v>
       </c>
@@ -7237,7 +7252,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
+    <row r="383" ht="14.25" spans="1:2">
       <c r="A383" s="21" t="s">
         <v>793</v>
       </c>
@@ -7245,7 +7260,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" ht="14.25" spans="1:2">
       <c r="A384" s="21" t="s">
         <v>795</v>
       </c>
@@ -7253,7 +7268,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" ht="14.25" spans="1:2">
       <c r="A385" s="21" t="s">
         <v>797</v>
       </c>
@@ -7261,7 +7276,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" ht="14.25" spans="1:2">
       <c r="A386" s="21" t="s">
         <v>799</v>
       </c>
@@ -7269,7 +7284,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" ht="14.25" spans="1:2">
       <c r="A387" s="21" t="s">
         <v>801</v>
       </c>
@@ -7277,7 +7292,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="388" spans="1:2">
+    <row r="388" ht="14.25" spans="1:2">
       <c r="A388" s="21" t="s">
         <v>803</v>
       </c>
@@ -7285,7 +7300,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" ht="14.25" spans="1:2">
       <c r="A389" s="21" t="s">
         <v>805</v>
       </c>
@@ -7293,7 +7308,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" ht="14.25" spans="1:2">
       <c r="A390" s="21" t="s">
         <v>807</v>
       </c>
@@ -7301,7 +7316,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" ht="14.25" spans="1:2">
       <c r="A391" s="21" t="s">
         <v>809</v>
       </c>
@@ -7309,7 +7324,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="392" spans="1:2">
+    <row r="392" ht="14.25" spans="1:2">
       <c r="A392" s="21" t="s">
         <v>811</v>
       </c>
@@ -7317,7 +7332,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" ht="14.25" spans="1:2">
       <c r="A393" s="21" t="s">
         <v>813</v>
       </c>
@@ -7325,7 +7340,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="394" spans="1:2">
+    <row r="394" ht="14.25" spans="1:2">
       <c r="A394" s="5" t="s">
         <v>815</v>
       </c>
@@ -7333,7 +7348,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" ht="14.25" spans="1:2">
       <c r="A395" s="21" t="s">
         <v>817</v>
       </c>
@@ -7341,7 +7356,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" ht="14.25" spans="1:2">
       <c r="A396" s="21" t="s">
         <v>819</v>
       </c>
@@ -7349,7 +7364,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" ht="14.25" spans="1:2">
       <c r="A397" s="21" t="s">
         <v>821</v>
       </c>
@@ -7357,7 +7372,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" ht="14.25" spans="1:2">
       <c r="A398" s="21" t="s">
         <v>823</v>
       </c>
@@ -7365,7 +7380,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
+    <row r="399" ht="14.25" spans="1:2">
       <c r="A399" s="21" t="s">
         <v>825</v>
       </c>
@@ -7373,7 +7388,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" ht="14.25" spans="1:2">
       <c r="A400" s="21" t="s">
         <v>827</v>
       </c>
@@ -7381,7 +7396,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" ht="14.25" spans="1:2">
       <c r="A401" s="21" t="s">
         <v>829</v>
       </c>
@@ -7389,7 +7404,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="402" spans="1:2">
+    <row r="402" ht="14.25" spans="1:2">
       <c r="A402" s="21" t="s">
         <v>831</v>
       </c>
@@ -7397,7 +7412,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" ht="14.25" spans="1:2">
       <c r="A403" s="21" t="s">
         <v>833</v>
       </c>
@@ -7405,7 +7420,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="404" spans="1:2">
+    <row r="404" ht="14.25" spans="1:2">
       <c r="A404" s="21" t="s">
         <v>835</v>
       </c>
@@ -7413,7 +7428,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" ht="14.25" spans="1:2">
       <c r="A405" s="21" t="s">
         <v>837</v>
       </c>
@@ -7421,7 +7436,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="406" spans="1:2">
+    <row r="406" ht="14.25" spans="1:2">
       <c r="A406" s="21" t="s">
         <v>839</v>
       </c>
@@ -7429,7 +7444,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" ht="14.25" spans="1:2">
       <c r="A407" s="21" t="s">
         <v>160</v>
       </c>
@@ -7437,7 +7452,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" ht="14.25" spans="1:2">
       <c r="A408" s="21" t="s">
         <v>842</v>
       </c>
@@ -7445,7 +7460,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="409" spans="1:2">
+    <row r="409" ht="14.25" spans="1:2">
       <c r="A409" s="21" t="s">
         <v>844</v>
       </c>
@@ -7453,7 +7468,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="410" spans="1:2">
+    <row r="410" ht="14.25" spans="1:2">
       <c r="A410" s="21" t="s">
         <v>846</v>
       </c>
@@ -7461,7 +7476,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="411" spans="1:2">
+    <row r="411" ht="14.25" spans="1:2">
       <c r="A411" s="21" t="s">
         <v>848</v>
       </c>
@@ -7469,7 +7484,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="412" spans="1:2">
+    <row r="412" ht="14.25" spans="1:2">
       <c r="A412" s="21" t="s">
         <v>850</v>
       </c>
@@ -7477,7 +7492,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="413" spans="1:2">
+    <row r="413" ht="14.25" spans="1:2">
       <c r="A413" s="21" t="s">
         <v>852</v>
       </c>
@@ -7485,7 +7500,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="414" spans="1:2">
+    <row r="414" ht="14.25" spans="1:2">
       <c r="A414" s="21" t="s">
         <v>854</v>
       </c>
@@ -7493,7 +7508,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" ht="14.25" spans="1:2">
       <c r="A415" s="21" t="s">
         <v>856</v>
       </c>
@@ -7501,7 +7516,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="416" spans="1:2">
+    <row r="416" ht="14.25" spans="1:2">
       <c r="A416" s="21" t="s">
         <v>858</v>
       </c>
@@ -7509,7 +7524,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="417" spans="1:2">
+    <row r="417" ht="14.25" spans="1:2">
       <c r="A417" s="21" t="s">
         <v>860</v>
       </c>
@@ -7517,7 +7532,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="418" spans="1:2">
+    <row r="418" ht="14.25" spans="1:2">
       <c r="A418" s="21" t="s">
         <v>862</v>
       </c>
@@ -7525,7 +7540,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="419" spans="1:2">
+    <row r="419" ht="14.25" spans="1:2">
       <c r="A419" s="21" t="s">
         <v>863</v>
       </c>
@@ -7533,7 +7548,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="420" spans="1:2">
+    <row r="420" ht="14.25" spans="1:2">
       <c r="A420" s="21" t="s">
         <v>865</v>
       </c>
@@ -7541,7 +7556,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="421" spans="1:2">
+    <row r="421" ht="14.25" spans="1:2">
       <c r="A421" s="21" t="s">
         <v>867</v>
       </c>
@@ -7549,7 +7564,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="422" spans="1:2">
+    <row r="422" ht="14.25" spans="1:2">
       <c r="A422" s="21" t="s">
         <v>869</v>
       </c>
@@ -7557,7 +7572,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="423" spans="1:2">
+    <row r="423" ht="14.25" spans="1:2">
       <c r="A423" s="21" t="s">
         <v>871</v>
       </c>
@@ -7565,7 +7580,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="424" spans="1:2">
+    <row r="424" ht="14.25" spans="1:2">
       <c r="A424" s="21" t="s">
         <v>873</v>
       </c>
@@ -7573,7 +7588,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="425" spans="1:2">
+    <row r="425" ht="14.25" spans="1:2">
       <c r="A425" s="21" t="s">
         <v>875</v>
       </c>
@@ -7581,7 +7596,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="426" spans="1:2">
+    <row r="426" ht="14.25" spans="1:2">
       <c r="A426" s="21" t="s">
         <v>877</v>
       </c>
@@ -7589,7 +7604,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="427" spans="1:2">
+    <row r="427" ht="14.25" spans="1:2">
       <c r="A427" s="21" t="s">
         <v>879</v>
       </c>
@@ -7597,7 +7612,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="428" spans="1:2">
+    <row r="428" ht="14.25" spans="1:2">
       <c r="A428" s="21" t="s">
         <v>881</v>
       </c>
@@ -7605,7 +7620,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="429" spans="1:2">
+    <row r="429" ht="14.25" spans="1:2">
       <c r="A429" s="21" t="s">
         <v>883</v>
       </c>
@@ -7613,7 +7628,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="430" spans="1:2">
+    <row r="430" ht="14.25" spans="1:2">
       <c r="A430" s="21" t="s">
         <v>885</v>
       </c>
@@ -7621,7 +7636,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="431" spans="1:2">
+    <row r="431" ht="14.25" spans="1:2">
       <c r="A431" s="21" t="s">
         <v>887</v>
       </c>
@@ -7629,7 +7644,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="432" spans="1:2">
+    <row r="432" ht="14.25" spans="1:2">
       <c r="A432" s="21" t="s">
         <v>889</v>
       </c>
@@ -7637,7 +7652,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="433" spans="1:2">
+    <row r="433" ht="14.25" spans="1:2">
       <c r="A433" s="21" t="s">
         <v>891</v>
       </c>
@@ -7645,7 +7660,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="434" spans="1:2">
+    <row r="434" ht="14.25" spans="1:2">
       <c r="A434" s="21" t="s">
         <v>893</v>
       </c>
@@ -7653,7 +7668,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="435" spans="1:2">
+    <row r="435" ht="14.25" spans="1:2">
       <c r="A435" s="21" t="s">
         <v>895</v>
       </c>
@@ -7661,7 +7676,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="436" spans="1:2">
+    <row r="436" ht="14.25" spans="1:2">
       <c r="A436" s="21" t="s">
         <v>897</v>
       </c>
@@ -7669,7 +7684,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="437" spans="1:2">
+    <row r="437" ht="14.25" spans="1:2">
       <c r="A437" s="21" t="s">
         <v>899</v>
       </c>
@@ -7677,7 +7692,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="438" spans="1:2">
+    <row r="438" ht="14.25" spans="1:2">
       <c r="A438" s="21" t="s">
         <v>901</v>
       </c>
@@ -7685,7 +7700,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="439" spans="1:2">
+    <row r="439" ht="14.25" spans="1:2">
       <c r="A439" s="21" t="s">
         <v>903</v>
       </c>
@@ -7693,7 +7708,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="440" spans="1:2">
+    <row r="440" ht="14.25" spans="1:2">
       <c r="A440" s="21" t="s">
         <v>905</v>
       </c>
@@ -7701,7 +7716,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="441" spans="1:2">
+    <row r="441" ht="14.25" spans="1:2">
       <c r="A441" s="21" t="s">
         <v>907</v>
       </c>
@@ -7709,7 +7724,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="442" spans="1:2">
+    <row r="442" ht="14.25" spans="1:2">
       <c r="A442" s="21" t="s">
         <v>909</v>
       </c>
@@ -7717,7 +7732,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="443" spans="1:2">
+    <row r="443" ht="14.25" spans="1:2">
       <c r="A443" s="21" t="s">
         <v>911</v>
       </c>
@@ -7725,7 +7740,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="444" spans="1:2">
+    <row r="444" ht="14.25" spans="1:2">
       <c r="A444" s="21" t="s">
         <v>913</v>
       </c>
@@ -7733,7 +7748,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="445" spans="1:2">
+    <row r="445" ht="14.25" spans="1:2">
       <c r="A445" s="21" t="s">
         <v>915</v>
       </c>
@@ -7741,7 +7756,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="446" spans="1:2">
+    <row r="446" ht="14.25" spans="1:2">
       <c r="A446" s="21" t="s">
         <v>917</v>
       </c>
@@ -7749,7 +7764,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="447" spans="1:2">
+    <row r="447" ht="14.25" spans="1:2">
       <c r="A447" s="21" t="s">
         <v>919</v>
       </c>
@@ -7757,7 +7772,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="448" spans="1:2">
+    <row r="448" ht="14.25" spans="1:2">
       <c r="A448" s="21" t="s">
         <v>921</v>
       </c>
@@ -7765,7 +7780,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="449" spans="1:2">
+    <row r="449" ht="14.25" spans="1:2">
       <c r="A449" s="21" t="s">
         <v>923</v>
       </c>
@@ -7773,7 +7788,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="450" spans="1:2">
+    <row r="450" ht="14.25" spans="1:2">
       <c r="A450" s="21" t="s">
         <v>925</v>
       </c>
@@ -7781,7 +7796,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="451" spans="1:2">
+    <row r="451" ht="14.25" spans="1:2">
       <c r="A451" s="21" t="s">
         <v>921</v>
       </c>
@@ -7789,7 +7804,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="452" spans="1:2">
+    <row r="452" ht="14.25" spans="1:2">
       <c r="A452" s="21" t="s">
         <v>927</v>
       </c>
@@ -7797,7 +7812,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="453" spans="1:2">
+    <row r="453" ht="14.25" spans="1:2">
       <c r="A453" s="21" t="s">
         <v>929</v>
       </c>
@@ -7805,7 +7820,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="454" spans="1:2">
+    <row r="454" ht="14.25" spans="1:2">
       <c r="A454" s="26" t="s">
         <v>931</v>
       </c>
@@ -7813,7 +7828,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="455" spans="1:2">
+    <row r="455" ht="14.25" spans="1:2">
       <c r="A455" s="21" t="s">
         <v>933</v>
       </c>
@@ -7821,7 +7836,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="456" spans="1:2">
+    <row r="456" ht="14.25" spans="1:2">
       <c r="A456" s="21" t="s">
         <v>935</v>
       </c>
@@ -7829,7 +7844,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="457" spans="1:2">
+    <row r="457" ht="14.25" spans="1:2">
       <c r="A457" s="24" t="s">
         <v>937</v>
       </c>
@@ -7837,7 +7852,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="458" spans="1:2">
+    <row r="458" ht="14.25" spans="1:2">
       <c r="A458" s="21" t="s">
         <v>921</v>
       </c>
@@ -7845,15 +7860,15 @@
         <v>939</v>
       </c>
     </row>
-    <row r="459" spans="1:2">
-      <c r="A459" s="27" t="s">
+    <row r="459" ht="14.25" spans="1:2">
+      <c r="A459" s="5" t="s">
         <v>940</v>
       </c>
       <c r="B459" s="4" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="460" spans="1:2">
+    <row r="460" ht="14.25" spans="1:2">
       <c r="A460" s="21" t="s">
         <v>942</v>
       </c>
@@ -7861,7 +7876,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="461" spans="1:2">
+    <row r="461" ht="14.25" spans="1:2">
       <c r="A461" s="21" t="s">
         <v>944</v>
       </c>
@@ -7869,7 +7884,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="462" spans="1:2">
+    <row r="462" ht="14.25" spans="1:2">
       <c r="A462" s="21" t="s">
         <v>946</v>
       </c>
@@ -7877,7 +7892,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="463" spans="1:2">
+    <row r="463" ht="14.25" spans="1:2">
       <c r="A463" s="21" t="s">
         <v>948</v>
       </c>
@@ -7885,15 +7900,15 @@
         <v>949</v>
       </c>
     </row>
-    <row r="464" spans="1:2">
-      <c r="A464" s="27" t="s">
+    <row r="464" ht="14.25" spans="1:2">
+      <c r="A464" s="5" t="s">
         <v>950</v>
       </c>
       <c r="B464" s="4" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="465" spans="1:2">
+    <row r="465" ht="14.25" spans="1:2">
       <c r="A465" s="21" t="s">
         <v>952</v>
       </c>
@@ -7901,7 +7916,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="466" spans="1:2">
+    <row r="466" ht="14.25" spans="1:2">
       <c r="A466" s="21" t="s">
         <v>954</v>
       </c>
@@ -7909,7 +7924,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="467" spans="1:2">
+    <row r="467" ht="14.25" spans="1:2">
       <c r="A467" s="21" t="s">
         <v>956</v>
       </c>
@@ -7917,7 +7932,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="468" spans="1:2">
+    <row r="468" ht="14.25" spans="1:2">
       <c r="A468" s="21" t="s">
         <v>958</v>
       </c>
@@ -7925,886 +7940,901 @@
         <v>959</v>
       </c>
     </row>
-    <row r="469" spans="1:1">
-      <c r="A469" s="21"/>
-    </row>
-    <row r="470" spans="1:1">
-      <c r="A470" s="21"/>
-    </row>
-    <row r="471" spans="1:1">
-      <c r="A471" s="21"/>
-    </row>
-    <row r="472" spans="1:1">
+    <row r="469" ht="14.25" spans="1:2">
+      <c r="A469" s="21" t="s">
+        <v>960</v>
+      </c>
+      <c r="B469" s="4" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="470" ht="14.25" spans="1:2">
+      <c r="A470" s="21" t="s">
+        <v>962</v>
+      </c>
+      <c r="B470" s="4" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="471" ht="14.25" spans="1:2">
+      <c r="A471" s="21" t="s">
+        <v>964</v>
+      </c>
+      <c r="B471" s="4" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="472" ht="14.25" spans="1:1">
       <c r="A472" s="21"/>
     </row>
-    <row r="473" spans="1:1">
+    <row r="473" ht="14.25" spans="1:1">
       <c r="A473" s="21"/>
     </row>
-    <row r="474" spans="1:1">
+    <row r="474" ht="14.25" spans="1:1">
       <c r="A474" s="21"/>
     </row>
-    <row r="475" spans="1:1">
+    <row r="475" ht="14.25" spans="1:1">
       <c r="A475" s="21"/>
     </row>
-    <row r="476" spans="1:1">
+    <row r="476" ht="14.25" spans="1:1">
       <c r="A476" s="21"/>
     </row>
-    <row r="477" spans="1:1">
+    <row r="477" ht="14.25" spans="1:1">
       <c r="A477" s="21"/>
     </row>
-    <row r="478" spans="1:1">
+    <row r="478" ht="14.25" spans="1:1">
       <c r="A478" s="21"/>
     </row>
-    <row r="479" spans="1:1">
+    <row r="479" ht="14.25" spans="1:1">
       <c r="A479" s="21"/>
     </row>
-    <row r="480" spans="1:1">
+    <row r="480" ht="14.25" spans="1:1">
       <c r="A480" s="21"/>
     </row>
-    <row r="481" spans="1:1">
+    <row r="481" ht="14.25" spans="1:1">
       <c r="A481" s="21"/>
     </row>
-    <row r="482" spans="1:1">
+    <row r="482" ht="14.25" spans="1:1">
       <c r="A482" s="21"/>
     </row>
-    <row r="483" spans="1:1">
+    <row r="483" ht="14.25" spans="1:1">
       <c r="A483" s="21"/>
     </row>
-    <row r="484" spans="1:1">
+    <row r="484" ht="14.25" spans="1:1">
       <c r="A484" s="21"/>
     </row>
-    <row r="485" spans="1:1">
+    <row r="485" ht="14.25" spans="1:1">
       <c r="A485" s="21"/>
     </row>
-    <row r="486" spans="1:1">
+    <row r="486" ht="14.25" spans="1:1">
       <c r="A486" s="21"/>
     </row>
-    <row r="487" spans="1:1">
+    <row r="487" ht="14.25" spans="1:1">
       <c r="A487" s="21"/>
     </row>
-    <row r="488" spans="1:1">
+    <row r="488" ht="14.25" spans="1:1">
       <c r="A488" s="21"/>
     </row>
-    <row r="489" spans="1:1">
+    <row r="489" ht="14.25" spans="1:1">
       <c r="A489" s="21"/>
     </row>
-    <row r="490" spans="1:1">
+    <row r="490" ht="14.25" spans="1:1">
       <c r="A490" s="21"/>
     </row>
-    <row r="491" spans="1:1">
+    <row r="491" ht="14.25" spans="1:1">
       <c r="A491" s="21"/>
     </row>
-    <row r="492" spans="1:1">
+    <row r="492" ht="14.25" spans="1:1">
       <c r="A492" s="21"/>
     </row>
-    <row r="493" spans="1:1">
+    <row r="493" ht="14.25" spans="1:1">
       <c r="A493" s="21"/>
     </row>
-    <row r="494" spans="1:1">
+    <row r="494" ht="14.25" spans="1:1">
       <c r="A494" s="21"/>
     </row>
-    <row r="495" spans="1:1">
+    <row r="495" ht="14.25" spans="1:1">
       <c r="A495" s="21"/>
     </row>
-    <row r="496" spans="1:1">
+    <row r="496" ht="14.25" spans="1:1">
       <c r="A496" s="21"/>
     </row>
-    <row r="497" spans="1:1">
+    <row r="497" ht="14.25" spans="1:1">
       <c r="A497" s="21"/>
     </row>
-    <row r="498" spans="1:1">
+    <row r="498" ht="14.25" spans="1:1">
       <c r="A498" s="21"/>
     </row>
-    <row r="499" spans="1:1">
+    <row r="499" ht="14.25" spans="1:1">
       <c r="A499" s="21"/>
     </row>
-    <row r="500" spans="1:1">
+    <row r="500" ht="14.25" spans="1:1">
       <c r="A500" s="21"/>
     </row>
-    <row r="501" spans="1:1">
+    <row r="501" ht="14.25" spans="1:1">
       <c r="A501" s="21"/>
     </row>
-    <row r="502" spans="1:1">
+    <row r="502" ht="14.25" spans="1:1">
       <c r="A502" s="21"/>
     </row>
-    <row r="503" spans="1:1">
+    <row r="503" ht="14.25" spans="1:1">
       <c r="A503" s="21"/>
     </row>
-    <row r="504" spans="1:1">
+    <row r="504" ht="14.25" spans="1:1">
       <c r="A504" s="21"/>
     </row>
-    <row r="505" spans="1:1">
+    <row r="505" ht="14.25" spans="1:1">
       <c r="A505" s="21"/>
     </row>
-    <row r="506" spans="1:1">
+    <row r="506" ht="14.25" spans="1:1">
       <c r="A506" s="21"/>
     </row>
-    <row r="507" spans="1:1">
+    <row r="507" ht="14.25" spans="1:1">
       <c r="A507" s="21"/>
     </row>
-    <row r="508" spans="1:1">
+    <row r="508" ht="14.25" spans="1:1">
       <c r="A508" s="21"/>
     </row>
-    <row r="509" spans="1:1">
+    <row r="509" ht="14.25" spans="1:1">
       <c r="A509" s="21"/>
     </row>
-    <row r="510" spans="1:1">
+    <row r="510" ht="14.25" spans="1:1">
       <c r="A510" s="21"/>
     </row>
-    <row r="511" spans="1:1">
+    <row r="511" ht="14.25" spans="1:1">
       <c r="A511" s="21"/>
     </row>
-    <row r="512" spans="1:1">
+    <row r="512" ht="14.25" spans="1:1">
       <c r="A512" s="21"/>
     </row>
-    <row r="513" spans="1:1">
+    <row r="513" ht="14.25" spans="1:1">
       <c r="A513" s="21"/>
     </row>
-    <row r="514" spans="1:1">
+    <row r="514" ht="14.25" spans="1:1">
       <c r="A514" s="21"/>
     </row>
-    <row r="515" spans="1:1">
+    <row r="515" ht="14.25" spans="1:1">
       <c r="A515" s="21"/>
     </row>
-    <row r="516" spans="1:1">
+    <row r="516" ht="14.25" spans="1:1">
       <c r="A516" s="21"/>
     </row>
-    <row r="517" spans="1:1">
+    <row r="517" ht="14.25" spans="1:1">
       <c r="A517" s="21"/>
     </row>
-    <row r="518" spans="1:1">
+    <row r="518" ht="14.25" spans="1:1">
       <c r="A518" s="21"/>
     </row>
-    <row r="519" spans="1:1">
+    <row r="519" ht="14.25" spans="1:1">
       <c r="A519" s="21"/>
     </row>
-    <row r="520" spans="1:1">
+    <row r="520" ht="14.25" spans="1:1">
       <c r="A520" s="21"/>
     </row>
-    <row r="521" spans="1:1">
+    <row r="521" ht="14.25" spans="1:1">
       <c r="A521" s="21"/>
     </row>
-    <row r="522" spans="1:1">
+    <row r="522" ht="14.25" spans="1:1">
       <c r="A522" s="21"/>
     </row>
-    <row r="523" spans="1:1">
+    <row r="523" ht="14.25" spans="1:1">
       <c r="A523" s="21"/>
     </row>
-    <row r="524" spans="1:1">
+    <row r="524" ht="14.25" spans="1:1">
       <c r="A524" s="21"/>
     </row>
-    <row r="525" spans="1:1">
+    <row r="525" ht="14.25" spans="1:1">
       <c r="A525" s="21"/>
     </row>
-    <row r="526" spans="1:1">
+    <row r="526" ht="14.25" spans="1:1">
       <c r="A526" s="21"/>
     </row>
-    <row r="527" spans="1:1">
+    <row r="527" ht="14.25" spans="1:1">
       <c r="A527" s="21"/>
     </row>
-    <row r="528" spans="1:1">
+    <row r="528" ht="14.25" spans="1:1">
       <c r="A528" s="21"/>
     </row>
-    <row r="529" spans="1:1">
+    <row r="529" ht="14.25" spans="1:1">
       <c r="A529" s="21"/>
     </row>
-    <row r="530" spans="1:1">
+    <row r="530" ht="14.25" spans="1:1">
       <c r="A530" s="21"/>
     </row>
-    <row r="531" spans="1:1">
+    <row r="531" ht="14.25" spans="1:1">
       <c r="A531" s="21"/>
     </row>
-    <row r="532" spans="1:1">
+    <row r="532" ht="14.25" spans="1:1">
       <c r="A532" s="21"/>
     </row>
-    <row r="533" spans="1:1">
+    <row r="533" ht="14.25" spans="1:1">
       <c r="A533" s="21"/>
     </row>
-    <row r="534" spans="1:1">
+    <row r="534" ht="14.25" spans="1:1">
       <c r="A534" s="21"/>
     </row>
-    <row r="535" spans="1:1">
+    <row r="535" ht="14.25" spans="1:1">
       <c r="A535" s="21"/>
     </row>
-    <row r="536" spans="1:1">
+    <row r="536" ht="14.25" spans="1:1">
       <c r="A536" s="21"/>
     </row>
-    <row r="537" spans="1:1">
+    <row r="537" ht="14.25" spans="1:1">
       <c r="A537" s="21"/>
     </row>
-    <row r="538" spans="1:1">
+    <row r="538" ht="14.25" spans="1:1">
       <c r="A538" s="21"/>
     </row>
-    <row r="539" spans="1:1">
+    <row r="539" ht="14.25" spans="1:1">
       <c r="A539" s="21"/>
     </row>
-    <row r="540" spans="1:1">
+    <row r="540" ht="14.25" spans="1:1">
       <c r="A540" s="21"/>
     </row>
-    <row r="541" spans="1:1">
+    <row r="541" ht="14.25" spans="1:1">
       <c r="A541" s="21"/>
     </row>
-    <row r="542" spans="1:1">
+    <row r="542" ht="14.25" spans="1:1">
       <c r="A542" s="21"/>
     </row>
-    <row r="543" spans="1:1">
+    <row r="543" ht="14.25" spans="1:1">
       <c r="A543" s="21"/>
     </row>
-    <row r="544" spans="1:1">
+    <row r="544" ht="14.25" spans="1:1">
       <c r="A544" s="21"/>
     </row>
-    <row r="545" spans="1:1">
+    <row r="545" ht="14.25" spans="1:1">
       <c r="A545" s="21"/>
     </row>
-    <row r="546" spans="1:1">
+    <row r="546" ht="14.25" spans="1:1">
       <c r="A546" s="21"/>
     </row>
-    <row r="547" spans="1:1">
+    <row r="547" ht="14.25" spans="1:1">
       <c r="A547" s="21"/>
     </row>
-    <row r="548" spans="1:1">
+    <row r="548" ht="14.25" spans="1:1">
       <c r="A548" s="21"/>
     </row>
-    <row r="549" spans="1:1">
+    <row r="549" ht="14.25" spans="1:1">
       <c r="A549" s="21"/>
     </row>
-    <row r="550" spans="1:1">
+    <row r="550" ht="14.25" spans="1:1">
       <c r="A550" s="21"/>
     </row>
-    <row r="551" spans="1:1">
+    <row r="551" ht="14.25" spans="1:1">
       <c r="A551" s="21"/>
     </row>
-    <row r="552" spans="1:1">
+    <row r="552" ht="14.25" spans="1:1">
       <c r="A552" s="21"/>
     </row>
-    <row r="553" spans="1:1">
+    <row r="553" ht="14.25" spans="1:1">
       <c r="A553" s="21"/>
     </row>
-    <row r="554" spans="1:1">
+    <row r="554" ht="14.25" spans="1:1">
       <c r="A554" s="21"/>
     </row>
-    <row r="555" spans="1:1">
+    <row r="555" ht="14.25" spans="1:1">
       <c r="A555" s="21"/>
     </row>
-    <row r="556" spans="1:1">
+    <row r="556" ht="14.25" spans="1:1">
       <c r="A556" s="21"/>
     </row>
-    <row r="557" spans="1:1">
+    <row r="557" ht="14.25" spans="1:1">
       <c r="A557" s="21"/>
     </row>
-    <row r="558" spans="1:1">
+    <row r="558" ht="14.25" spans="1:1">
       <c r="A558" s="21"/>
     </row>
-    <row r="559" spans="1:1">
+    <row r="559" ht="14.25" spans="1:1">
       <c r="A559" s="21"/>
     </row>
-    <row r="560" spans="1:1">
+    <row r="560" ht="14.25" spans="1:1">
       <c r="A560" s="21"/>
     </row>
-    <row r="561" spans="1:1">
+    <row r="561" ht="14.25" spans="1:1">
       <c r="A561" s="21"/>
     </row>
-    <row r="562" spans="1:1">
+    <row r="562" ht="14.25" spans="1:1">
       <c r="A562" s="21"/>
     </row>
-    <row r="563" spans="1:1">
+    <row r="563" ht="14.25" spans="1:1">
       <c r="A563" s="21"/>
     </row>
-    <row r="564" spans="1:1">
+    <row r="564" ht="14.25" spans="1:1">
       <c r="A564" s="21"/>
     </row>
-    <row r="565" spans="1:1">
+    <row r="565" ht="14.25" spans="1:1">
       <c r="A565" s="21"/>
     </row>
-    <row r="566" spans="1:1">
+    <row r="566" ht="14.25" spans="1:1">
       <c r="A566" s="21"/>
     </row>
-    <row r="567" spans="1:1">
+    <row r="567" ht="14.25" spans="1:1">
       <c r="A567" s="21"/>
     </row>
-    <row r="568" spans="1:1">
+    <row r="568" ht="14.25" spans="1:1">
       <c r="A568" s="21"/>
     </row>
-    <row r="569" spans="1:1">
+    <row r="569" ht="14.25" spans="1:1">
       <c r="A569" s="21"/>
     </row>
-    <row r="570" spans="1:1">
+    <row r="570" ht="14.25" spans="1:1">
       <c r="A570" s="21"/>
     </row>
-    <row r="571" spans="1:1">
+    <row r="571" ht="14.25" spans="1:1">
       <c r="A571" s="21"/>
     </row>
-    <row r="572" spans="1:1">
+    <row r="572" ht="14.25" spans="1:1">
       <c r="A572" s="21"/>
     </row>
-    <row r="573" spans="1:1">
+    <row r="573" ht="14.25" spans="1:1">
       <c r="A573" s="21"/>
     </row>
-    <row r="574" spans="1:1">
+    <row r="574" ht="14.25" spans="1:1">
       <c r="A574" s="21"/>
     </row>
-    <row r="575" spans="1:1">
+    <row r="575" ht="14.25" spans="1:1">
       <c r="A575" s="21"/>
     </row>
-    <row r="576" spans="1:1">
+    <row r="576" ht="14.25" spans="1:1">
       <c r="A576" s="21"/>
     </row>
-    <row r="577" spans="1:1">
+    <row r="577" ht="14.25" spans="1:1">
       <c r="A577" s="21"/>
     </row>
-    <row r="578" spans="1:1">
+    <row r="578" ht="14.25" spans="1:1">
       <c r="A578" s="21"/>
     </row>
-    <row r="579" spans="1:1">
+    <row r="579" ht="14.25" spans="1:1">
       <c r="A579" s="21"/>
     </row>
-    <row r="580" spans="1:1">
+    <row r="580" ht="14.25" spans="1:1">
       <c r="A580" s="21"/>
     </row>
-    <row r="581" spans="1:1">
+    <row r="581" ht="14.25" spans="1:1">
       <c r="A581" s="21"/>
     </row>
-    <row r="582" spans="1:1">
+    <row r="582" ht="14.25" spans="1:1">
       <c r="A582" s="21"/>
     </row>
-    <row r="583" spans="1:1">
+    <row r="583" ht="14.25" spans="1:1">
       <c r="A583" s="21"/>
     </row>
-    <row r="584" spans="1:1">
+    <row r="584" ht="14.25" spans="1:1">
       <c r="A584" s="21"/>
     </row>
-    <row r="585" spans="1:1">
+    <row r="585" ht="14.25" spans="1:1">
       <c r="A585" s="21"/>
     </row>
-    <row r="586" spans="1:1">
+    <row r="586" ht="14.25" spans="1:1">
       <c r="A586" s="21"/>
     </row>
-    <row r="587" spans="1:1">
+    <row r="587" ht="14.25" spans="1:1">
       <c r="A587" s="21"/>
     </row>
-    <row r="588" spans="1:1">
+    <row r="588" ht="14.25" spans="1:1">
       <c r="A588" s="21"/>
     </row>
-    <row r="589" spans="1:1">
+    <row r="589" ht="14.25" spans="1:1">
       <c r="A589" s="21"/>
     </row>
-    <row r="590" spans="1:1">
+    <row r="590" ht="14.25" spans="1:1">
       <c r="A590" s="21"/>
     </row>
-    <row r="591" spans="1:1">
+    <row r="591" ht="14.25" spans="1:1">
       <c r="A591" s="21"/>
     </row>
-    <row r="592" spans="1:1">
+    <row r="592" ht="14.25" spans="1:1">
       <c r="A592" s="21"/>
     </row>
-    <row r="593" spans="1:1">
+    <row r="593" ht="14.25" spans="1:1">
       <c r="A593" s="21"/>
     </row>
-    <row r="594" spans="1:1">
+    <row r="594" ht="14.25" spans="1:1">
       <c r="A594" s="21"/>
     </row>
-    <row r="595" spans="1:1">
+    <row r="595" ht="14.25" spans="1:1">
       <c r="A595" s="21"/>
     </row>
-    <row r="596" spans="1:1">
+    <row r="596" ht="14.25" spans="1:1">
       <c r="A596" s="21"/>
     </row>
-    <row r="597" spans="1:1">
+    <row r="597" ht="14.25" spans="1:1">
       <c r="A597" s="21"/>
     </row>
-    <row r="598" spans="1:1">
+    <row r="598" ht="14.25" spans="1:1">
       <c r="A598" s="21"/>
     </row>
-    <row r="599" spans="1:1">
+    <row r="599" ht="14.25" spans="1:1">
       <c r="A599" s="21"/>
     </row>
-    <row r="600" spans="1:1">
+    <row r="600" ht="14.25" spans="1:1">
       <c r="A600" s="21"/>
     </row>
-    <row r="601" spans="1:1">
+    <row r="601" ht="14.25" spans="1:1">
       <c r="A601" s="21"/>
     </row>
-    <row r="602" spans="1:1">
+    <row r="602" ht="14.25" spans="1:1">
       <c r="A602" s="21"/>
     </row>
-    <row r="603" spans="1:1">
+    <row r="603" ht="14.25" spans="1:1">
       <c r="A603" s="21"/>
     </row>
-    <row r="604" spans="1:1">
+    <row r="604" ht="14.25" spans="1:1">
       <c r="A604" s="21"/>
     </row>
-    <row r="605" spans="1:1">
+    <row r="605" ht="14.25" spans="1:1">
       <c r="A605" s="21"/>
     </row>
-    <row r="606" spans="1:1">
+    <row r="606" ht="14.25" spans="1:1">
       <c r="A606" s="21"/>
     </row>
-    <row r="607" spans="1:1">
+    <row r="607" ht="14.25" spans="1:1">
       <c r="A607" s="21"/>
     </row>
-    <row r="608" spans="1:1">
+    <row r="608" ht="14.25" spans="1:1">
       <c r="A608" s="21"/>
     </row>
-    <row r="609" spans="1:1">
+    <row r="609" ht="14.25" spans="1:1">
       <c r="A609" s="21"/>
     </row>
-    <row r="610" spans="1:1">
+    <row r="610" ht="14.25" spans="1:1">
       <c r="A610" s="21"/>
     </row>
-    <row r="611" spans="1:1">
+    <row r="611" ht="14.25" spans="1:1">
       <c r="A611" s="21"/>
     </row>
-    <row r="612" spans="1:1">
+    <row r="612" ht="14.25" spans="1:1">
       <c r="A612" s="21"/>
     </row>
-    <row r="613" spans="1:1">
+    <row r="613" ht="14.25" spans="1:1">
       <c r="A613" s="21"/>
     </row>
-    <row r="614" spans="1:1">
+    <row r="614" ht="14.25" spans="1:1">
       <c r="A614" s="21"/>
     </row>
-    <row r="615" spans="1:1">
+    <row r="615" ht="14.25" spans="1:1">
       <c r="A615" s="21"/>
     </row>
-    <row r="616" spans="1:1">
+    <row r="616" ht="14.25" spans="1:1">
       <c r="A616" s="21"/>
     </row>
-    <row r="617" spans="1:1">
+    <row r="617" ht="14.25" spans="1:1">
       <c r="A617" s="21"/>
     </row>
-    <row r="618" spans="1:1">
+    <row r="618" ht="14.25" spans="1:1">
       <c r="A618" s="21"/>
     </row>
-    <row r="619" spans="1:1">
+    <row r="619" ht="14.25" spans="1:1">
       <c r="A619" s="21"/>
     </row>
-    <row r="620" spans="1:1">
+    <row r="620" ht="14.25" spans="1:1">
       <c r="A620" s="21"/>
     </row>
-    <row r="621" spans="1:1">
+    <row r="621" ht="14.25" spans="1:1">
       <c r="A621" s="21"/>
     </row>
-    <row r="622" spans="1:1">
+    <row r="622" ht="14.25" spans="1:1">
       <c r="A622" s="21"/>
     </row>
-    <row r="623" spans="1:1">
+    <row r="623" ht="14.25" spans="1:1">
       <c r="A623" s="21"/>
     </row>
-    <row r="624" spans="1:1">
+    <row r="624" ht="14.25" spans="1:1">
       <c r="A624" s="21"/>
     </row>
-    <row r="625" spans="1:1">
+    <row r="625" ht="14.25" spans="1:1">
       <c r="A625" s="21"/>
     </row>
-    <row r="626" spans="1:1">
+    <row r="626" ht="14.25" spans="1:1">
       <c r="A626" s="21"/>
     </row>
-    <row r="627" spans="1:1">
+    <row r="627" ht="14.25" spans="1:1">
       <c r="A627" s="21"/>
     </row>
-    <row r="628" spans="1:1">
+    <row r="628" ht="14.25" spans="1:1">
       <c r="A628" s="21"/>
     </row>
-    <row r="629" spans="1:1">
+    <row r="629" ht="14.25" spans="1:1">
       <c r="A629" s="21"/>
     </row>
-    <row r="630" spans="1:1">
+    <row r="630" ht="14.25" spans="1:1">
       <c r="A630" s="21"/>
     </row>
-    <row r="631" spans="1:1">
+    <row r="631" ht="14.25" spans="1:1">
       <c r="A631" s="21"/>
     </row>
-    <row r="632" spans="1:1">
+    <row r="632" ht="14.25" spans="1:1">
       <c r="A632" s="21"/>
     </row>
-    <row r="633" spans="1:1">
+    <row r="633" ht="14.25" spans="1:1">
       <c r="A633" s="21"/>
     </row>
-    <row r="634" spans="1:1">
+    <row r="634" ht="14.25" spans="1:1">
       <c r="A634" s="21"/>
     </row>
-    <row r="635" spans="1:1">
+    <row r="635" ht="14.25" spans="1:1">
       <c r="A635" s="21"/>
     </row>
-    <row r="636" spans="1:1">
+    <row r="636" ht="14.25" spans="1:1">
       <c r="A636" s="21"/>
     </row>
-    <row r="637" spans="1:1">
+    <row r="637" ht="14.25" spans="1:1">
       <c r="A637" s="21"/>
     </row>
-    <row r="638" spans="1:1">
+    <row r="638" ht="14.25" spans="1:1">
       <c r="A638" s="21"/>
     </row>
-    <row r="639" spans="1:1">
+    <row r="639" ht="14.25" spans="1:1">
       <c r="A639" s="21"/>
     </row>
-    <row r="640" spans="1:1">
+    <row r="640" ht="14.25" spans="1:1">
       <c r="A640" s="21"/>
     </row>
-    <row r="641" spans="1:1">
+    <row r="641" ht="14.25" spans="1:1">
       <c r="A641" s="21"/>
     </row>
-    <row r="642" spans="1:1">
+    <row r="642" ht="14.25" spans="1:1">
       <c r="A642" s="21"/>
     </row>
-    <row r="643" spans="1:1">
+    <row r="643" ht="14.25" spans="1:1">
       <c r="A643" s="21"/>
     </row>
-    <row r="644" spans="1:1">
+    <row r="644" ht="14.25" spans="1:1">
       <c r="A644" s="21"/>
     </row>
-    <row r="645" spans="1:1">
+    <row r="645" ht="14.25" spans="1:1">
       <c r="A645" s="21"/>
     </row>
-    <row r="646" spans="1:1">
+    <row r="646" ht="14.25" spans="1:1">
       <c r="A646" s="21"/>
     </row>
-    <row r="647" spans="1:1">
+    <row r="647" ht="14.25" spans="1:1">
       <c r="A647" s="21"/>
     </row>
-    <row r="648" spans="1:1">
+    <row r="648" ht="14.25" spans="1:1">
       <c r="A648" s="21"/>
     </row>
-    <row r="649" spans="1:1">
+    <row r="649" ht="14.25" spans="1:1">
       <c r="A649" s="21"/>
     </row>
-    <row r="650" spans="1:1">
+    <row r="650" ht="14.25" spans="1:1">
       <c r="A650" s="21"/>
     </row>
-    <row r="651" spans="1:1">
+    <row r="651" ht="14.25" spans="1:1">
       <c r="A651" s="21"/>
     </row>
-    <row r="652" spans="1:1">
+    <row r="652" ht="14.25" spans="1:1">
       <c r="A652" s="21"/>
     </row>
-    <row r="653" spans="1:1">
+    <row r="653" ht="14.25" spans="1:1">
       <c r="A653" s="21"/>
     </row>
-    <row r="654" spans="1:1">
+    <row r="654" ht="14.25" spans="1:1">
       <c r="A654" s="21"/>
     </row>
-    <row r="655" spans="1:1">
+    <row r="655" ht="14.25" spans="1:1">
       <c r="A655" s="21"/>
     </row>
-    <row r="656" spans="1:1">
+    <row r="656" ht="14.25" spans="1:1">
       <c r="A656" s="21"/>
     </row>
-    <row r="657" spans="1:1">
+    <row r="657" ht="14.25" spans="1:1">
       <c r="A657" s="21"/>
     </row>
-    <row r="658" spans="1:1">
+    <row r="658" ht="14.25" spans="1:1">
       <c r="A658" s="21"/>
     </row>
-    <row r="659" spans="1:1">
+    <row r="659" ht="14.25" spans="1:1">
       <c r="A659" s="21"/>
     </row>
-    <row r="660" spans="1:1">
+    <row r="660" ht="14.25" spans="1:1">
       <c r="A660" s="21"/>
     </row>
-    <row r="661" spans="1:1">
+    <row r="661" ht="14.25" spans="1:1">
       <c r="A661" s="21"/>
     </row>
-    <row r="662" spans="1:1">
+    <row r="662" ht="14.25" spans="1:1">
       <c r="A662" s="21"/>
     </row>
-    <row r="663" spans="1:1">
+    <row r="663" ht="14.25" spans="1:1">
       <c r="A663" s="21"/>
     </row>
-    <row r="664" spans="1:1">
+    <row r="664" ht="14.25" spans="1:1">
       <c r="A664" s="21"/>
     </row>
-    <row r="665" spans="1:1">
+    <row r="665" ht="14.25" spans="1:1">
       <c r="A665" s="21"/>
     </row>
-    <row r="666" spans="1:1">
+    <row r="666" ht="14.25" spans="1:1">
       <c r="A666" s="21"/>
     </row>
-    <row r="667" spans="1:1">
+    <row r="667" ht="14.25" spans="1:1">
       <c r="A667" s="21"/>
     </row>
-    <row r="668" spans="1:1">
+    <row r="668" ht="14.25" spans="1:1">
       <c r="A668" s="21"/>
     </row>
-    <row r="669" spans="1:1">
+    <row r="669" ht="14.25" spans="1:1">
       <c r="A669" s="21"/>
     </row>
-    <row r="670" spans="1:1">
+    <row r="670" ht="14.25" spans="1:1">
       <c r="A670" s="21"/>
     </row>
-    <row r="671" spans="1:1">
+    <row r="671" ht="14.25" spans="1:1">
       <c r="A671" s="21"/>
     </row>
-    <row r="672" spans="1:1">
+    <row r="672" ht="14.25" spans="1:1">
       <c r="A672" s="21"/>
     </row>
-    <row r="673" spans="1:1">
+    <row r="673" ht="14.25" spans="1:1">
       <c r="A673" s="21"/>
     </row>
-    <row r="674" spans="1:1">
+    <row r="674" ht="14.25" spans="1:1">
       <c r="A674" s="21"/>
     </row>
-    <row r="675" spans="1:1">
+    <row r="675" ht="14.25" spans="1:1">
       <c r="A675" s="21"/>
     </row>
-    <row r="676" spans="1:1">
+    <row r="676" ht="14.25" spans="1:1">
       <c r="A676" s="21"/>
     </row>
-    <row r="677" spans="1:1">
+    <row r="677" ht="14.25" spans="1:1">
       <c r="A677" s="21"/>
     </row>
-    <row r="678" spans="1:1">
+    <row r="678" ht="14.25" spans="1:1">
       <c r="A678" s="21"/>
     </row>
-    <row r="679" spans="1:1">
+    <row r="679" ht="14.25" spans="1:1">
       <c r="A679" s="21"/>
     </row>
-    <row r="680" spans="1:1">
+    <row r="680" ht="14.25" spans="1:1">
       <c r="A680" s="21"/>
     </row>
-    <row r="681" spans="1:1">
+    <row r="681" ht="14.25" spans="1:1">
       <c r="A681" s="21"/>
     </row>
-    <row r="682" spans="1:1">
+    <row r="682" ht="14.25" spans="1:1">
       <c r="A682" s="21"/>
     </row>
-    <row r="683" spans="1:1">
+    <row r="683" ht="14.25" spans="1:1">
       <c r="A683" s="21"/>
     </row>
-    <row r="684" spans="1:1">
+    <row r="684" ht="14.25" spans="1:1">
       <c r="A684" s="21"/>
     </row>
-    <row r="685" spans="1:1">
+    <row r="685" ht="14.25" spans="1:1">
       <c r="A685" s="21"/>
     </row>
-    <row r="686" spans="1:1">
+    <row r="686" ht="14.25" spans="1:1">
       <c r="A686" s="21"/>
     </row>
-    <row r="687" spans="1:1">
+    <row r="687" ht="14.25" spans="1:1">
       <c r="A687" s="21"/>
     </row>
-    <row r="688" spans="1:1">
+    <row r="688" ht="14.25" spans="1:1">
       <c r="A688" s="21"/>
     </row>
-    <row r="689" spans="1:1">
+    <row r="689" ht="14.25" spans="1:1">
       <c r="A689" s="21"/>
     </row>
-    <row r="690" spans="1:1">
+    <row r="690" ht="14.25" spans="1:1">
       <c r="A690" s="21"/>
     </row>
-    <row r="691" spans="1:1">
+    <row r="691" ht="14.25" spans="1:1">
       <c r="A691" s="21"/>
     </row>
-    <row r="692" spans="1:1">
+    <row r="692" ht="14.25" spans="1:1">
       <c r="A692" s="21"/>
     </row>
-    <row r="693" spans="1:1">
+    <row r="693" ht="14.25" spans="1:1">
       <c r="A693" s="21"/>
     </row>
-    <row r="694" spans="1:1">
+    <row r="694" ht="14.25" spans="1:1">
       <c r="A694" s="21"/>
     </row>
-    <row r="695" spans="1:1">
+    <row r="695" ht="14.25" spans="1:1">
       <c r="A695" s="21"/>
     </row>
-    <row r="696" spans="1:1">
+    <row r="696" ht="14.25" spans="1:1">
       <c r="A696" s="21"/>
     </row>
-    <row r="697" spans="1:1">
+    <row r="697" ht="14.25" spans="1:1">
       <c r="A697" s="21"/>
     </row>
-    <row r="698" spans="1:1">
+    <row r="698" ht="14.25" spans="1:1">
       <c r="A698" s="21"/>
     </row>
-    <row r="699" spans="1:1">
+    <row r="699" ht="14.25" spans="1:1">
       <c r="A699" s="21"/>
     </row>
-    <row r="700" spans="1:1">
+    <row r="700" ht="14.25" spans="1:1">
       <c r="A700" s="21"/>
     </row>
-    <row r="701" spans="1:1">
+    <row r="701" ht="14.25" spans="1:1">
       <c r="A701" s="21"/>
     </row>
-    <row r="702" spans="1:1">
+    <row r="702" ht="14.25" spans="1:1">
       <c r="A702" s="21"/>
     </row>
-    <row r="703" spans="1:1">
+    <row r="703" ht="14.25" spans="1:1">
       <c r="A703" s="21"/>
     </row>
-    <row r="704" spans="1:1">
+    <row r="704" ht="14.25" spans="1:1">
       <c r="A704" s="21"/>
     </row>
-    <row r="705" spans="1:1">
+    <row r="705" ht="14.25" spans="1:1">
       <c r="A705" s="21"/>
     </row>
-    <row r="706" spans="1:1">
+    <row r="706" ht="14.25" spans="1:1">
       <c r="A706" s="21"/>
     </row>
-    <row r="707" spans="1:1">
+    <row r="707" ht="14.25" spans="1:1">
       <c r="A707" s="21"/>
     </row>
-    <row r="708" spans="1:1">
+    <row r="708" ht="14.25" spans="1:1">
       <c r="A708" s="21"/>
     </row>
-    <row r="709" spans="1:1">
+    <row r="709" ht="14.25" spans="1:1">
       <c r="A709" s="21"/>
     </row>
-    <row r="710" spans="1:1">
+    <row r="710" ht="14.25" spans="1:1">
       <c r="A710" s="21"/>
     </row>
-    <row r="711" spans="1:1">
+    <row r="711" ht="14.25" spans="1:1">
       <c r="A711" s="21"/>
     </row>
-    <row r="712" spans="1:1">
+    <row r="712" ht="14.25" spans="1:1">
       <c r="A712" s="21"/>
     </row>
-    <row r="713" spans="1:1">
+    <row r="713" ht="14.25" spans="1:1">
       <c r="A713" s="21"/>
     </row>
-    <row r="714" spans="1:1">
+    <row r="714" ht="14.25" spans="1:1">
       <c r="A714" s="21"/>
     </row>
-    <row r="715" spans="1:1">
+    <row r="715" ht="14.25" spans="1:1">
       <c r="A715" s="21"/>
     </row>
-    <row r="716" spans="1:1">
+    <row r="716" ht="14.25" spans="1:1">
       <c r="A716" s="21"/>
     </row>
-    <row r="717" spans="1:1">
+    <row r="717" ht="14.25" spans="1:1">
       <c r="A717" s="21"/>
     </row>
-    <row r="718" spans="1:1">
+    <row r="718" ht="14.25" spans="1:1">
       <c r="A718" s="21"/>
     </row>
-    <row r="719" spans="1:1">
+    <row r="719" ht="14.25" spans="1:1">
       <c r="A719" s="21"/>
     </row>
-    <row r="720" spans="1:1">
+    <row r="720" ht="14.25" spans="1:1">
       <c r="A720" s="21"/>
     </row>
-    <row r="721" spans="1:1">
+    <row r="721" ht="14.25" spans="1:1">
       <c r="A721" s="21"/>
     </row>
-    <row r="722" spans="1:1">
+    <row r="722" ht="14.25" spans="1:1">
       <c r="A722" s="21"/>
     </row>
-    <row r="723" spans="1:1">
+    <row r="723" ht="14.25" spans="1:1">
       <c r="A723" s="21"/>
     </row>
-    <row r="724" spans="1:1">
+    <row r="724" ht="14.25" spans="1:1">
       <c r="A724" s="21"/>
     </row>
-    <row r="725" spans="1:1">
+    <row r="725" ht="14.25" spans="1:1">
       <c r="A725" s="21"/>
     </row>
-    <row r="726" spans="1:1">
+    <row r="726" ht="14.25" spans="1:1">
       <c r="A726" s="21"/>
     </row>
-    <row r="727" spans="1:1">
+    <row r="727" ht="14.25" spans="1:1">
       <c r="A727" s="21"/>
     </row>
-    <row r="728" spans="1:1">
+    <row r="728" ht="14.25" spans="1:1">
       <c r="A728" s="21"/>
     </row>
-    <row r="729" spans="1:1">
+    <row r="729" ht="14.25" spans="1:1">
       <c r="A729" s="21"/>
     </row>
-    <row r="730" spans="1:1">
+    <row r="730" ht="14.25" spans="1:1">
       <c r="A730" s="21"/>
     </row>
-    <row r="731" spans="1:1">
+    <row r="731" ht="14.25" spans="1:1">
       <c r="A731" s="21"/>
     </row>
-    <row r="732" spans="1:1">
+    <row r="732" ht="14.25" spans="1:1">
       <c r="A732" s="21"/>
     </row>
-    <row r="733" spans="1:1">
+    <row r="733" ht="14.25" spans="1:1">
       <c r="A733" s="21"/>
     </row>
-    <row r="734" spans="1:1">
+    <row r="734" ht="14.25" spans="1:1">
       <c r="A734" s="21"/>
     </row>
-    <row r="735" spans="1:1">
+    <row r="735" ht="14.25" spans="1:1">
       <c r="A735" s="21"/>
     </row>
-    <row r="736" spans="1:1">
+    <row r="736" ht="14.25" spans="1:1">
       <c r="A736" s="21"/>
     </row>
-    <row r="737" spans="1:1">
+    <row r="737" ht="14.25" spans="1:1">
       <c r="A737" s="21"/>
     </row>
-    <row r="738" spans="1:1">
+    <row r="738" ht="14.25" spans="1:1">
       <c r="A738" s="21"/>
     </row>
-    <row r="739" spans="1:1">
+    <row r="739" ht="14.25" spans="1:1">
       <c r="A739" s="21"/>
     </row>
-    <row r="740" spans="1:1">
+    <row r="740" ht="14.25" spans="1:1">
       <c r="A740" s="21"/>
     </row>
-    <row r="741" spans="1:1">
+    <row r="741" ht="14.25" spans="1:1">
       <c r="A741" s="21"/>
     </row>
-    <row r="742" spans="1:1">
+    <row r="742" ht="14.25" spans="1:1">
       <c r="A742" s="21"/>
     </row>
-    <row r="743" spans="1:1">
+    <row r="743" ht="14.25" spans="1:1">
       <c r="A743" s="21"/>
     </row>
-    <row r="744" spans="1:1">
+    <row r="744" ht="14.25" spans="1:1">
       <c r="A744" s="21"/>
     </row>
-    <row r="745" spans="1:1">
+    <row r="745" ht="14.25" spans="1:1">
       <c r="A745" s="21"/>
     </row>
-    <row r="746" spans="1:1">
+    <row r="746" ht="14.25" spans="1:1">
       <c r="A746" s="21"/>
     </row>
-    <row r="747" spans="1:1">
+    <row r="747" ht="14.25" spans="1:1">
       <c r="A747" s="21"/>
     </row>
-    <row r="748" spans="1:1">
+    <row r="748" ht="14.25" spans="1:1">
       <c r="A748" s="21"/>
     </row>
-    <row r="749" spans="1:1">
+    <row r="749" ht="14.25" spans="1:1">
       <c r="A749" s="21"/>
     </row>
-    <row r="750" spans="1:1">
+    <row r="750" ht="14.25" spans="1:1">
       <c r="A750" s="21"/>
     </row>
-    <row r="751" spans="1:1">
+    <row r="751" ht="14.25" spans="1:1">
       <c r="A751" s="21"/>
     </row>
-    <row r="752" spans="1:1">
+    <row r="752" ht="14.25" spans="1:1">
       <c r="A752" s="21"/>
     </row>
-    <row r="753" spans="1:1">
+    <row r="753" ht="14.25" spans="1:1">
       <c r="A753" s="21"/>
     </row>
-    <row r="754" spans="1:1">
+    <row r="754" ht="14.25" spans="1:1">
       <c r="A754" s="21"/>
     </row>
-    <row r="755" spans="1:1">
+    <row r="755" ht="14.25" spans="1:1">
       <c r="A755" s="21"/>
     </row>
-    <row r="756" spans="1:1">
+    <row r="756" ht="14.25" spans="1:1">
       <c r="A756" s="21"/>
     </row>
-    <row r="757" spans="1:1">
+    <row r="757" ht="14.25" spans="1:1">
       <c r="A757" s="21"/>
     </row>
-    <row r="758" spans="1:1">
+    <row r="758" ht="14.25" spans="1:1">
       <c r="A758" s="21"/>
     </row>
-    <row r="759" spans="1:1">
+    <row r="759" ht="14.25" spans="1:1">
       <c r="A759" s="21"/>
     </row>
-    <row r="760" spans="1:1">
+    <row r="760" ht="14.25" spans="1:1">
       <c r="A760" s="21"/>
     </row>
-    <row r="761" spans="1:1">
+    <row r="761" ht="14.25" spans="1:1">
       <c r="A761" s="21"/>
     </row>
-    <row r="762" spans="1:1">
+    <row r="762" ht="14.25" spans="1:1">
       <c r="A762" s="21"/>
     </row>
   </sheetData>

--- a/招商团长/talkLine.xlsx
+++ b/招商团长/talkLine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="974">
   <si>
     <t>店铺旺旺</t>
   </si>
@@ -2930,6 +2930,30 @@
   <si>
     <t>QQ :465834648 微信：18657168587</t>
   </si>
+  <si>
+    <t>海螺旗舰店</t>
+  </si>
+  <si>
+    <t>V:xu1061791983;Q :1040706869</t>
+  </si>
+  <si>
+    <t>susino梅花旗舰店</t>
+  </si>
+  <si>
+    <t>Q :13891443</t>
+  </si>
+  <si>
+    <t>蕉下官方旗舰店</t>
+  </si>
+  <si>
+    <t>Q:Q :2238963084</t>
+  </si>
+  <si>
+    <t>天堂众人专卖店</t>
+  </si>
+  <si>
+    <t>Q :156178158</t>
+  </si>
 </sst>
 </file>
 
@@ -2937,9 +2961,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -3063,7 +3087,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3077,46 +3116,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3130,26 +3139,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3170,7 +3163,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3184,15 +3177,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3201,6 +3202,29 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3221,7 +3245,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3233,67 +3257,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3311,7 +3275,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3323,85 +3419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3416,30 +3440,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -3450,6 +3450,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3469,11 +3478,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3496,8 +3511,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3512,6 +3527,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3520,10 +3544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3532,133 +3556,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4066,7 +4090,7 @@
   <dimension ref="A1:E762"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A459" workbookViewId="0">
-      <selection activeCell="A471" sqref="A471"/>
+      <selection activeCell="A475" sqref="A475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -7964,17 +7988,37 @@
         <v>965</v>
       </c>
     </row>
-    <row r="472" ht="14.25" spans="1:1">
-      <c r="A472" s="21"/>
-    </row>
-    <row r="473" ht="14.25" spans="1:1">
-      <c r="A473" s="21"/>
-    </row>
-    <row r="474" ht="14.25" spans="1:1">
-      <c r="A474" s="21"/>
-    </row>
-    <row r="475" ht="14.25" spans="1:1">
-      <c r="A475" s="21"/>
+    <row r="472" ht="14.25" spans="1:2">
+      <c r="A472" s="21" t="s">
+        <v>966</v>
+      </c>
+      <c r="B472" s="4" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="473" ht="14.25" spans="1:2">
+      <c r="A473" s="21" t="s">
+        <v>968</v>
+      </c>
+      <c r="B473" s="4" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="474" ht="14.25" spans="1:2">
+      <c r="A474" s="21" t="s">
+        <v>970</v>
+      </c>
+      <c r="B474" s="4" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="475" ht="14.25" spans="1:2">
+      <c r="A475" s="21" t="s">
+        <v>972</v>
+      </c>
+      <c r="B475" s="4" t="s">
+        <v>973</v>
+      </c>
     </row>
     <row r="476" ht="14.25" spans="1:1">
       <c r="A476" s="21"/>

--- a/招商团长/talkLine.xlsx
+++ b/招商团长/talkLine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17115" windowHeight="7965"/>
+    <workbookView windowWidth="21510" windowHeight="9105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="976">
   <si>
     <t>店铺旺旺</t>
   </si>
@@ -2954,15 +2954,21 @@
   <si>
     <t>Q :156178158</t>
   </si>
+  <si>
+    <t>膜玉旗舰店</t>
+  </si>
+  <si>
+    <t>Q:1621876769</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
@@ -3086,38 +3092,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3131,9 +3108,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3146,9 +3122,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3162,14 +3159,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3186,22 +3183,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3215,16 +3197,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3245,7 +3251,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3257,25 +3377,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3287,13 +3407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3305,127 +3425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3440,16 +3446,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3478,17 +3484,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3517,6 +3517,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3524,15 +3539,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3544,10 +3550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3556,133 +3562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4090,7 +4096,7 @@
   <dimension ref="A1:E762"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A459" workbookViewId="0">
-      <selection activeCell="A475" sqref="A475"/>
+      <selection activeCell="A476" sqref="A476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -8020,8 +8026,13 @@
         <v>973</v>
       </c>
     </row>
-    <row r="476" ht="14.25" spans="1:1">
-      <c r="A476" s="21"/>
+    <row r="476" ht="14.25" spans="1:2">
+      <c r="A476" s="21" t="s">
+        <v>974</v>
+      </c>
+      <c r="B476" s="4" t="s">
+        <v>975</v>
+      </c>
     </row>
     <row r="477" ht="14.25" spans="1:1">
       <c r="A477" s="21"/>
